--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -207,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欢迎来到宫斗攻略！我们先打开轿子获取一个宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运气真好！获得了很多钱，让我们返回去继续升级宫女吧。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +220,10 @@
   </si>
   <si>
     <t>让我们接着解锁新的关卡，可以开启新的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎来到后宫！我们先打开轿子获取一个宫女。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +696,7 @@
   <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>39</v>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>43</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>43</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="6"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/shopCellNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>button_buy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/PassCellNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>btn_shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +216,30 @@
   </si>
   <si>
     <t>欢迎来到后宫！我们先打开轿子获取一个宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/ShopView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/GameSceneView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonXY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物坐标显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-276,-205</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -263,6 +279,12 @@
       <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -303,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,6 +374,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -695,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -733,7 +761,9 @@
       <c r="G1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -757,7 +787,9 @@
       <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -769,7 +801,6 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -793,7 +824,9 @@
       <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
@@ -809,11 +842,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
@@ -829,11 +864,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
@@ -849,11 +886,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
@@ -869,15 +908,17 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
@@ -893,15 +934,17 @@
         <v>1</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
@@ -917,15 +960,17 @@
         <v>1</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
@@ -941,11 +986,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
@@ -961,11 +1008,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
@@ -981,15 +1030,17 @@
         <v>1</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
@@ -1005,15 +1056,17 @@
         <v>1</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
@@ -1029,15 +1082,17 @@
         <v>1</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
@@ -1053,15 +1108,17 @@
         <v>1</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
@@ -1077,11 +1134,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
@@ -1090,7 +1149,7 @@
       <c r="D18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
@@ -1100,7 +1159,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
@@ -1110,7 +1169,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="12"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
@@ -1120,7 +1179,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -239,7 +239,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-276,-205</t>
+    <t>0,-276</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +724,7 @@
   <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/GameSceneView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PersonXY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +236,10 @@
   </si>
   <si>
     <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PassView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="12"/>
       <c r="H6" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="12"/>
       <c r="H7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -943,7 +943,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -969,7 +969,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1013,7 +1013,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1033,13 +1033,13 @@
         <v>42</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
         <v>38</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
         <v>39</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="6"/>
       <c r="H17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -10,12 +10,12 @@
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0轿子仆人，1指向位置固定2点空地结束）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NextGuide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,14 +236,68 @@
   </si>
   <si>
     <t>Prefab/PassView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0轿子仆人，1指向位置固定2点空地结束3轿子4仆人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaidInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仆人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仆人数量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -283,6 +333,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -720,31 +776,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H317"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J317"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.8984375" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>19</v>
@@ -762,10 +819,13 @@
         <v>23</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -788,10 +848,14 @@
         <v>26</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -802,15 +866,15 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>28</v>
@@ -825,10 +889,13 @@
         <v>24</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -842,15 +909,18 @@
         <v>1</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36.75" customHeight="1">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -864,15 +934,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="12"/>
       <c r="H6" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36.75" customHeight="1">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -886,15 +956,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="12"/>
       <c r="H7" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36.75" customHeight="1">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -908,19 +978,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="36.75" customHeight="1">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -934,19 +1004,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36.75" customHeight="1">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -960,19 +1030,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="36.75" customHeight="1">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -986,15 +1056,15 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="36.75" customHeight="1">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -1008,15 +1078,15 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36.75" customHeight="1">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -1030,19 +1100,19 @@
         <v>1</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="36.75" customHeight="1">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -1056,19 +1126,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="H14" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36.75" customHeight="1">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -1082,19 +1152,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -1108,19 +1178,19 @@
         <v>1</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="36.75" customHeight="1">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -1134,15 +1204,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="6"/>
       <c r="H17" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="36.75" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
@@ -1151,7 +1221,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="36.75" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
@@ -1161,7 +1231,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="36.75" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
@@ -1171,7 +1241,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="36.75" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
@@ -1181,7 +1251,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="36.75" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
@@ -1191,7 +1261,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="36.75" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
@@ -1201,7 +1271,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="36.75" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
@@ -1211,7 +1281,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="36.75" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="5"/>
@@ -1221,7 +1291,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="36.75" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="5"/>
@@ -1231,7 +1301,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="36.75" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="5"/>
@@ -1241,7 +1311,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="36.75" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5"/>
@@ -1251,7 +1321,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="36.75" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="5"/>
@@ -1261,7 +1331,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
@@ -1271,7 +1341,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
@@ -1281,7 +1351,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="5"/>
@@ -1291,7 +1361,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="5"/>
@@ -1301,7 +1371,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="5"/>
@@ -1311,7 +1381,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="5"/>
@@ -1321,7 +1391,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="5"/>
@@ -1331,7 +1401,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="16.5">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="5"/>
@@ -1341,7 +1411,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="5"/>
@@ -1351,7 +1421,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="5"/>
@@ -1361,7 +1431,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="5"/>
@@ -1371,7 +1441,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="5"/>
@@ -1381,7 +1451,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="5"/>
@@ -1391,7 +1461,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="C43" s="5"/>
       <c r="D43" s="12"/>
       <c r="E43" s="11"/>
@@ -1399,7 +1469,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="5"/>
@@ -1409,7 +1479,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="16.5">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="5"/>
@@ -1419,7 +1489,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="16.5">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="5"/>
@@ -1429,7 +1499,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="16.5">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="5"/>
@@ -1439,7 +1509,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="16.5">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="5"/>
@@ -1449,7 +1519,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="16.5">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="5"/>
@@ -1459,7 +1529,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="16.5">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="5"/>
@@ -1469,7 +1539,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="16.5">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -1479,7 +1549,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="16.5">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
@@ -1489,7 +1559,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="16.5">
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
       <c r="E53" s="11"/>
@@ -1497,7 +1567,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="16.5">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
@@ -1507,7 +1577,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="16.5">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="14"/>
@@ -1517,7 +1587,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="16.5">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="14"/>
@@ -1527,7 +1597,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="16.5">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
@@ -1537,7 +1607,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="16.5">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -1547,7 +1617,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="16.5">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -1557,7 +1627,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="16.5">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -1567,7 +1637,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="16.5">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -1577,7 +1647,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="16.5">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -1587,7 +1657,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="16.5">
       <c r="C63" s="14"/>
       <c r="D63" s="12"/>
       <c r="E63" s="11"/>
@@ -1595,7 +1665,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="16.5">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
@@ -1605,7 +1675,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="16.5">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -1615,7 +1685,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="16.5">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -1625,7 +1695,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="16.5">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -1635,7 +1705,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="16.5">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -1645,7 +1715,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="16.5">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -1655,7 +1725,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="16.5">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
@@ -1665,7 +1735,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="16.5">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="14"/>
@@ -1675,7 +1745,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="13"/>
     </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="16.5">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="14"/>
@@ -1685,7 +1755,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="16.5">
       <c r="C73" s="14"/>
       <c r="D73" s="12"/>
       <c r="E73" s="11"/>
@@ -1693,7 +1763,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="16.5">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="14"/>
@@ -1703,7 +1773,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="16.5">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="14"/>
@@ -1713,7 +1783,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="16.5">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="14"/>
@@ -1723,7 +1793,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="16.5">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="14"/>
@@ -1733,7 +1803,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="16.5">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="14"/>
@@ -1743,7 +1813,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="16.5">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="14"/>
@@ -1753,7 +1823,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="16.5">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="14"/>
@@ -1763,7 +1833,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="16.5">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="14"/>
@@ -1773,7 +1843,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="16.5">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
@@ -1783,7 +1853,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="16.5">
       <c r="C83" s="14"/>
       <c r="D83" s="12"/>
       <c r="E83" s="11"/>
@@ -1791,7 +1861,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="16.5">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -1801,7 +1871,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="16.5">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -1811,7 +1881,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="16.5">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -1821,7 +1891,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="16.5">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="14"/>
@@ -1831,7 +1901,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="16.5">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="14"/>
@@ -1841,7 +1911,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="13"/>
     </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="16.5">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="14"/>
@@ -1851,7 +1921,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="13"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="16.5">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="14"/>
@@ -1861,7 +1931,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="13"/>
     </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="16.5">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="14"/>
@@ -1871,7 +1941,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="13"/>
     </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="16.5">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
@@ -1881,7 +1951,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="13"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="16.5">
       <c r="C93" s="14"/>
       <c r="D93" s="12"/>
       <c r="E93" s="11"/>
@@ -1889,7 +1959,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="13"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="16.5">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -1899,7 +1969,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="16.5">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -1909,7 +1979,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="13"/>
     </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="16.5">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -1919,7 +1989,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="16.5">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -1929,7 +1999,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="16.5">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -1939,7 +2009,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="16.5">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="14"/>
@@ -1948,7 +2018,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="16.5">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="14"/>
@@ -1958,7 +2028,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="16.5">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="14"/>
@@ -1968,7 +2038,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="16.5">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="14"/>
@@ -1978,7 +2048,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="16.5">
       <c r="C103" s="14"/>
       <c r="D103" s="12"/>
       <c r="E103" s="15"/>
@@ -1986,7 +2056,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="16.5">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="14"/>
@@ -1996,7 +2066,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="16.5">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="14"/>
@@ -2006,7 +2076,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="16.5">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="14"/>
@@ -2016,952 +2086,952 @@
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="16.5">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107"/>
     </row>
-    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="16.5">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="16.5">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304"/>
       <c r="B304"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3">
       <c r="A306"/>
       <c r="B306"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3">
       <c r="A308"/>
       <c r="B308"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3">
       <c r="A310"/>
       <c r="B310"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3">
       <c r="A312"/>
       <c r="B312"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3">
       <c r="A314"/>
       <c r="B314"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="A316"/>
       <c r="B316"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
@@ -2978,26 +3048,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -3023,7 +3093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -11,11 +11,12 @@
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -251,53 +252,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>仆人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>id_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>仆人数量</t>
-    </r>
+    <t>仆人id_仆人数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -333,12 +304,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -776,14 +741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
@@ -796,7 +761,7 @@
     <col min="9" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -825,7 +790,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -855,7 +820,7 @@
       </c>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -866,7 +831,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
@@ -895,7 +860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1">
+    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -903,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="14">
         <v>1</v>
@@ -916,11 +881,9 @@
       <c r="H5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="36.75" customHeight="1">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -928,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="14">
         <v>1</v>
@@ -942,7 +905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="36.75" customHeight="1">
+    <row r="7" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -950,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="14">
         <v>0</v>
@@ -963,8 +926,11 @@
       <c r="H7" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="36.75" customHeight="1">
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -990,7 +956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="36.75" customHeight="1">
+    <row r="9" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1016,7 +982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36.75" customHeight="1">
+    <row r="10" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1042,7 +1008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36.75" customHeight="1">
+    <row r="11" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -1050,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="14">
         <v>0</v>
@@ -1063,8 +1029,11 @@
       <c r="H11" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="36.75" customHeight="1">
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -1072,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
         <v>0</v>
@@ -1085,8 +1054,11 @@
       <c r="H12" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="36.75" customHeight="1">
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -1112,7 +1084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="36.75" customHeight="1">
+    <row r="14" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -1138,7 +1110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="36.75" customHeight="1">
+    <row r="15" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -1164,7 +1136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="36.75" customHeight="1">
+    <row r="16" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -1190,7 +1162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="36.75" customHeight="1">
+    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -1212,7 +1184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="36.75" customHeight="1">
+    <row r="18" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
@@ -1221,7 +1193,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" ht="36.75" customHeight="1">
+    <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
@@ -1231,7 +1203,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" ht="36.75" customHeight="1">
+    <row r="20" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
@@ -1241,7 +1213,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" ht="36.75" customHeight="1">
+    <row r="21" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
@@ -1251,7 +1223,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" ht="36.75" customHeight="1">
+    <row r="22" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
@@ -1261,7 +1233,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="36.75" customHeight="1">
+    <row r="23" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
@@ -1271,7 +1243,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="36.75" customHeight="1">
+    <row r="24" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
@@ -1281,7 +1253,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="36.75" customHeight="1">
+    <row r="25" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="5"/>
@@ -1291,7 +1263,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="36.75" customHeight="1">
+    <row r="26" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="5"/>
@@ -1301,7 +1273,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="36.75" customHeight="1">
+    <row r="27" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="5"/>
@@ -1311,7 +1283,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="36.75" customHeight="1">
+    <row r="28" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5"/>
@@ -1321,7 +1293,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="36.75" customHeight="1">
+    <row r="29" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="5"/>
@@ -1331,7 +1303,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
@@ -1341,7 +1313,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
@@ -1351,7 +1323,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="5"/>
@@ -1361,7 +1333,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="5"/>
@@ -1371,7 +1343,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="5"/>
@@ -1381,7 +1353,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="5"/>
@@ -1391,7 +1363,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="5"/>
@@ -1401,7 +1373,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5">
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="5"/>
@@ -1411,7 +1383,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="5"/>
@@ -1421,7 +1393,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="5"/>
@@ -1431,7 +1403,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="5"/>
@@ -1441,7 +1413,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="5"/>
@@ -1451,7 +1423,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="5"/>
@@ -1461,7 +1433,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="12"/>
       <c r="E43" s="11"/>
@@ -1469,7 +1441,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="5"/>
@@ -1479,7 +1451,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5">
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="5"/>
@@ -1489,7 +1461,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5">
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="5"/>
@@ -1499,7 +1471,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5">
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="5"/>
@@ -1509,7 +1481,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="5"/>
@@ -1519,7 +1491,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5">
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="5"/>
@@ -1529,7 +1501,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5">
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="5"/>
@@ -1539,7 +1511,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5">
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -1549,7 +1521,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5">
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
@@ -1559,7 +1531,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5">
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
       <c r="E53" s="11"/>
@@ -1567,7 +1539,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5">
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
@@ -1577,7 +1549,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" ht="16.5">
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="14"/>
@@ -1587,7 +1559,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5">
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="14"/>
@@ -1597,7 +1569,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5">
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
@@ -1607,7 +1579,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5">
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -1617,7 +1589,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5">
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -1627,7 +1599,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:8" ht="16.5">
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -1637,7 +1609,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="16.5">
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -1647,7 +1619,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8" ht="16.5">
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -1657,7 +1629,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5">
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C63" s="14"/>
       <c r="D63" s="12"/>
       <c r="E63" s="11"/>
@@ -1665,7 +1637,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" ht="16.5">
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
@@ -1675,7 +1647,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="16.5">
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -1685,7 +1657,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:8" ht="16.5">
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -1695,7 +1667,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:8" ht="16.5">
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -1705,7 +1677,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" ht="16.5">
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -1715,7 +1687,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="1:8" ht="16.5">
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -1725,7 +1697,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="1:8" ht="16.5">
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
@@ -1735,7 +1707,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="1:8" ht="16.5">
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="14"/>
@@ -1745,7 +1717,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="13"/>
     </row>
-    <row r="72" spans="1:8" ht="16.5">
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="14"/>
@@ -1755,7 +1727,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="1:8" ht="16.5">
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C73" s="14"/>
       <c r="D73" s="12"/>
       <c r="E73" s="11"/>
@@ -1763,7 +1735,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:8" ht="16.5">
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="14"/>
@@ -1773,7 +1745,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="1:8" ht="16.5">
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="14"/>
@@ -1783,7 +1755,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="1:8" ht="16.5">
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="14"/>
@@ -1793,7 +1765,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:8" ht="16.5">
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="14"/>
@@ -1803,7 +1775,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:8" ht="16.5">
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="14"/>
@@ -1813,7 +1785,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:8" ht="16.5">
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="14"/>
@@ -1823,7 +1795,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:8" ht="16.5">
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="14"/>
@@ -1833,7 +1805,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:8" ht="16.5">
+    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="14"/>
@@ -1843,7 +1815,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:8" ht="16.5">
+    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
@@ -1853,7 +1825,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8" ht="16.5">
+    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C83" s="14"/>
       <c r="D83" s="12"/>
       <c r="E83" s="11"/>
@@ -1861,7 +1833,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8" ht="16.5">
+    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -1871,7 +1843,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:8" ht="16.5">
+    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -1881,7 +1853,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8" ht="16.5">
+    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -1891,7 +1863,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" ht="16.5">
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="14"/>
@@ -1901,7 +1873,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5">
+    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="14"/>
@@ -1911,7 +1883,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="13"/>
     </row>
-    <row r="89" spans="1:8" ht="16.5">
+    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="14"/>
@@ -1921,7 +1893,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="13"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5">
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="14"/>
@@ -1931,7 +1903,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="13"/>
     </row>
-    <row r="91" spans="1:8" ht="16.5">
+    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="14"/>
@@ -1941,7 +1913,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="13"/>
     </row>
-    <row r="92" spans="1:8" ht="16.5">
+    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
@@ -1951,7 +1923,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="13"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5">
+    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C93" s="14"/>
       <c r="D93" s="12"/>
       <c r="E93" s="11"/>
@@ -1959,7 +1931,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="13"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5">
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -1969,7 +1941,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="1:8" ht="16.5">
+    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -1979,7 +1951,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="13"/>
     </row>
-    <row r="96" spans="1:8" ht="16.5">
+    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -1989,7 +1961,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8" ht="16.5">
+    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -1999,7 +1971,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8" ht="16.5">
+    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -2009,7 +1981,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:8" ht="16.5">
+    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="14"/>
@@ -2018,7 +1990,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8" ht="16.5">
+    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="14"/>
@@ -2028,7 +2000,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8" ht="16.5">
+    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="14"/>
@@ -2038,7 +2010,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:8" ht="16.5">
+    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="14"/>
@@ -2048,7 +2020,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8" ht="16.5">
+    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C103" s="14"/>
       <c r="D103" s="12"/>
       <c r="E103" s="15"/>
@@ -2056,7 +2028,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:8" ht="16.5">
+    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="14"/>
@@ -2066,7 +2038,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:8" ht="16.5">
+    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="14"/>
@@ -2076,7 +2048,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="1:8" ht="16.5">
+    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="14"/>
@@ -2086,952 +2058,952 @@
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:8" ht="16.5">
+    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107"/>
     </row>
-    <row r="108" spans="1:8" ht="16.5">
+    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="16.5">
+    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306"/>
       <c r="B306"/>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308"/>
       <c r="B308"/>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310"/>
       <c r="B310"/>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312"/>
       <c r="B312"/>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314"/>
       <c r="B314"/>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316"/>
       <c r="B316"/>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
@@ -3048,26 +3020,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -3093,7 +3065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -11,12 +11,11 @@
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -261,6 +260,14 @@
   </si>
   <si>
     <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +752,7 @@
   <dimension ref="A1:J317"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -879,7 +886,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I5" s="9"/>
     </row>
@@ -902,7 +909,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="12"/>
       <c r="H6" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -924,7 +931,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="12"/>
       <c r="H7" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
         <v>64</v>
@@ -953,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -979,7 +986,7 @@
         <v>33</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1005,7 +1012,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1027,7 +1034,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
         <v>64</v>
@@ -1052,7 +1059,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
         <v>65</v>
@@ -1107,7 +1114,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1133,7 +1140,7 @@
         <v>38</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1159,7 +1166,7 @@
         <v>39</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1181,7 +1188,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="6"/>
       <c r="H17" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/PassView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（0轿子仆人，1指向位置固定2点空地结束3轿子4仆人）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,6 +264,10 @@
   </si>
   <si>
     <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/GameSceneView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +752,7 @@
   <dimension ref="A1:J317"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -794,7 +794,7 @@
         <v>55</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>57</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="19"/>
     </row>
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>28</v>
@@ -864,7 +864,7 @@
         <v>56</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -886,7 +886,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="9"/>
     </row>
@@ -909,7 +909,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="12"/>
       <c r="H6" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -931,10 +931,10 @@
       <c r="F7" s="14"/>
       <c r="G7" s="12"/>
       <c r="H7" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -986,7 +986,7 @@
         <v>33</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1034,10 +1034,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1059,10 +1059,10 @@
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>34</v>
@@ -1108,13 +1108,13 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
         <v>38</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>39</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1188,7 +1188,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="6"/>
       <c r="H17" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -268,6 +268,22 @@
   </si>
   <si>
     <t>Prefab/GameSceneView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们关闭商店看下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/ShopView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/ShopView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_shopclose</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J317"/>
+  <dimension ref="A1:J318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1022,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>33</v>
@@ -1016,45 +1032,42 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14">
-        <v>8</v>
-      </c>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="H11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14">
         <v>8</v>
-      </c>
-      <c r="B12" s="14">
-        <v>9</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="14">
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
@@ -1062,41 +1075,40 @@
         <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14">
         <v>9</v>
       </c>
-      <c r="B13" s="14">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="20" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14">
         <v>10</v>
-      </c>
-      <c r="B14" s="14">
-        <v>11</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -1105,39 +1117,39 @@
         <v>1</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14">
         <v>11</v>
-      </c>
-      <c r="B15" s="14">
-        <v>12</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="14">
         <v>1</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>65</v>
@@ -1145,68 +1157,84 @@
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
+        <v>11</v>
+      </c>
+      <c r="B16" s="14">
         <v>12</v>
-      </c>
-      <c r="B16" s="14">
-        <v>13</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14">
         <v>13</v>
       </c>
-      <c r="B17" s="14">
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>13</v>
+      </c>
+      <c r="B18" s="14">
         <v>0</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <v>0</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="20" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="6"/>
       <c r="H19" s="20"/>
     </row>
@@ -1216,7 +1244,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="12"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="20"/>
     </row>
@@ -1225,8 +1253,8 @@
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="6"/>
       <c r="H21" s="20"/>
     </row>
@@ -1238,7 +1266,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
@@ -1246,7 +1274,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="8"/>
     </row>
@@ -1256,19 +1284,19 @@
       <c r="C24" s="7"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
@@ -1285,7 +1313,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="5"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1295,7 +1323,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="5"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1305,17 +1333,17 @@
       <c r="B29" s="12"/>
       <c r="C29" s="5"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1325,7 +1353,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1335,7 +1363,7 @@
       <c r="B32" s="12"/>
       <c r="C32" s="5"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1345,7 +1373,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="5"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1355,7 +1383,7 @@
       <c r="B34" s="12"/>
       <c r="C34" s="5"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1365,7 +1393,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="5"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1375,7 +1403,7 @@
       <c r="B36" s="12"/>
       <c r="C36" s="5"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1405,10 +1433,10 @@
       <c r="B39" s="12"/>
       <c r="C39" s="5"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="13"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
@@ -1418,7 +1446,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
@@ -1428,7 +1456,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="13"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
@@ -1441,6 +1469,8 @@
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="5"/>
       <c r="D43" s="12"/>
       <c r="E43" s="11"/>
@@ -1449,8 +1479,6 @@
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
       <c r="C44" s="5"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11"/>
@@ -1463,7 +1491,7 @@
       <c r="B45" s="12"/>
       <c r="C45" s="5"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="6"/>
       <c r="H45" s="13"/>
@@ -1521,12 +1549,12 @@
     <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="14"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
@@ -1539,19 +1567,19 @@
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="11"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
       <c r="C54" s="14"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -1601,7 +1629,7 @@
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="11"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -1637,6 +1665,8 @@
       <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="14"/>
       <c r="D63" s="12"/>
       <c r="E63" s="11"/>
@@ -1645,8 +1675,6 @@
       <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
       <c r="C64" s="14"/>
       <c r="D64" s="12"/>
       <c r="E64" s="11"/>
@@ -1689,10 +1717,10 @@
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="13"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
@@ -1709,7 +1737,7 @@
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="11"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="13"/>
@@ -1735,6 +1763,8 @@
       <c r="H72" s="13"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="14"/>
       <c r="D73" s="12"/>
       <c r="E73" s="11"/>
@@ -1743,8 +1773,6 @@
       <c r="H73" s="13"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
       <c r="C74" s="14"/>
       <c r="D74" s="12"/>
       <c r="E74" s="11"/>
@@ -1778,7 +1806,7 @@
       <c r="C77" s="14"/>
       <c r="D77" s="12"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="6"/>
+      <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="13"/>
     </row>
@@ -1788,9 +1816,9 @@
       <c r="C78" s="14"/>
       <c r="D78" s="12"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
+      <c r="F78" s="6"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
@@ -1833,6 +1861,8 @@
       <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="14"/>
       <c r="D83" s="12"/>
       <c r="E83" s="11"/>
@@ -1841,8 +1871,6 @@
       <c r="H83" s="11"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
       <c r="C84" s="14"/>
       <c r="D84" s="12"/>
       <c r="E84" s="11"/>
@@ -1888,7 +1916,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="13"/>
+      <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
@@ -1931,6 +1959,8 @@
       <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="14"/>
       <c r="D93" s="12"/>
       <c r="E93" s="11"/>
@@ -1939,11 +1969,9 @@
       <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
       <c r="C94" s="14"/>
       <c r="D94" s="12"/>
-      <c r="E94" s="15"/>
+      <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="13"/>
@@ -1963,10 +1991,10 @@
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
       <c r="D96" s="12"/>
-      <c r="E96" s="11"/>
+      <c r="E96" s="15"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
@@ -1983,7 +2011,7 @@
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
       <c r="D98" s="12"/>
-      <c r="E98" s="15"/>
+      <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -1993,6 +2021,7 @@
       <c r="B99" s="12"/>
       <c r="C99" s="14"/>
       <c r="D99" s="12"/>
+      <c r="E99" s="15"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -2002,7 +2031,6 @@
       <c r="B100" s="12"/>
       <c r="C100" s="14"/>
       <c r="D100" s="12"/>
-      <c r="E100" s="15"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -2028,6 +2056,8 @@
       <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
       <c r="C103" s="14"/>
       <c r="D103" s="12"/>
       <c r="E103" s="15"/>
@@ -2036,8 +2066,6 @@
       <c r="H103" s="11"/>
     </row>
     <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
       <c r="C104" s="14"/>
       <c r="D104" s="12"/>
       <c r="E104" s="15"/>
@@ -2068,952 +2096,962 @@
     <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
-      <c r="C107"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
     </row>
     <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
+      <c r="C108"/>
     </row>
     <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
-      <c r="C109"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110"/>
-      <c r="B110"/>
+    </row>
+    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
-      <c r="C111"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
+      <c r="C112"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
-      <c r="C113"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
+      <c r="C114"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
-      <c r="C115"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
+      <c r="C116"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
-      <c r="C117"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
+      <c r="C118"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
-      <c r="C119"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
+      <c r="C120"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
-      <c r="C121"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
+      <c r="C122"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
-      <c r="C123"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
+      <c r="C124"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
-      <c r="C125"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
+      <c r="C126"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
-      <c r="C127"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
+      <c r="C128"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
-      <c r="C129"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
+      <c r="C130"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
-      <c r="C131"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
+      <c r="C132"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
-      <c r="C133"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
+      <c r="C134"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
-      <c r="C135"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
+      <c r="C136"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
-      <c r="C137"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
+      <c r="C138"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
-      <c r="C139"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
+      <c r="C140"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
-      <c r="C141"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
+      <c r="C142"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143"/>
-      <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
+      <c r="C144"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145"/>
-      <c r="C145"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
+      <c r="C146"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147"/>
-      <c r="C147"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
+      <c r="C148"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149"/>
-      <c r="C149"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
+      <c r="C150"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151"/>
-      <c r="C151"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
+      <c r="C152"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153"/>
-      <c r="C153"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
+      <c r="C154"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155"/>
-      <c r="C155"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
+      <c r="C156"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157"/>
-      <c r="C157"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
+      <c r="C158"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159"/>
       <c r="B159"/>
-      <c r="C159"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
+      <c r="C160"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="B161"/>
-      <c r="C161"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
+      <c r="C162"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="B163"/>
-      <c r="C163"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
+      <c r="C164"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="B165"/>
-      <c r="C165"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
+      <c r="C166"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="B167"/>
-      <c r="C167"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
+      <c r="C168"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169"/>
-      <c r="C169"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
+      <c r="C170"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
-      <c r="C171"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
+      <c r="C172"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
-      <c r="C173"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
+      <c r="C174"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
-      <c r="C175"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
+      <c r="C176"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
-      <c r="C177"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
+      <c r="C178"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179"/>
-      <c r="C179"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
+      <c r="C180"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181"/>
-      <c r="C181"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
+      <c r="C182"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183"/>
-      <c r="C183"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
+      <c r="C184"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185"/>
-      <c r="C185"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
+      <c r="C186"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="B187"/>
-      <c r="C187"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
+      <c r="C188"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189"/>
-      <c r="C189"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
+      <c r="C190"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191"/>
-      <c r="C191"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
+      <c r="C192"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193"/>
-      <c r="C193"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
+      <c r="C194"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195"/>
       <c r="B195"/>
-      <c r="C195"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
+      <c r="C196"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197"/>
       <c r="B197"/>
-      <c r="C197"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
+      <c r="C198"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199"/>
       <c r="B199"/>
-      <c r="C199"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
+      <c r="C200"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201"/>
       <c r="B201"/>
-      <c r="C201"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
+      <c r="C202"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203"/>
       <c r="B203"/>
-      <c r="C203"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
+      <c r="C204"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205"/>
       <c r="B205"/>
-      <c r="C205"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
+      <c r="C206"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207"/>
       <c r="B207"/>
-      <c r="C207"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
+      <c r="C208"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="B209"/>
-      <c r="C209"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
+      <c r="C210"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211"/>
       <c r="B211"/>
-      <c r="C211"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
+      <c r="C212"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213"/>
       <c r="B213"/>
-      <c r="C213"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
+      <c r="C214"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215"/>
       <c r="B215"/>
-      <c r="C215"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
+      <c r="C216"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217"/>
       <c r="B217"/>
-      <c r="C217"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
+      <c r="C218"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219"/>
       <c r="B219"/>
-      <c r="C219"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
+      <c r="C220"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221"/>
       <c r="B221"/>
-      <c r="C221"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
+      <c r="C222"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="B223"/>
-      <c r="C223"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
+      <c r="C224"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="B225"/>
-      <c r="C225"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
+      <c r="C226"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="B227"/>
-      <c r="C227"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
+      <c r="C228"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="B229"/>
-      <c r="C229"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
+      <c r="C230"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="B231"/>
-      <c r="C231"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
+      <c r="C232"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="B233"/>
-      <c r="C233"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
+      <c r="C234"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235"/>
       <c r="B235"/>
-      <c r="C235"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
+      <c r="C236"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237"/>
       <c r="B237"/>
-      <c r="C237"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
+      <c r="C238"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239"/>
       <c r="B239"/>
-      <c r="C239"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
+      <c r="C240"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241"/>
       <c r="B241"/>
-      <c r="C241"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
+      <c r="C242"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243"/>
       <c r="B243"/>
-      <c r="C243"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
+      <c r="C244"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245"/>
       <c r="B245"/>
-      <c r="C245"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
+      <c r="C246"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247"/>
       <c r="B247"/>
-      <c r="C247"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
+      <c r="C248"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249"/>
       <c r="B249"/>
-      <c r="C249"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
+      <c r="C250"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251"/>
       <c r="B251"/>
-      <c r="C251"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
+      <c r="C252"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253"/>
       <c r="B253"/>
-      <c r="C253"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
+      <c r="C254"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255"/>
       <c r="B255"/>
-      <c r="C255"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
+      <c r="C256"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257"/>
       <c r="B257"/>
-      <c r="C257"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
+      <c r="C258"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259"/>
       <c r="B259"/>
-      <c r="C259"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
+      <c r="C260"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261"/>
       <c r="B261"/>
-      <c r="C261"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
+      <c r="C262"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263"/>
       <c r="B263"/>
-      <c r="C263"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
+      <c r="C264"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="B265"/>
-      <c r="C265"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
+      <c r="C266"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267"/>
       <c r="B267"/>
-      <c r="C267"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
+      <c r="C268"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269"/>
       <c r="B269"/>
-      <c r="C269"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
+      <c r="C270"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="B271"/>
-      <c r="C271"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
+      <c r="C272"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273"/>
       <c r="B273"/>
-      <c r="C273"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
+      <c r="C274"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275"/>
       <c r="B275"/>
-      <c r="C275"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
+      <c r="C276"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277"/>
       <c r="B277"/>
-      <c r="C277"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
+      <c r="C278"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279"/>
       <c r="B279"/>
-      <c r="C279"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
+      <c r="C280"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281"/>
       <c r="B281"/>
-      <c r="C281"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
+      <c r="C282"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283"/>
       <c r="B283"/>
-      <c r="C283"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
+      <c r="C284"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285"/>
       <c r="B285"/>
-      <c r="C285"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
+      <c r="C286"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287"/>
       <c r="B287"/>
-      <c r="C287"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
+      <c r="C288"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289"/>
       <c r="B289"/>
-      <c r="C289"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
+      <c r="C290"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291"/>
       <c r="B291"/>
-      <c r="C291"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
+      <c r="C292"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293"/>
       <c r="B293"/>
-      <c r="C293"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
+      <c r="C294"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295"/>
       <c r="B295"/>
-      <c r="C295"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
+      <c r="C296"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297"/>
       <c r="B297"/>
-      <c r="C297"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
+      <c r="C298"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299"/>
       <c r="B299"/>
-      <c r="C299"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
+      <c r="C300"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301"/>
       <c r="B301"/>
-      <c r="C301"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
+      <c r="C302"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303"/>
       <c r="B303"/>
-      <c r="C303"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
+      <c r="C304"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305"/>
       <c r="B305"/>
-      <c r="C305"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306"/>
       <c r="B306"/>
+      <c r="C306"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307"/>
       <c r="B307"/>
-      <c r="C307"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308"/>
       <c r="B308"/>
+      <c r="C308"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309"/>
       <c r="B309"/>
-      <c r="C309"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310"/>
       <c r="B310"/>
+      <c r="C310"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311"/>
       <c r="B311"/>
-      <c r="C311"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312"/>
       <c r="B312"/>
+      <c r="C312"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313"/>
       <c r="B313"/>
-      <c r="C313"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314"/>
       <c r="B314"/>
+      <c r="C314"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315"/>
       <c r="B315"/>
-      <c r="C315"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316"/>
       <c r="B316"/>
+      <c r="C316"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317"/>
       <c r="B317"/>
-      <c r="C317"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318"/>
+      <c r="B318"/>
+      <c r="C318"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1032,8 +1032,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="14">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14">
+        <v>8</v>
+      </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
@@ -1055,10 +1059,10 @@
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
@@ -1080,10 +1084,10 @@
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
@@ -1105,10 +1109,10 @@
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -1131,10 +1135,10 @@
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1157,10 +1161,10 @@
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -1183,10 +1187,10 @@
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1209,7 +1213,7 @@
     </row>
     <row r="18" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="14">
         <v>0</v>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -284,6 +284,26 @@
   </si>
   <si>
     <t>button_shopclose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FingerXY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>217,-78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J318"/>
+  <dimension ref="A1:K318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -780,11 +800,11 @@
     <col min="5" max="5" width="36.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="35" customWidth="1"/>
+    <col min="8" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -810,10 +830,13 @@
         <v>55</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -838,12 +861,15 @@
       <c r="H2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -854,7 +880,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
@@ -879,11 +905,14 @@
       <c r="H4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -902,11 +931,12 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -927,8 +957,9 @@
       <c r="H6" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -949,11 +980,12 @@
       <c r="H7" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="20"/>
+      <c r="J7" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -978,8 +1010,9 @@
       <c r="H8" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1004,8 +1037,9 @@
       <c r="H9" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1030,8 +1064,9 @@
       <c r="H10" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -1056,8 +1091,9 @@
       <c r="H11" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -1078,11 +1114,12 @@
       <c r="H12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="20"/>
+      <c r="J12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -1103,11 +1140,12 @@
       <c r="H13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -1132,8 +1170,9 @@
       <c r="H14" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -1158,8 +1197,9 @@
       <c r="H15" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -1184,8 +1224,9 @@
       <c r="H16" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -1210,8 +1251,9 @@
       <c r="H17" s="20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -1222,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>52</v>
@@ -1232,8 +1274,11 @@
       <c r="H18" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
@@ -1241,8 +1286,9 @@
       <c r="F19" s="12"/>
       <c r="G19" s="6"/>
       <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
@@ -1251,8 +1297,9 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
@@ -1261,8 +1308,9 @@
       <c r="F21" s="12"/>
       <c r="G21" s="6"/>
       <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
@@ -1271,8 +1319,9 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
@@ -1281,8 +1330,9 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
@@ -1291,8 +1341,9 @@
       <c r="F24" s="12"/>
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
@@ -1301,8 +1352,9 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="5"/>
@@ -1311,8 +1363,9 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="5"/>
@@ -1321,8 +1374,9 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5"/>
@@ -1331,8 +1385,9 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="5"/>
@@ -1341,8 +1396,9 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
@@ -1351,8 +1407,9 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
@@ -1361,8 +1418,9 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="5"/>
@@ -1371,8 +1429,9 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="5"/>
@@ -1381,8 +1440,9 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="5"/>
@@ -1391,8 +1451,9 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="5"/>
@@ -1401,8 +1462,9 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="5"/>
@@ -1411,8 +1473,9 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="5"/>
@@ -1421,8 +1484,9 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="5"/>
@@ -1431,8 +1495,9 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="5"/>
@@ -1441,8 +1506,9 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="5"/>
@@ -1451,8 +1517,9 @@
       <c r="F40" s="11"/>
       <c r="G40" s="6"/>
       <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="5"/>
@@ -1461,8 +1528,9 @@
       <c r="F41" s="11"/>
       <c r="G41" s="6"/>
       <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="5"/>
@@ -1471,8 +1539,9 @@
       <c r="F42" s="11"/>
       <c r="G42" s="6"/>
       <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="5"/>
@@ -1481,16 +1550,18 @@
       <c r="F43" s="11"/>
       <c r="G43" s="6"/>
       <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="6"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="5"/>
@@ -1499,8 +1570,9 @@
       <c r="F45" s="11"/>
       <c r="G45" s="6"/>
       <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="5"/>
@@ -1509,8 +1581,9 @@
       <c r="F46" s="11"/>
       <c r="G46" s="6"/>
       <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="5"/>
@@ -1519,8 +1592,9 @@
       <c r="F47" s="11"/>
       <c r="G47" s="6"/>
       <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="5"/>
@@ -1529,8 +1603,9 @@
       <c r="F48" s="11"/>
       <c r="G48" s="6"/>
       <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="5"/>
@@ -1539,8 +1614,9 @@
       <c r="F49" s="11"/>
       <c r="G49" s="6"/>
       <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="5"/>
@@ -1549,8 +1625,9 @@
       <c r="F50" s="11"/>
       <c r="G50" s="6"/>
       <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="5"/>
@@ -1559,8 +1636,9 @@
       <c r="F51" s="11"/>
       <c r="G51" s="6"/>
       <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
@@ -1569,8 +1647,9 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -1579,16 +1658,18 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C54" s="14"/>
       <c r="D54" s="12"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="14"/>
@@ -1597,8 +1678,9 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="14"/>
@@ -1607,8 +1689,9 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
@@ -1617,8 +1700,9 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -1627,8 +1711,9 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -1637,8 +1722,9 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I59" s="11"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -1647,8 +1733,9 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I60" s="11"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -1657,8 +1744,9 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -1667,8 +1755,9 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
@@ -1677,16 +1766,18 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I63" s="11"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C64" s="14"/>
       <c r="D64" s="12"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -1695,8 +1786,9 @@
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -1705,8 +1797,9 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I66" s="11"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -1715,8 +1808,9 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -1725,8 +1819,9 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -1735,8 +1830,9 @@
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="13"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
@@ -1745,8 +1841,9 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="13"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="14"/>
@@ -1755,8 +1852,9 @@
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="13"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="14"/>
@@ -1765,8 +1863,9 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I72" s="13"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="14"/>
@@ -1775,16 +1874,18 @@
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="13"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I73" s="13"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C74" s="14"/>
       <c r="D74" s="12"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="13"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I74" s="13"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="14"/>
@@ -1793,8 +1894,9 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="14"/>
@@ -1803,8 +1905,9 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="13"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="14"/>
@@ -1813,8 +1916,9 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="13"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="14"/>
@@ -1823,8 +1927,9 @@
       <c r="F78" s="6"/>
       <c r="G78" s="11"/>
       <c r="H78" s="13"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I78" s="13"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="14"/>
@@ -1833,8 +1938,9 @@
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="14"/>
@@ -1843,8 +1949,9 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="14"/>
@@ -1853,8 +1960,9 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
@@ -1863,8 +1971,9 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -1873,16 +1982,18 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C84" s="14"/>
       <c r="D84" s="12"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -1891,8 +2002,9 @@
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -1901,8 +2013,9 @@
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="14"/>
@@ -1911,8 +2024,9 @@
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I87" s="11"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="14"/>
@@ -1921,8 +2035,9 @@
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I88" s="11"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="14"/>
@@ -1931,8 +2046,9 @@
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="13"/>
-    </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I89" s="13"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="14"/>
@@ -1941,8 +2057,9 @@
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="13"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I90" s="13"/>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="14"/>
@@ -1951,8 +2068,9 @@
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="13"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I91" s="13"/>
+    </row>
+    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
@@ -1961,8 +2079,9 @@
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="13"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -1971,16 +2090,18 @@
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="13"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I93" s="13"/>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C94" s="14"/>
       <c r="D94" s="12"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="13"/>
-    </row>
-    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I94" s="13"/>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -1989,8 +2110,9 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="13"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I95" s="13"/>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -1999,8 +2121,9 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="13"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I96" s="13"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -2009,8 +2132,9 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -2019,8 +2143,9 @@
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I98" s="11"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="14"/>
@@ -2029,8 +2154,9 @@
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
-    </row>
-    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="14"/>
@@ -2038,8 +2164,9 @@
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
-    </row>
-    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I100" s="11"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="14"/>
@@ -2048,8 +2175,9 @@
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
-    </row>
-    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I101" s="11"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="14"/>
@@ -2058,8 +2186,9 @@
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
-    </row>
-    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="14"/>
@@ -2068,16 +2197,18 @@
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I103" s="11"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C104" s="14"/>
       <c r="D104" s="12"/>
       <c r="E104" s="15"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
-    </row>
-    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I104" s="11"/>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="14"/>
@@ -2086,8 +2217,9 @@
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
-    </row>
-    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I105" s="11"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="14"/>
@@ -2096,8 +2228,9 @@
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
-    </row>
-    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="14"/>
@@ -2106,26 +2239,27 @@
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
-    </row>
-    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I107" s="11"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108"/>
     </row>
-    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PassCellNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>btn_shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,6 +300,10 @@
   </si>
   <si>
     <t>手指坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -827,13 +827,13 @@
         <v>23</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -859,13 +859,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="19"/>
     </row>
@@ -888,7 +888,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>28</v>
@@ -903,13 +903,13 @@
         <v>24</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -926,12 +926,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="9"/>
@@ -950,12 +950,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="12"/>
       <c r="H6" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20"/>
     </row>
@@ -973,16 +973,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="12"/>
       <c r="H7" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -999,16 +999,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="20"/>
     </row>
@@ -1026,16 +1026,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="20"/>
     </row>
@@ -1053,16 +1053,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="20"/>
     </row>
@@ -1080,16 +1080,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="H11" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="20"/>
     </row>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
       <c r="H13" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1159,16 +1159,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="20"/>
     </row>
@@ -1186,16 +1186,16 @@
         <v>1</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="20"/>
     </row>
@@ -1213,16 +1213,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="20"/>
     </row>
@@ -1240,16 +1240,16 @@
         <v>1</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="20"/>
     </row>
@@ -1267,15 +1267,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="6"/>
       <c r="H18" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -159,151 +159,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>我们把刚买的两个宫女合并升级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次购买一个宫女吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击购买宫女就可以直接获得一个宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉得合成宫女太累了？没关系，我们可以点击打开商店，购买宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有两个一样宫女以后，可以用手把两个宫女拖到一起，合并升级宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次打开轿子获取第二个宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运气真好！获得了很多钱，让我们返回去继续升级宫女吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试点击翻牌子，可以获取更多金币。（获得的金币数跟你拥有的宫女等级数量有关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们接着解锁新的关卡，可以开启新的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎来到后宫！我们先打开轿子获取一个宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/ShopView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonXY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物坐标显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0轿子仆人，1指向位置固定2点空地结束3轿子4仆人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaidInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仆人id_仆人数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/GameSceneView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们关闭商店看下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/ShopView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/ShopView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_shopclose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FingerXY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>217,-78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,429</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们接着合并升级宫女，可以开启新的关卡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>刚才的宫女去哪里了？让我们点击按钮来切换地图找她。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>让我们接着合并升级宫女，可以开启新的地图。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们把刚买的两个宫女合并升级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次购买一个宫女吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击购买宫女就可以直接获得一个宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉得合成宫女太累了？没关系，我们可以点击打开商店，购买宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当有两个一样宫女以后，可以用手把两个宫女拖到一起，合并升级宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次打开轿子获取第二个宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运气真好！获得了很多钱，让我们返回去继续升级宫女吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁了翻牌子，请点击打开看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试点击翻牌子，可以获取更多金币。（获得的金币数跟你拥有的宫女等级数量有关）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让我们接着解锁新的关卡，可以开启新的功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎来到后宫！我们先打开轿子获取一个宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/ShopView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonXY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物坐标显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0轿子仆人，1指向位置固定2点空地结束3轿子4仆人）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaidInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仆人id_仆人数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/GameSceneView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让我们关闭商店看下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/ShopView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/ShopView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_shopclose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FingerXY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>217,-78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell_2</t>
+    <t>恭喜解锁了翻牌子功能，请点击打开看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来在这里，合并高等级宫女不仅可以开启新关卡，还能解锁新功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K318"/>
+  <dimension ref="A1:K319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -827,13 +835,13 @@
         <v>23</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -859,13 +867,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="19"/>
     </row>
@@ -888,7 +896,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>28</v>
@@ -903,13 +911,13 @@
         <v>24</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -926,12 +934,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="9"/>
@@ -950,12 +958,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="12"/>
       <c r="H6" s="20" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I6" s="20"/>
     </row>
@@ -973,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="12"/>
       <c r="H7" s="20" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -999,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>35</v>
@@ -1008,7 +1016,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I8" s="20"/>
     </row>
@@ -1026,16 +1034,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I9" s="20"/>
     </row>
@@ -1053,16 +1061,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I10" s="20"/>
     </row>
@@ -1080,16 +1088,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="H11" s="20" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I11" s="20"/>
     </row>
@@ -1107,16 +1115,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1133,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
       <c r="H13" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1159,16 +1167,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I14" s="20"/>
     </row>
@@ -1180,24 +1188,22 @@
         <v>12</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
@@ -1209,20 +1215,20 @@
       <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="14">
         <v>1</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
     </row>
@@ -1236,20 +1242,20 @@
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
     </row>
@@ -1258,43 +1264,59 @@
         <v>14</v>
       </c>
       <c r="B18" s="14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="H18" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>74</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="14">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="14"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="H19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="6"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
@@ -1305,7 +1327,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="12"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
@@ -1315,8 +1337,8 @@
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="6"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -1329,8 +1351,8 @@
       <c r="E23" s="12"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
@@ -1338,7 +1360,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1349,7 +1371,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="6"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1357,13 +1379,13 @@
     <row r="26" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
@@ -1381,7 +1403,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="5"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1392,7 +1414,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="5"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1403,18 +1425,18 @@
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1425,7 +1447,7 @@
       <c r="B32" s="12"/>
       <c r="C32" s="5"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1436,7 +1458,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="5"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1447,7 +1469,7 @@
       <c r="B34" s="12"/>
       <c r="C34" s="5"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1458,7 +1480,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="5"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1469,7 +1491,7 @@
       <c r="B36" s="12"/>
       <c r="C36" s="5"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1480,7 +1502,7 @@
       <c r="B37" s="12"/>
       <c r="C37" s="5"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1513,11 +1535,11 @@
       <c r="B40" s="12"/>
       <c r="C40" s="5"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
@@ -1527,8 +1549,8 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
@@ -1538,8 +1560,8 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
@@ -1553,6 +1575,8 @@
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="5"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11"/>
@@ -1562,8 +1586,6 @@
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
       <c r="C45" s="5"/>
       <c r="D45" s="12"/>
       <c r="E45" s="11"/>
@@ -1577,7 +1599,7 @@
       <c r="B46" s="12"/>
       <c r="C46" s="5"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="6"/>
       <c r="H46" s="13"/>
@@ -1641,13 +1663,13 @@
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="14"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
@@ -1661,20 +1683,20 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="14"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="11"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
       <c r="C55" s="14"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -1729,7 +1751,7 @@
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="11"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -1769,6 +1791,8 @@
       <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="14"/>
       <c r="D64" s="12"/>
       <c r="E64" s="11"/>
@@ -1778,8 +1802,6 @@
       <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
       <c r="C65" s="14"/>
       <c r="D65" s="12"/>
       <c r="E65" s="11"/>
@@ -1826,11 +1848,11 @@
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
       <c r="D69" s="12"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
@@ -1848,7 +1870,7 @@
       <c r="B71" s="12"/>
       <c r="C71" s="14"/>
       <c r="D71" s="12"/>
-      <c r="E71" s="11"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="13"/>
@@ -1877,6 +1899,8 @@
       <c r="I73" s="13"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="14"/>
       <c r="D74" s="12"/>
       <c r="E74" s="11"/>
@@ -1886,8 +1910,6 @@
       <c r="I74" s="13"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
       <c r="C75" s="14"/>
       <c r="D75" s="12"/>
       <c r="E75" s="11"/>
@@ -1924,7 +1946,7 @@
       <c r="C78" s="14"/>
       <c r="D78" s="12"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="6"/>
+      <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
@@ -1935,10 +1957,10 @@
       <c r="C79" s="14"/>
       <c r="D79" s="12"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
+      <c r="F79" s="6"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
@@ -1985,6 +2007,8 @@
       <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="14"/>
       <c r="D84" s="12"/>
       <c r="E84" s="11"/>
@@ -1994,8 +2018,6 @@
       <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
       <c r="C85" s="14"/>
       <c r="D85" s="12"/>
       <c r="E85" s="11"/>
@@ -2045,8 +2067,8 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
@@ -2093,6 +2115,8 @@
       <c r="I93" s="13"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
       <c r="C94" s="14"/>
       <c r="D94" s="12"/>
       <c r="E94" s="11"/>
@@ -2102,11 +2126,9 @@
       <c r="I94" s="13"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
       <c r="C95" s="14"/>
       <c r="D95" s="12"/>
-      <c r="E95" s="15"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="13"/>
@@ -2128,11 +2150,11 @@
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
       <c r="D97" s="12"/>
-      <c r="E97" s="11"/>
+      <c r="E97" s="15"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
@@ -2150,7 +2172,7 @@
       <c r="B99" s="12"/>
       <c r="C99" s="14"/>
       <c r="D99" s="12"/>
-      <c r="E99" s="15"/>
+      <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -2161,6 +2183,7 @@
       <c r="B100" s="12"/>
       <c r="C100" s="14"/>
       <c r="D100" s="12"/>
+      <c r="E100" s="15"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -2171,7 +2194,6 @@
       <c r="B101" s="12"/>
       <c r="C101" s="14"/>
       <c r="D101" s="12"/>
-      <c r="E101" s="15"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -2200,6 +2222,8 @@
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
       <c r="C104" s="14"/>
       <c r="D104" s="12"/>
       <c r="E104" s="15"/>
@@ -2209,8 +2233,6 @@
       <c r="I104" s="11"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
       <c r="C105" s="14"/>
       <c r="D105" s="12"/>
       <c r="E105" s="15"/>
@@ -2244,952 +2266,963 @@
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
-      <c r="C108"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
+      <c r="C109"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
-      <c r="C110"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111"/>
-      <c r="B111"/>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="C111"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
-      <c r="C112"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
+      <c r="C113"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
-      <c r="C114"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
+      <c r="C115"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
-      <c r="C116"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
+      <c r="C117"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
-      <c r="C118"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
+      <c r="C119"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
-      <c r="C120"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
+      <c r="C121"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
-      <c r="C122"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
+      <c r="C123"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
-      <c r="C124"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
+      <c r="C125"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
-      <c r="C126"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
+      <c r="C127"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
-      <c r="C128"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
+      <c r="C129"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
-      <c r="C130"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
+      <c r="C131"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
-      <c r="C132"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
+      <c r="C133"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
-      <c r="C134"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
+      <c r="C135"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
-      <c r="C136"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
+      <c r="C137"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
-      <c r="C138"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
+      <c r="C139"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
-      <c r="C140"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
+      <c r="C141"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
-      <c r="C142"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143"/>
+      <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
-      <c r="C144"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145"/>
+      <c r="C145"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
-      <c r="C146"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147"/>
+      <c r="C147"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
-      <c r="C148"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149"/>
+      <c r="C149"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
-      <c r="C150"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151"/>
+      <c r="C151"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
-      <c r="C152"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153"/>
+      <c r="C153"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
-      <c r="C154"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155"/>
+      <c r="C155"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
-      <c r="C156"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157"/>
+      <c r="C157"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
-      <c r="C158"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159"/>
       <c r="B159"/>
+      <c r="C159"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
-      <c r="C160"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="B161"/>
+      <c r="C161"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
-      <c r="C162"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="B163"/>
+      <c r="C163"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
-      <c r="C164"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="B165"/>
+      <c r="C165"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
-      <c r="C166"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="B167"/>
+      <c r="C167"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
-      <c r="C168"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169"/>
+      <c r="C169"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
-      <c r="C170"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
+      <c r="C171"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
-      <c r="C172"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
+      <c r="C173"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
-      <c r="C174"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
+      <c r="C175"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
-      <c r="C176"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
+      <c r="C177"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
-      <c r="C178"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179"/>
+      <c r="C179"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
-      <c r="C180"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181"/>
+      <c r="C181"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
-      <c r="C182"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183"/>
+      <c r="C183"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
-      <c r="C184"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185"/>
+      <c r="C185"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
-      <c r="C186"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="B187"/>
+      <c r="C187"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
-      <c r="C188"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189"/>
+      <c r="C189"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
-      <c r="C190"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191"/>
+      <c r="C191"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
-      <c r="C192"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193"/>
+      <c r="C193"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
-      <c r="C194"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195"/>
       <c r="B195"/>
+      <c r="C195"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
-      <c r="C196"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197"/>
       <c r="B197"/>
+      <c r="C197"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
-      <c r="C198"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199"/>
       <c r="B199"/>
+      <c r="C199"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
-      <c r="C200"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201"/>
       <c r="B201"/>
+      <c r="C201"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
-      <c r="C202"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203"/>
       <c r="B203"/>
+      <c r="C203"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
-      <c r="C204"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205"/>
       <c r="B205"/>
+      <c r="C205"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
-      <c r="C206"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207"/>
       <c r="B207"/>
+      <c r="C207"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
-      <c r="C208"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="B209"/>
+      <c r="C209"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
-      <c r="C210"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211"/>
       <c r="B211"/>
+      <c r="C211"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
-      <c r="C212"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213"/>
       <c r="B213"/>
+      <c r="C213"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
-      <c r="C214"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215"/>
       <c r="B215"/>
+      <c r="C215"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
-      <c r="C216"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217"/>
       <c r="B217"/>
+      <c r="C217"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
-      <c r="C218"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219"/>
       <c r="B219"/>
+      <c r="C219"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
-      <c r="C220"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221"/>
       <c r="B221"/>
+      <c r="C221"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
-      <c r="C222"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="B223"/>
+      <c r="C223"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
-      <c r="C224"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="B225"/>
+      <c r="C225"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
-      <c r="C226"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="B227"/>
+      <c r="C227"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
-      <c r="C228"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="B229"/>
+      <c r="C229"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
-      <c r="C230"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="B231"/>
+      <c r="C231"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
-      <c r="C232"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="B233"/>
+      <c r="C233"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
-      <c r="C234"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235"/>
       <c r="B235"/>
+      <c r="C235"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
-      <c r="C236"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237"/>
       <c r="B237"/>
+      <c r="C237"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
-      <c r="C238"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239"/>
       <c r="B239"/>
+      <c r="C239"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
-      <c r="C240"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241"/>
       <c r="B241"/>
+      <c r="C241"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
-      <c r="C242"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243"/>
       <c r="B243"/>
+      <c r="C243"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
-      <c r="C244"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245"/>
       <c r="B245"/>
+      <c r="C245"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
-      <c r="C246"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247"/>
       <c r="B247"/>
+      <c r="C247"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
-      <c r="C248"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249"/>
       <c r="B249"/>
+      <c r="C249"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
-      <c r="C250"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251"/>
       <c r="B251"/>
+      <c r="C251"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
-      <c r="C252"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253"/>
       <c r="B253"/>
+      <c r="C253"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
-      <c r="C254"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255"/>
       <c r="B255"/>
+      <c r="C255"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
-      <c r="C256"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257"/>
       <c r="B257"/>
+      <c r="C257"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
-      <c r="C258"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259"/>
       <c r="B259"/>
+      <c r="C259"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
-      <c r="C260"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261"/>
       <c r="B261"/>
+      <c r="C261"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
-      <c r="C262"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263"/>
       <c r="B263"/>
+      <c r="C263"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
-      <c r="C264"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="B265"/>
+      <c r="C265"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
-      <c r="C266"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267"/>
       <c r="B267"/>
+      <c r="C267"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
-      <c r="C268"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269"/>
       <c r="B269"/>
+      <c r="C269"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
-      <c r="C270"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="B271"/>
+      <c r="C271"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
-      <c r="C272"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273"/>
       <c r="B273"/>
+      <c r="C273"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
-      <c r="C274"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275"/>
       <c r="B275"/>
+      <c r="C275"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
-      <c r="C276"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277"/>
       <c r="B277"/>
+      <c r="C277"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
-      <c r="C278"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279"/>
       <c r="B279"/>
+      <c r="C279"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
-      <c r="C280"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281"/>
       <c r="B281"/>
+      <c r="C281"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
-      <c r="C282"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283"/>
       <c r="B283"/>
+      <c r="C283"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
-      <c r="C284"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285"/>
       <c r="B285"/>
+      <c r="C285"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
-      <c r="C286"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287"/>
       <c r="B287"/>
+      <c r="C287"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
-      <c r="C288"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289"/>
       <c r="B289"/>
+      <c r="C289"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
-      <c r="C290"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291"/>
       <c r="B291"/>
+      <c r="C291"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
-      <c r="C292"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293"/>
       <c r="B293"/>
+      <c r="C293"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
-      <c r="C294"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295"/>
       <c r="B295"/>
+      <c r="C295"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
-      <c r="C296"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297"/>
       <c r="B297"/>
+      <c r="C297"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
-      <c r="C298"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299"/>
       <c r="B299"/>
+      <c r="C299"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
-      <c r="C300"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301"/>
       <c r="B301"/>
+      <c r="C301"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
-      <c r="C302"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303"/>
       <c r="B303"/>
+      <c r="C303"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
-      <c r="C304"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305"/>
       <c r="B305"/>
+      <c r="C305"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306"/>
       <c r="B306"/>
-      <c r="C306"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307"/>
       <c r="B307"/>
+      <c r="C307"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308"/>
       <c r="B308"/>
-      <c r="C308"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309"/>
       <c r="B309"/>
+      <c r="C309"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310"/>
       <c r="B310"/>
-      <c r="C310"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311"/>
       <c r="B311"/>
+      <c r="C311"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312"/>
       <c r="B312"/>
-      <c r="C312"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313"/>
       <c r="B313"/>
+      <c r="C313"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314"/>
       <c r="B314"/>
-      <c r="C314"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315"/>
       <c r="B315"/>
+      <c r="C315"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316"/>
       <c r="B316"/>
-      <c r="C316"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317"/>
       <c r="B317"/>
+      <c r="C317"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318"/>
       <c r="B318"/>
-      <c r="C318"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319"/>
+      <c r="B319"/>
+      <c r="C319"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>让我们接着解锁新的关卡，可以开启新的功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欢迎来到后宫！我们先打开轿子获取一个宫女。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,6 +308,60 @@
   </si>
   <si>
     <t>原来在这里，合并高等级宫女不仅可以开启新关卡，还能解锁新功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们回到第一关继续合并升级宫女吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>rue</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -809,7 +859,7 @@
     <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="35" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -835,13 +885,16 @@
         <v>23</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -867,15 +920,17 @@
         <v>26</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -896,7 +951,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>28</v>
@@ -911,13 +966,16 @@
         <v>24</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -934,15 +992,18 @@
         <v>1</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="9"/>
+      <c r="K5" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
@@ -963,9 +1024,12 @@
       <c r="F6" s="14"/>
       <c r="G6" s="12"/>
       <c r="H6" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="20"/>
+      <c r="K6" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
@@ -986,11 +1050,14 @@
       <c r="F7" s="14"/>
       <c r="G7" s="12"/>
       <c r="H7" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1016,9 +1083,12 @@
         <v>34</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="20"/>
+      <c r="K8" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
@@ -1037,15 +1107,18 @@
         <v>42</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="20"/>
+      <c r="K9" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
@@ -1064,15 +1137,18 @@
         <v>41</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="20"/>
+      <c r="K10" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
@@ -1088,18 +1164,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="H11" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" s="20"/>
+      <c r="K11" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
@@ -1120,11 +1199,14 @@
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1141,16 +1223,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
       <c r="H13" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1167,18 +1252,21 @@
         <v>1</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I14" s="20"/>
+      <c r="K14" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
@@ -1194,15 +1282,18 @@
         <v>1</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1219,20 +1310,23 @@
         <v>1</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -1255,11 +1349,14 @@
         <v>37</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -1282,11 +1379,14 @@
         <v>38</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -1294,24 +1394,29 @@
         <v>0</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="H19" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="K19" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
@@ -1321,7 +1426,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
@@ -1332,7 +1437,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
@@ -1343,7 +1448,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
@@ -1354,7 +1459,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
@@ -1365,7 +1470,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
@@ -1376,7 +1481,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="7"/>
@@ -1387,7 +1492,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="5"/>
@@ -1398,7 +1503,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5"/>
@@ -1409,7 +1514,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="5"/>
@@ -1420,7 +1525,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
@@ -1431,7 +1536,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
@@ -1442,7 +1547,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="5"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -312,10 +312,6 @@
   </si>
   <si>
     <t>cell_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-466</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -362,6 +358,14 @@
   </si>
   <si>
     <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,159</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +850,7 @@
   <dimension ref="A1:K319"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -894,7 +898,7 @@
         <v>55</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -929,7 +933,7 @@
         <v>56</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -975,7 +979,7 @@
         <v>57</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1002,7 +1006,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="9"/>
       <c r="K5" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1028,7 +1032,7 @@
       </c>
       <c r="I6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1057,7 +1061,7 @@
         <v>67</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1083,11 +1087,11 @@
         <v>34</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1117,7 +1121,7 @@
       </c>
       <c r="I9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1147,7 +1151,7 @@
       </c>
       <c r="I10" s="20"/>
       <c r="K10" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1173,11 +1177,11 @@
         <v>66</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I11" s="20"/>
       <c r="K11" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1206,7 +1210,7 @@
         <v>58</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1235,7 +1239,7 @@
         <v>59</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1261,11 +1265,11 @@
         <v>71</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1293,7 +1297,7 @@
         <v>69</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1319,11 +1323,11 @@
         <v>36</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I16" s="20"/>
       <c r="K16" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1353,7 +1357,7 @@
       </c>
       <c r="I17" s="20"/>
       <c r="K17" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1383,7 +1387,7 @@
       </c>
       <c r="I18" s="20"/>
       <c r="K18" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1400,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>35</v>
@@ -1409,11 +1413,11 @@
         <v>78</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I19" s="20"/>
       <c r="K19" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -212,10 +212,6 @@
   </si>
   <si>
     <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0轿子仆人，1指向位置固定2点空地结束3轿子4仆人）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -366,6 +362,18 @@
   </si>
   <si>
     <t>0,159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1指向位置固定2点空地结束3轿子4仆人5空白）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0无对话，1有对话）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K319"/>
+  <dimension ref="A1:L320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -858,15 +866,16 @@
     <col min="1" max="1" width="36.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -877,31 +886,34 @@
         <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -915,7 +927,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>26</v>
@@ -923,20 +935,23 @@
       <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>52</v>
+      <c r="H2" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -946,8 +961,9 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
@@ -955,34 +971,37 @@
         <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -992,24 +1011,27 @@
       <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="14"/>
+      <c r="I5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1019,23 +1041,26 @@
       <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="K6" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="L6" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1045,26 +1070,29 @@
       <c r="C7" s="16">
         <v>4</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1074,27 +1102,30 @@
       <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="K8" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="L8" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1104,27 +1135,30 @@
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="I9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="K9" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="20"/>
+      <c r="L9" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1134,27 +1168,30 @@
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="K10" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="20"/>
+      <c r="L10" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -1164,27 +1201,30 @@
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="K11" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="L11" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -1194,26 +1234,29 @@
       <c r="C12" s="5">
         <v>4</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14">
         <v>0</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -1223,26 +1266,29 @@
       <c r="C13" s="5">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -1252,27 +1298,30 @@
       <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="K14" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="L14" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -1282,25 +1331,28 @@
       <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -1310,27 +1362,30 @@
       <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="K16" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="L16" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -1343,24 +1398,27 @@
       <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="K17" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="L17" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -1368,1970 +1426,2196 @@
         <v>15</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>61</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="20"/>
-      <c r="K18" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="20"/>
+      <c r="L18" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>15</v>
       </c>
       <c r="B19" s="14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="L19" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>16</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="K19" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="L20" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="20"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="12"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="20"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="20"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="6"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="11"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G42" s="11"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="11"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G43" s="11"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="11"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="13"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="11"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="13"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="11"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="13"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="12"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="13"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="13"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="13"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="13"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="13"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J51" s="13"/>
+    </row>
+    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="13"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="12"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="11"/>
+      <c r="F53" s="12"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H53" s="6"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="11"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C56" s="14"/>
-      <c r="D56" s="12"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="12"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="12"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="11"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="12"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="11"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="12"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="11"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="12"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="11"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="11"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="11"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="11"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="11"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C66" s="14"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="11"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J66" s="11"/>
+    </row>
+    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="11"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J67" s="11"/>
+    </row>
+    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="11"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="12"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J68" s="11"/>
+    </row>
+    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="11"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-    </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J69" s="11"/>
+    </row>
+    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="9"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="11"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="9"/>
       <c r="G71" s="11"/>
-      <c r="H71" s="13"/>
+      <c r="H71" s="11"/>
       <c r="I71" s="13"/>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J71" s="13"/>
+    </row>
+    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="13"/>
+      <c r="H72" s="11"/>
       <c r="I72" s="13"/>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="11"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
-      <c r="H73" s="13"/>
+      <c r="H73" s="11"/>
       <c r="I73" s="13"/>
-    </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J73" s="13"/>
+    </row>
+    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="11"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="12"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
-      <c r="H74" s="13"/>
+      <c r="H74" s="11"/>
       <c r="I74" s="13"/>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J74" s="13"/>
+    </row>
+    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="11"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="13"/>
+      <c r="H75" s="11"/>
       <c r="I75" s="13"/>
-    </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
+      <c r="J75" s="13"/>
+    </row>
+    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C76" s="14"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="11"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="13"/>
+      <c r="H76" s="11"/>
       <c r="I76" s="13"/>
-    </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J76" s="13"/>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="14"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="11"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="13"/>
+      <c r="H77" s="11"/>
       <c r="I77" s="13"/>
-    </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J77" s="13"/>
+    </row>
+    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="11"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="13"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="13"/>
-    </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J78" s="13"/>
+    </row>
+    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="6"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="11"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="13"/>
+      <c r="H79" s="11"/>
       <c r="I79" s="13"/>
-    </row>
-    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J79" s="13"/>
+    </row>
+    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="11"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="G80" s="6"/>
       <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="11"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J81" s="11"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="11"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J82" s="11"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="11"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J83" s="11"/>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="11"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J84" s="11"/>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="11"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="J85" s="11"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C86" s="14"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="11"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="11"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J87" s="11"/>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="11"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J88" s="11"/>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="11"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J89" s="11"/>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="11"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="12"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-    </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="11"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="12"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="13"/>
+      <c r="H91" s="11"/>
       <c r="I91" s="13"/>
-    </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J91" s="13"/>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="11"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="12"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="13"/>
+      <c r="H92" s="11"/>
       <c r="I92" s="13"/>
-    </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J92" s="13"/>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="11"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="12"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
-      <c r="H93" s="13"/>
+      <c r="H93" s="11"/>
       <c r="I93" s="13"/>
-    </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J93" s="13"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="11"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="12"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
-      <c r="H94" s="13"/>
+      <c r="H94" s="11"/>
       <c r="I94" s="13"/>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J94" s="13"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
       <c r="C95" s="14"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="11"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="12"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
-      <c r="H95" s="13"/>
+      <c r="H95" s="11"/>
       <c r="I95" s="13"/>
-    </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
+      <c r="J95" s="13"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C96" s="14"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="15"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="12"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
-      <c r="H96" s="13"/>
+      <c r="H96" s="11"/>
       <c r="I96" s="13"/>
-    </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J96" s="13"/>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="11"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="15"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="13"/>
+      <c r="H97" s="11"/>
       <c r="I97" s="13"/>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J97" s="13"/>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="15"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-    </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="11"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="12"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
-    </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="14"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="15"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="12"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
-    </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="14"/>
-      <c r="D101" s="12"/>
-      <c r="F101" s="11"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="15"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="14"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="11"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="12"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J102" s="11"/>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="14"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="11"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="15"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
-    </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J103" s="11"/>
+    </row>
+    <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="14"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="11"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="15"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
-    </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J104" s="11"/>
+    </row>
+    <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="11"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="15"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
-    </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
+      <c r="J105" s="11"/>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C106" s="14"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="11"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="15"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
-    </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J106" s="11"/>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="14"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="11"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="15"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J107" s="11"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="14"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="11"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="15"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J108" s="11"/>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
-      <c r="C109"/>
-    </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
-    </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C110"/>
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
-      <c r="C111"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112"/>
-      <c r="B112"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112"/>
+      <c r="D112"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
-      <c r="C113"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C114"/>
+      <c r="D114"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
-      <c r="C115"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C116"/>
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C118"/>
+      <c r="D118"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
-      <c r="C119"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C120"/>
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
-      <c r="C121"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C122"/>
+      <c r="D122"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
-      <c r="C123"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C124"/>
+      <c r="D124"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
-      <c r="C125"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C126"/>
+      <c r="D126"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
-      <c r="C127"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C128"/>
+      <c r="D128"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
-      <c r="C129"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C130"/>
+      <c r="D130"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
-      <c r="C131"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C132"/>
+      <c r="D132"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
-      <c r="C133"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C134"/>
+      <c r="D134"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
-      <c r="C135"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C136"/>
+      <c r="D136"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
-      <c r="C137"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C138"/>
+      <c r="D138"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
-      <c r="C139"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C140"/>
+      <c r="D140"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
-      <c r="C141"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C142"/>
+      <c r="D142"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143"/>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C144"/>
+      <c r="D144"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145"/>
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C146"/>
+      <c r="D146"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147"/>
-      <c r="C147"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C148"/>
+      <c r="D148"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149"/>
-      <c r="C149"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C150"/>
+      <c r="D150"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151"/>
-      <c r="C151"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C152"/>
+      <c r="D152"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153"/>
-      <c r="C153"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C154"/>
+      <c r="D154"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155"/>
-      <c r="C155"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C156"/>
+      <c r="D156"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157"/>
-      <c r="C157"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C158"/>
+      <c r="D158"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159"/>
       <c r="B159"/>
-      <c r="C159"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C160"/>
+      <c r="D160"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="B161"/>
-      <c r="C161"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C162"/>
+      <c r="D162"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="B163"/>
-      <c r="C163"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C164"/>
+      <c r="D164"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="B165"/>
-      <c r="C165"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C166"/>
+      <c r="D166"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="B167"/>
-      <c r="C167"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C168"/>
+      <c r="D168"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169"/>
-      <c r="C169"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C170"/>
+      <c r="D170"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
-      <c r="C171"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C172"/>
+      <c r="D172"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
-      <c r="C173"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C174"/>
+      <c r="D174"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
-      <c r="C175"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C176"/>
+      <c r="D176"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
-      <c r="C177"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C178"/>
+      <c r="D178"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179"/>
-      <c r="C179"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C180"/>
+      <c r="D180"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181"/>
-      <c r="C181"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C182"/>
+      <c r="D182"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183"/>
-      <c r="C183"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C184"/>
+      <c r="D184"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185"/>
-      <c r="C185"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C186"/>
+      <c r="D186"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="B187"/>
-      <c r="C187"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C188"/>
+      <c r="D188"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189"/>
-      <c r="C189"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C190"/>
+      <c r="D190"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191"/>
-      <c r="C191"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C192"/>
+      <c r="D192"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193"/>
-      <c r="C193"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C194"/>
+      <c r="D194"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195"/>
       <c r="B195"/>
-      <c r="C195"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C196"/>
+      <c r="D196"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197"/>
       <c r="B197"/>
-      <c r="C197"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C198"/>
+      <c r="D198"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199"/>
       <c r="B199"/>
-      <c r="C199"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C200"/>
+      <c r="D200"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201"/>
       <c r="B201"/>
-      <c r="C201"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C202"/>
+      <c r="D202"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203"/>
       <c r="B203"/>
-      <c r="C203"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C204"/>
+      <c r="D204"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205"/>
       <c r="B205"/>
-      <c r="C205"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C206"/>
+      <c r="D206"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207"/>
       <c r="B207"/>
-      <c r="C207"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C208"/>
+      <c r="D208"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="B209"/>
-      <c r="C209"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C210"/>
+      <c r="D210"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211"/>
       <c r="B211"/>
-      <c r="C211"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C212"/>
+      <c r="D212"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213"/>
       <c r="B213"/>
-      <c r="C213"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C214"/>
+      <c r="D214"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215"/>
       <c r="B215"/>
-      <c r="C215"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C216"/>
+      <c r="D216"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217"/>
       <c r="B217"/>
-      <c r="C217"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C218"/>
+      <c r="D218"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219"/>
       <c r="B219"/>
-      <c r="C219"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C220"/>
+      <c r="D220"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221"/>
       <c r="B221"/>
-      <c r="C221"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C222"/>
+      <c r="D222"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="B223"/>
-      <c r="C223"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C224"/>
+      <c r="D224"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="B225"/>
-      <c r="C225"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C226"/>
+      <c r="D226"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="B227"/>
-      <c r="C227"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C228"/>
+      <c r="D228"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="B229"/>
-      <c r="C229"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C230"/>
+      <c r="D230"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="B231"/>
-      <c r="C231"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C232"/>
+      <c r="D232"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="B233"/>
-      <c r="C233"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C234"/>
+      <c r="D234"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235"/>
       <c r="B235"/>
-      <c r="C235"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C236"/>
+      <c r="D236"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237"/>
       <c r="B237"/>
-      <c r="C237"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C238"/>
+      <c r="D238"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239"/>
       <c r="B239"/>
-      <c r="C239"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C240"/>
+      <c r="D240"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241"/>
       <c r="B241"/>
-      <c r="C241"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C242"/>
+      <c r="D242"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243"/>
       <c r="B243"/>
-      <c r="C243"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C244"/>
+      <c r="D244"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245"/>
       <c r="B245"/>
-      <c r="C245"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C246"/>
+      <c r="D246"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247"/>
       <c r="B247"/>
-      <c r="C247"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C248"/>
+      <c r="D248"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249"/>
       <c r="B249"/>
-      <c r="C249"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C250"/>
+      <c r="D250"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251"/>
       <c r="B251"/>
-      <c r="C251"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C252"/>
+      <c r="D252"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253"/>
       <c r="B253"/>
-      <c r="C253"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C254"/>
+      <c r="D254"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255"/>
       <c r="B255"/>
-      <c r="C255"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C256"/>
+      <c r="D256"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257"/>
       <c r="B257"/>
-      <c r="C257"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C258"/>
+      <c r="D258"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259"/>
       <c r="B259"/>
-      <c r="C259"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C260"/>
+      <c r="D260"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261"/>
       <c r="B261"/>
-      <c r="C261"/>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C262"/>
+      <c r="D262"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263"/>
       <c r="B263"/>
-      <c r="C263"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C264"/>
+      <c r="D264"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="B265"/>
-      <c r="C265"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C266"/>
+      <c r="D266"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267"/>
       <c r="B267"/>
-      <c r="C267"/>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C268"/>
+      <c r="D268"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269"/>
       <c r="B269"/>
-      <c r="C269"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C270"/>
+      <c r="D270"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="B271"/>
-      <c r="C271"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C272"/>
+      <c r="D272"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273"/>
       <c r="B273"/>
-      <c r="C273"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C274"/>
+      <c r="D274"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275"/>
       <c r="B275"/>
-      <c r="C275"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C276"/>
+      <c r="D276"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277"/>
       <c r="B277"/>
-      <c r="C277"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C278"/>
+      <c r="D278"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279"/>
       <c r="B279"/>
-      <c r="C279"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C280"/>
+      <c r="D280"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281"/>
       <c r="B281"/>
-      <c r="C281"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C282"/>
+      <c r="D282"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283"/>
       <c r="B283"/>
-      <c r="C283"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C284"/>
+      <c r="D284"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285"/>
       <c r="B285"/>
-      <c r="C285"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C286"/>
+      <c r="D286"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287"/>
       <c r="B287"/>
-      <c r="C287"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C288"/>
+      <c r="D288"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289"/>
       <c r="B289"/>
-      <c r="C289"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C290"/>
+      <c r="D290"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291"/>
       <c r="B291"/>
-      <c r="C291"/>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C292"/>
+      <c r="D292"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293"/>
       <c r="B293"/>
-      <c r="C293"/>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C294"/>
+      <c r="D294"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295"/>
       <c r="B295"/>
-      <c r="C295"/>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C296"/>
+      <c r="D296"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297"/>
       <c r="B297"/>
-      <c r="C297"/>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C298"/>
+      <c r="D298"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299"/>
       <c r="B299"/>
-      <c r="C299"/>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C300"/>
+      <c r="D300"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301"/>
       <c r="B301"/>
-      <c r="C301"/>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C302"/>
+      <c r="D302"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303"/>
       <c r="B303"/>
-      <c r="C303"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C304"/>
+      <c r="D304"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305"/>
       <c r="B305"/>
-      <c r="C305"/>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306"/>
       <c r="B306"/>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C306"/>
+      <c r="D306"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307"/>
       <c r="B307"/>
-      <c r="C307"/>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308"/>
       <c r="B308"/>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C308"/>
+      <c r="D308"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309"/>
       <c r="B309"/>
-      <c r="C309"/>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310"/>
       <c r="B310"/>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C310"/>
+      <c r="D310"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311"/>
       <c r="B311"/>
-      <c r="C311"/>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312"/>
       <c r="B312"/>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C312"/>
+      <c r="D312"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313"/>
       <c r="B313"/>
-      <c r="C313"/>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314"/>
       <c r="B314"/>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C314"/>
+      <c r="D314"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315"/>
       <c r="B315"/>
-      <c r="C315"/>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316"/>
       <c r="B316"/>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C316"/>
+      <c r="D316"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317"/>
       <c r="B317"/>
-      <c r="C317"/>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318"/>
       <c r="B318"/>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C318"/>
+      <c r="D318"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319"/>
       <c r="B319"/>
-      <c r="C319"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320"/>
+      <c r="B320"/>
+      <c r="C320"/>
+      <c r="D320"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>btn_turnbrand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrandNodeParent4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,6 +370,10 @@
   </si>
   <si>
     <t>（0无对话，1有对话）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrandNodeParent4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +858,7 @@
   <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>20</v>
@@ -901,16 +901,16 @@
         <v>23</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -939,16 +939,16 @@
         <v>26</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -971,10 +971,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>28</v>
@@ -989,16 +989,16 @@
         <v>24</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1018,17 +1018,17 @@
         <v>1</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="9"/>
       <c r="L5" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="12"/>
       <c r="I6" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="20"/>
       <c r="L6" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1077,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="12"/>
       <c r="I7" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>35</v>
@@ -1118,11 +1118,11 @@
         <v>34</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8" s="20"/>
       <c r="L8" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1142,20 +1142,20 @@
         <v>1</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="20"/>
       <c r="L9" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1175,20 +1175,20 @@
         <v>1</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J10" s="20"/>
       <c r="L10" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1208,20 +1208,20 @@
         <v>1</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="I11" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="20"/>
       <c r="L11" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6"/>
       <c r="I12" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
       <c r="I13" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1305,20 +1305,20 @@
         <v>1</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" s="20"/>
       <c r="L14" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1338,18 +1338,18 @@
         <v>1</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="6"/>
       <c r="I15" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1369,20 +1369,20 @@
         <v>1</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J16" s="20"/>
       <c r="L16" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1402,20 +1402,20 @@
         <v>1</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17" s="20"/>
       <c r="L17" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1435,12 +1435,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="L18" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1460,20 +1464,20 @@
         <v>1</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" s="20"/>
       <c r="L19" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1493,20 +1497,20 @@
         <v>1</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20" s="20"/>
       <c r="L20" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -264,10 +264,6 @@
   </si>
   <si>
     <t>FingerXY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>217,-78</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,6 +370,14 @@
   </si>
   <si>
     <t>BrandNodeParent4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189,196</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -886,7 +890,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>20</v>
@@ -910,7 +914,7 @@
         <v>53</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -948,7 +952,7 @@
         <v>54</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -971,10 +975,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>28</v>
@@ -992,13 +996,13 @@
         <v>50</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>55</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1023,12 +1027,12 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="9"/>
       <c r="L5" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1053,11 +1057,11 @@
       <c r="G6" s="14"/>
       <c r="H6" s="12"/>
       <c r="I6" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="20"/>
       <c r="L6" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1082,14 +1086,14 @@
       <c r="G7" s="14"/>
       <c r="H7" s="12"/>
       <c r="I7" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="15" t="s">
         <v>65</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1118,11 +1122,11 @@
         <v>34</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="20"/>
       <c r="L8" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1155,7 +1159,7 @@
       </c>
       <c r="J9" s="20"/>
       <c r="L9" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1188,7 +1192,7 @@
       </c>
       <c r="J10" s="20"/>
       <c r="L10" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1217,11 +1221,11 @@
         <v>64</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" s="20"/>
       <c r="L11" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1246,14 +1250,14 @@
       <c r="G12" s="7"/>
       <c r="H12" s="6"/>
       <c r="I12" s="20" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" t="s">
         <v>56</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1273,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
       <c r="I13" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" t="s">
         <v>57</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1305,20 +1309,20 @@
         <v>1</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>60</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J14" s="20"/>
       <c r="L14" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1338,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="6"/>
@@ -1346,10 +1350,10 @@
         <v>58</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1369,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>60</v>
@@ -1378,11 +1382,11 @@
         <v>36</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" s="20"/>
       <c r="L16" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1408,14 +1412,14 @@
         <v>38</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J17" s="20"/>
       <c r="L17" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1439,12 +1443,12 @@
         <v>38</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="L18" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1477,7 +1481,7 @@
       </c>
       <c r="J19" s="20"/>
       <c r="L19" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1497,20 +1501,20 @@
         <v>1</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="20"/>
       <c r="L20" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -378,6 +378,26 @@
   </si>
   <si>
     <t>189,196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/GameSceneView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceTakeItemView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜又获得高等级的新形象！请点击关闭按钮关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜获得新形象！请点击关闭按钮关闭。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L320"/>
+  <dimension ref="A1:L322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1112,19 +1132,20 @@
       <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>35</v>
+      <c r="F8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J8" s="20"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="20" t="s">
         <v>82</v>
       </c>
@@ -1136,30 +1157,30 @@
       <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
         <v>1</v>
       </c>
       <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>41</v>
+      <c r="F9" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="J9" s="20"/>
       <c r="L9" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1179,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>33</v>
@@ -1192,7 +1213,7 @@
       </c>
       <c r="J10" s="20"/>
       <c r="L10" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1212,16 +1233,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="J11" s="20"/>
       <c r="L11" s="20" t="s">
@@ -1236,28 +1257,29 @@
         <v>9</v>
       </c>
       <c r="C12" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="I12" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J12" s="20"/>
-      <c r="K12" t="s">
-        <v>56</v>
-      </c>
       <c r="L12" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1273,20 +1295,20 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="14">
         <v>0</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
       <c r="I13" s="20" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>82</v>
@@ -1299,28 +1321,27 @@
       <c r="B14" s="14">
         <v>11</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1</v>
+      <c r="C14" s="5">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="20" t="s">
         <v>70</v>
       </c>
       <c r="J14" s="20"/>
+      <c r="K14" t="s">
+        <v>57</v>
+      </c>
       <c r="L14" s="20" t="s">
         <v>82</v>
       </c>
@@ -1332,26 +1353,28 @@
       <c r="B15" s="14">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
         <v>1</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="I15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>92</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J15" s="20"/>
       <c r="L15" s="20" t="s">
         <v>82</v>
       </c>
@@ -1373,16 +1396,16 @@
         <v>1</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J16" s="20"/>
       <c r="L16" s="20" t="s">
@@ -1397,29 +1420,27 @@
         <v>14</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>90</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="20"/>
+      <c r="J17" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="L17" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1430,25 +1451,29 @@
         <v>15</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="G18" s="7" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="J18" s="20"/>
       <c r="L18" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1464,20 +1489,20 @@
       <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="7">
         <v>1</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="20"/>
       <c r="L19" s="20" t="s">
@@ -1489,56 +1514,95 @@
         <v>16</v>
       </c>
       <c r="B20" s="14">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7">
         <v>0</v>
       </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>35</v>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>58</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="L20" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>17</v>
+      </c>
+      <c r="B21" s="14">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="L21" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>18</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="L22" s="20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
@@ -1546,7 +1610,6 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="17"/>
       <c r="G23" s="12"/>
       <c r="H23" s="6"/>
       <c r="I23" s="20"/>
@@ -1558,7 +1621,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="20"/>
@@ -1570,11 +1633,11 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
@@ -1583,10 +1646,10 @@
       <c r="D26" s="7"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
@@ -1603,26 +1666,26 @@
     <row r="28" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
@@ -1630,7 +1693,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -1660,7 +1723,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="5"/>
@@ -1672,7 +1735,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="5"/>
@@ -1750,7 +1813,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -1774,11 +1837,11 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
@@ -1786,11 +1849,11 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
@@ -1813,10 +1876,12 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="12"/>
@@ -1839,12 +1904,10 @@
       <c r="J47" s="13"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="6"/>
       <c r="I48" s="13"/>
@@ -1856,7 +1919,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="6"/>
       <c r="I49" s="13"/>
@@ -1913,32 +1976,34 @@
     <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="11"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -1957,12 +2022,10 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -2010,7 +2073,7 @@
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="11"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -2022,7 +2085,7 @@
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="11"/>
+      <c r="F63" s="12"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -2053,6 +2116,8 @@
       <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="12"/>
@@ -2075,8 +2140,6 @@
       <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="12"/>
@@ -2116,11 +2179,11 @@
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="9"/>
+      <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
@@ -2128,11 +2191,11 @@
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="9"/>
+      <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
@@ -2140,7 +2203,7 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="11"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="13"/>
@@ -2152,7 +2215,7 @@
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="11"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="13"/>
@@ -2171,6 +2234,8 @@
       <c r="J75" s="13"/>
     </row>
     <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="12"/>
@@ -2193,8 +2258,6 @@
       <c r="J77" s="13"/>
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
       <c r="E78" s="12"/>
@@ -2223,7 +2286,7 @@
       <c r="D80" s="14"/>
       <c r="E80" s="12"/>
       <c r="F80" s="11"/>
-      <c r="G80" s="6"/>
+      <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -2237,8 +2300,8 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
     </row>
     <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
@@ -2247,10 +2310,10 @@
       <c r="D82" s="14"/>
       <c r="E82" s="12"/>
       <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="G82" s="6"/>
       <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="12"/>
@@ -2289,6 +2352,8 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="12"/>
@@ -2311,8 +2376,6 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="12"/>
@@ -2355,8 +2418,8 @@
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
@@ -2367,8 +2430,8 @@
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
@@ -2407,6 +2470,8 @@
       <c r="J95" s="13"/>
     </row>
     <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="12"/>
@@ -2422,19 +2487,17 @@
       <c r="C97" s="14"/>
       <c r="D97" s="14"/>
       <c r="E97" s="12"/>
-      <c r="F97" s="15"/>
+      <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="12"/>
-      <c r="F98" s="15"/>
+      <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="13"/>
@@ -2446,11 +2509,11 @@
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="12"/>
-      <c r="F99" s="11"/>
+      <c r="F99" s="15"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
@@ -2458,11 +2521,11 @@
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="12"/>
-      <c r="F100" s="11"/>
+      <c r="F100" s="15"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
@@ -2470,7 +2533,7 @@
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="12"/>
-      <c r="F101" s="15"/>
+      <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -2482,6 +2545,7 @@
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="12"/>
+      <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -2505,7 +2569,6 @@
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
       <c r="E104" s="12"/>
-      <c r="F104" s="15"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -2524,6 +2587,8 @@
       <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
       <c r="E106" s="12"/>
@@ -2546,8 +2611,6 @@
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
       <c r="E108" s="12"/>
@@ -2572,12 +2635,26 @@
     <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
-      <c r="C110"/>
-      <c r="D110"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
@@ -2585,13 +2662,13 @@
       <c r="C112"/>
       <c r="D112"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113"/>
-      <c r="B113"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114"/>
-      <c r="B114"/>
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+    </row>
+    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
       <c r="C114"/>
       <c r="D114"/>
     </row>
@@ -3624,6 +3701,16 @@
       <c r="B320"/>
       <c r="C320"/>
       <c r="D320"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321"/>
+      <c r="B321"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322"/>
+      <c r="B322"/>
+      <c r="C322"/>
+      <c r="D322"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -398,6 +398,10 @@
   </si>
   <si>
     <t>恭喜获得新形象！请点击关闭按钮关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您获得新形象！请点击关闭按钮关闭。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L322"/>
+  <dimension ref="A1:L323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1062,24 +1066,29 @@
       <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="16">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="14">
         <v>1</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="I6" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J6" s="20"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="20" t="s">
         <v>81</v>
       </c>
@@ -1092,16 +1101,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
       </c>
       <c r="E7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="12"/>
@@ -1109,11 +1118,8 @@
         <v>69</v>
       </c>
       <c r="J7" s="20"/>
-      <c r="K7" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="L7" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1124,28 +1130,26 @@
         <v>5</v>
       </c>
       <c r="C8" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
       </c>
       <c r="E8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>95</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="20"/>
-      <c r="K8" s="15"/>
+      <c r="K8" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="L8" s="20" t="s">
         <v>82</v>
       </c>
@@ -1166,19 +1170,20 @@
       <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>35</v>
+      <c r="F9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J9" s="20"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="20" t="s">
         <v>82</v>
       </c>
@@ -1190,30 +1195,30 @@
       <c r="B10" s="14">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16">
         <v>1</v>
       </c>
       <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>41</v>
+      <c r="F10" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="J10" s="20"/>
       <c r="L10" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1233,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>33</v>
@@ -1246,7 +1251,7 @@
       </c>
       <c r="J11" s="20"/>
       <c r="L11" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1266,16 +1271,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="J12" s="20"/>
       <c r="L12" s="20" t="s">
@@ -1290,28 +1295,29 @@
         <v>10</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="I13" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" t="s">
-        <v>56</v>
-      </c>
       <c r="L13" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1327,20 +1333,20 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="14">
         <v>0</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
       <c r="I14" s="20" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>82</v>
@@ -1354,27 +1360,26 @@
         <v>12</v>
       </c>
       <c r="C15" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>95</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="20" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="20"/>
+      <c r="K15" t="s">
+        <v>57</v>
+      </c>
       <c r="L15" s="20" t="s">
         <v>82</v>
       </c>
@@ -1386,23 +1391,23 @@
       <c r="B16" s="14">
         <v>13</v>
       </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
         <v>1</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>70</v>
@@ -1420,7 +1425,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -1429,16 +1434,18 @@
         <v>1</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="I17" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>92</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J17" s="20"/>
       <c r="L17" s="20" t="s">
         <v>82</v>
       </c>
@@ -1451,7 +1458,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
@@ -1460,18 +1467,16 @@
         <v>1</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="L18" s="20" t="s">
         <v>82</v>
       </c>
@@ -1489,24 +1494,24 @@
       <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="J19" s="20"/>
       <c r="L19" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1517,25 +1522,29 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="J20" s="20"/>
       <c r="L20" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1546,29 +1555,25 @@
         <v>18</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="14">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>59</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="L21" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1576,7 +1581,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="14">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -1588,32 +1593,54 @@
         <v>1</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J22" s="20"/>
       <c r="L22" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>19</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="L23" s="20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
@@ -1621,8 +1648,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="6"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -1634,7 +1660,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="12"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -1645,8 +1671,8 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="6"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -1660,8 +1686,8 @@
       <c r="F27" s="12"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
@@ -1670,7 +1696,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1682,7 +1708,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="6"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1690,14 +1716,14 @@
     <row r="30" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
@@ -1717,7 +1743,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -1729,7 +1755,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -1741,19 +1767,19 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -1765,7 +1791,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -1777,7 +1803,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -1789,7 +1815,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -1801,7 +1827,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -1813,7 +1839,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -1825,7 +1851,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -1861,11 +1887,11 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
@@ -1876,8 +1902,8 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
@@ -1888,8 +1914,8 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
@@ -1904,6 +1930,8 @@
       <c r="J47" s="13"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="12"/>
@@ -1914,8 +1942,6 @@
       <c r="J48" s="13"/>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="12"/>
@@ -1931,7 +1957,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="6"/>
       <c r="I50" s="13"/>
@@ -2000,14 +2026,14 @@
     <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
@@ -2022,22 +2048,22 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="11"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -2097,7 +2123,7 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="12"/>
-      <c r="F64" s="11"/>
+      <c r="F64" s="12"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -2140,6 +2166,8 @@
       <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="12"/>
@@ -2150,8 +2178,6 @@
       <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="12"/>
@@ -2203,11 +2229,11 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="9"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
@@ -2227,7 +2253,7 @@
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="11"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="13"/>
@@ -2258,6 +2284,8 @@
       <c r="J77" s="13"/>
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
       <c r="E78" s="12"/>
@@ -2268,8 +2296,6 @@
       <c r="J78" s="13"/>
     </row>
     <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="12"/>
@@ -2310,7 +2336,7 @@
       <c r="D82" s="14"/>
       <c r="E82" s="12"/>
       <c r="F82" s="11"/>
-      <c r="G82" s="6"/>
+      <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
@@ -2322,10 +2348,10 @@
       <c r="D83" s="14"/>
       <c r="E83" s="12"/>
       <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="G83" s="6"/>
       <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="12"/>
@@ -2376,6 +2402,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="12"/>
@@ -2386,8 +2414,6 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="12"/>
@@ -2442,8 +2468,8 @@
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="12"/>
@@ -2494,6 +2520,8 @@
       <c r="J97" s="13"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="12"/>
@@ -2504,12 +2532,10 @@
       <c r="J98" s="13"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="12"/>
-      <c r="F99" s="15"/>
+      <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="13"/>
@@ -2533,11 +2559,11 @@
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="12"/>
-      <c r="F101" s="11"/>
+      <c r="F101" s="15"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
     </row>
     <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
@@ -2557,7 +2583,7 @@
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
       <c r="E103" s="12"/>
-      <c r="F103" s="15"/>
+      <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -2569,6 +2595,7 @@
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
       <c r="E104" s="12"/>
+      <c r="F104" s="15"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -2580,7 +2607,6 @@
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
       <c r="E105" s="12"/>
-      <c r="F105" s="15"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
@@ -2611,6 +2637,8 @@
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
       <c r="E108" s="12"/>
@@ -2621,8 +2649,6 @@
       <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
       <c r="E109" s="12"/>
@@ -2659,1058 +2685,1070 @@
     <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
-      <c r="C112"/>
-      <c r="D112"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
+      <c r="C113"/>
+      <c r="D113"/>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
-      <c r="C114"/>
-      <c r="D114"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115"/>
-      <c r="B115"/>
+    </row>
+    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115"/>
+      <c r="D115"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159"/>
       <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
-      <c r="C162"/>
-      <c r="D162"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
-      <c r="C164"/>
-      <c r="D164"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
-      <c r="C166"/>
-      <c r="D166"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
-      <c r="C170"/>
-      <c r="D170"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
-      <c r="C172"/>
-      <c r="D172"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
-      <c r="C174"/>
-      <c r="D174"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
-      <c r="C176"/>
-      <c r="D176"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
-      <c r="C178"/>
-      <c r="D178"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
-      <c r="C180"/>
-      <c r="D180"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181"/>
+      <c r="C181"/>
+      <c r="D181"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
-      <c r="C182"/>
-      <c r="D182"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
-      <c r="C184"/>
-      <c r="D184"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
-      <c r="C186"/>
-      <c r="D186"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
-      <c r="C188"/>
-      <c r="D188"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
-      <c r="C190"/>
-      <c r="D190"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191"/>
+      <c r="C191"/>
+      <c r="D191"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
-      <c r="C192"/>
-      <c r="D192"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193"/>
+      <c r="C193"/>
+      <c r="D193"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
-      <c r="C194"/>
-      <c r="D194"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195"/>
       <c r="B195"/>
+      <c r="C195"/>
+      <c r="D195"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
-      <c r="C196"/>
-      <c r="D196"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197"/>
       <c r="B197"/>
+      <c r="C197"/>
+      <c r="D197"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
-      <c r="C198"/>
-      <c r="D198"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199"/>
       <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
-      <c r="C200"/>
-      <c r="D200"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201"/>
       <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203"/>
       <c r="B203"/>
+      <c r="C203"/>
+      <c r="D203"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
-      <c r="C204"/>
-      <c r="D204"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205"/>
       <c r="B205"/>
+      <c r="C205"/>
+      <c r="D205"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
-      <c r="C206"/>
-      <c r="D206"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207"/>
       <c r="B207"/>
+      <c r="C207"/>
+      <c r="D207"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
-      <c r="C208"/>
-      <c r="D208"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="B209"/>
+      <c r="C209"/>
+      <c r="D209"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
-      <c r="C210"/>
-      <c r="D210"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211"/>
       <c r="B211"/>
+      <c r="C211"/>
+      <c r="D211"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
-      <c r="C212"/>
-      <c r="D212"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213"/>
       <c r="B213"/>
+      <c r="C213"/>
+      <c r="D213"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
-      <c r="C214"/>
-      <c r="D214"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215"/>
       <c r="B215"/>
+      <c r="C215"/>
+      <c r="D215"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
-      <c r="C216"/>
-      <c r="D216"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217"/>
       <c r="B217"/>
+      <c r="C217"/>
+      <c r="D217"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
-      <c r="C218"/>
-      <c r="D218"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219"/>
       <c r="B219"/>
+      <c r="C219"/>
+      <c r="D219"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
-      <c r="C220"/>
-      <c r="D220"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221"/>
       <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="B223"/>
+      <c r="C223"/>
+      <c r="D223"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
-      <c r="C224"/>
-      <c r="D224"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="B225"/>
+      <c r="C225"/>
+      <c r="D225"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
-      <c r="C226"/>
-      <c r="D226"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="B227"/>
+      <c r="C227"/>
+      <c r="D227"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
-      <c r="C228"/>
-      <c r="D228"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="B229"/>
+      <c r="C229"/>
+      <c r="D229"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
-      <c r="C230"/>
-      <c r="D230"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="B231"/>
+      <c r="C231"/>
+      <c r="D231"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
-      <c r="C232"/>
-      <c r="D232"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="B233"/>
+      <c r="C233"/>
+      <c r="D233"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
-      <c r="C234"/>
-      <c r="D234"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235"/>
       <c r="B235"/>
+      <c r="C235"/>
+      <c r="D235"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
-      <c r="C236"/>
-      <c r="D236"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237"/>
       <c r="B237"/>
+      <c r="C237"/>
+      <c r="D237"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
-      <c r="C238"/>
-      <c r="D238"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239"/>
       <c r="B239"/>
+      <c r="C239"/>
+      <c r="D239"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
-      <c r="C240"/>
-      <c r="D240"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241"/>
       <c r="B241"/>
+      <c r="C241"/>
+      <c r="D241"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
-      <c r="C242"/>
-      <c r="D242"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243"/>
       <c r="B243"/>
+      <c r="C243"/>
+      <c r="D243"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
-      <c r="C244"/>
-      <c r="D244"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245"/>
       <c r="B245"/>
+      <c r="C245"/>
+      <c r="D245"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
-      <c r="C246"/>
-      <c r="D246"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247"/>
       <c r="B247"/>
+      <c r="C247"/>
+      <c r="D247"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
-      <c r="C248"/>
-      <c r="D248"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249"/>
       <c r="B249"/>
+      <c r="C249"/>
+      <c r="D249"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
-      <c r="C250"/>
-      <c r="D250"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251"/>
       <c r="B251"/>
+      <c r="C251"/>
+      <c r="D251"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
-      <c r="C252"/>
-      <c r="D252"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253"/>
       <c r="B253"/>
+      <c r="C253"/>
+      <c r="D253"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
-      <c r="C254"/>
-      <c r="D254"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255"/>
       <c r="B255"/>
+      <c r="C255"/>
+      <c r="D255"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
-      <c r="C256"/>
-      <c r="D256"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257"/>
       <c r="B257"/>
+      <c r="C257"/>
+      <c r="D257"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
-      <c r="C258"/>
-      <c r="D258"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259"/>
       <c r="B259"/>
+      <c r="C259"/>
+      <c r="D259"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
-      <c r="C260"/>
-      <c r="D260"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261"/>
       <c r="B261"/>
+      <c r="C261"/>
+      <c r="D261"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
-      <c r="C262"/>
-      <c r="D262"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263"/>
       <c r="B263"/>
+      <c r="C263"/>
+      <c r="D263"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
-      <c r="C264"/>
-      <c r="D264"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="B265"/>
+      <c r="C265"/>
+      <c r="D265"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
-      <c r="C266"/>
-      <c r="D266"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267"/>
       <c r="B267"/>
+      <c r="C267"/>
+      <c r="D267"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
-      <c r="C268"/>
-      <c r="D268"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269"/>
       <c r="B269"/>
+      <c r="C269"/>
+      <c r="D269"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
-      <c r="C270"/>
-      <c r="D270"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="B271"/>
+      <c r="C271"/>
+      <c r="D271"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
-      <c r="C272"/>
-      <c r="D272"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273"/>
       <c r="B273"/>
+      <c r="C273"/>
+      <c r="D273"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
-      <c r="C274"/>
-      <c r="D274"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275"/>
       <c r="B275"/>
+      <c r="C275"/>
+      <c r="D275"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
-      <c r="C276"/>
-      <c r="D276"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277"/>
       <c r="B277"/>
+      <c r="C277"/>
+      <c r="D277"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
-      <c r="C278"/>
-      <c r="D278"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279"/>
       <c r="B279"/>
+      <c r="C279"/>
+      <c r="D279"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
-      <c r="C280"/>
-      <c r="D280"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281"/>
       <c r="B281"/>
+      <c r="C281"/>
+      <c r="D281"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
-      <c r="C282"/>
-      <c r="D282"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283"/>
       <c r="B283"/>
+      <c r="C283"/>
+      <c r="D283"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
-      <c r="C284"/>
-      <c r="D284"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285"/>
       <c r="B285"/>
+      <c r="C285"/>
+      <c r="D285"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
-      <c r="C286"/>
-      <c r="D286"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287"/>
       <c r="B287"/>
+      <c r="C287"/>
+      <c r="D287"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
-      <c r="C288"/>
-      <c r="D288"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289"/>
       <c r="B289"/>
+      <c r="C289"/>
+      <c r="D289"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
-      <c r="C290"/>
-      <c r="D290"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291"/>
       <c r="B291"/>
+      <c r="C291"/>
+      <c r="D291"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
-      <c r="C292"/>
-      <c r="D292"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293"/>
       <c r="B293"/>
+      <c r="C293"/>
+      <c r="D293"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
-      <c r="C294"/>
-      <c r="D294"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295"/>
       <c r="B295"/>
+      <c r="C295"/>
+      <c r="D295"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
-      <c r="C296"/>
-      <c r="D296"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297"/>
       <c r="B297"/>
+      <c r="C297"/>
+      <c r="D297"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
-      <c r="C298"/>
-      <c r="D298"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299"/>
       <c r="B299"/>
+      <c r="C299"/>
+      <c r="D299"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
-      <c r="C300"/>
-      <c r="D300"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301"/>
       <c r="B301"/>
+      <c r="C301"/>
+      <c r="D301"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
-      <c r="C302"/>
-      <c r="D302"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303"/>
       <c r="B303"/>
+      <c r="C303"/>
+      <c r="D303"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
-      <c r="C304"/>
-      <c r="D304"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305"/>
       <c r="B305"/>
+      <c r="C305"/>
+      <c r="D305"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306"/>
       <c r="B306"/>
-      <c r="C306"/>
-      <c r="D306"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307"/>
       <c r="B307"/>
+      <c r="C307"/>
+      <c r="D307"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308"/>
       <c r="B308"/>
-      <c r="C308"/>
-      <c r="D308"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309"/>
       <c r="B309"/>
+      <c r="C309"/>
+      <c r="D309"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310"/>
       <c r="B310"/>
-      <c r="C310"/>
-      <c r="D310"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311"/>
       <c r="B311"/>
+      <c r="C311"/>
+      <c r="D311"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312"/>
       <c r="B312"/>
-      <c r="C312"/>
-      <c r="D312"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313"/>
       <c r="B313"/>
+      <c r="C313"/>
+      <c r="D313"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314"/>
       <c r="B314"/>
-      <c r="C314"/>
-      <c r="D314"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315"/>
       <c r="B315"/>
+      <c r="C315"/>
+      <c r="D315"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316"/>
       <c r="B316"/>
-      <c r="C316"/>
-      <c r="D316"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317"/>
       <c r="B317"/>
+      <c r="C317"/>
+      <c r="D317"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318"/>
       <c r="B318"/>
-      <c r="C318"/>
-      <c r="D318"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319"/>
       <c r="B319"/>
+      <c r="C319"/>
+      <c r="D319"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320"/>
       <c r="B320"/>
-      <c r="C320"/>
-      <c r="D320"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321"/>
       <c r="B321"/>
+      <c r="C321"/>
+      <c r="D321"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322"/>
       <c r="B322"/>
-      <c r="C322"/>
-      <c r="D322"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323"/>
+      <c r="B323"/>
+      <c r="C323"/>
+      <c r="D323"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -886,7 +886,7 @@
   <dimension ref="A1:L323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1078,11 +1078,11 @@
       <c r="F6" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>64</v>
+      <c r="G6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>70</v>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -307,48 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>rue</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,-241</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,6 +360,62 @@
   </si>
   <si>
     <t>您获得新形象！请点击关闭按钮关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resetid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,15 +899,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.09765625" bestFit="1" customWidth="1"/>
@@ -914,7 +928,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>20</v>
@@ -938,7 +952,7 @@
         <v>53</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -975,8 +989,8 @@
       <c r="K2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>79</v>
+      <c r="L2" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -999,10 +1013,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>28</v>
@@ -1026,7 +1040,7 @@
         <v>55</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1056,7 +1070,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="9"/>
       <c r="L5" s="20" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1076,13 +1090,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>70</v>
@@ -1090,7 +1104,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="9"/>
       <c r="L6" s="20" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1119,7 +1133,7 @@
       </c>
       <c r="J7" s="20"/>
       <c r="L7" s="20" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1151,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,13 +1185,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>70</v>
@@ -1185,7 +1199,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="15"/>
       <c r="L9" s="20" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1214,11 +1228,11 @@
         <v>34</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J10" s="20"/>
       <c r="L10" s="20" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1251,7 +1265,7 @@
       </c>
       <c r="J11" s="20"/>
       <c r="L11" s="20" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1284,7 +1298,7 @@
       </c>
       <c r="J12" s="20"/>
       <c r="L12" s="20" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1313,11 +1327,11 @@
         <v>64</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J13" s="20"/>
       <c r="L13" s="20" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1342,14 +1356,14 @@
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
       <c r="I14" s="20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" t="s">
         <v>56</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1381,7 +1395,7 @@
         <v>57</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1401,20 +1415,20 @@
         <v>1</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>70</v>
       </c>
       <c r="J16" s="20"/>
       <c r="L16" s="20" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1437,7 +1451,7 @@
         <v>72</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>68</v>
@@ -1447,7 +1461,7 @@
       </c>
       <c r="J17" s="20"/>
       <c r="L17" s="20" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1475,10 +1489,10 @@
         <v>58</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1507,11 +1521,11 @@
         <v>36</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J19" s="20"/>
       <c r="L19" s="20" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1537,14 +1551,14 @@
         <v>38</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="20"/>
       <c r="L20" s="20" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1568,12 +1582,12 @@
         <v>38</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="L21" s="20" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1606,7 +1620,7 @@
       </c>
       <c r="J22" s="20"/>
       <c r="L22" s="20" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1639,7 +1653,7 @@
       </c>
       <c r="J23" s="20"/>
       <c r="L23" s="20" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/PalaceTakeItemView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>button_close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,6 +412,18 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/FindNewPlayerView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/GameSceneView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +472,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,6 +570,24 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -899,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -952,7 +984,7 @@
         <v>53</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1040,7 +1072,7 @@
         <v>55</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1070,33 +1102,33 @@
       <c r="J5" s="20"/>
       <c r="K5" s="9"/>
       <c r="L5" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>70</v>
@@ -1104,7 +1136,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="9"/>
       <c r="L6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1133,7 +1165,7 @@
       </c>
       <c r="J7" s="20"/>
       <c r="L7" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1165,33 +1197,33 @@
         <v>65</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="21">
         <v>6</v>
       </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>70</v>
@@ -1199,7 +1231,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="15"/>
       <c r="L9" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1222,7 +1254,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>34</v>
@@ -1232,7 +1264,7 @@
       </c>
       <c r="J10" s="20"/>
       <c r="L10" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1265,7 +1297,7 @@
       </c>
       <c r="J11" s="20"/>
       <c r="L11" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1298,7 +1330,7 @@
       </c>
       <c r="J12" s="20"/>
       <c r="L12" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1331,7 +1363,7 @@
       </c>
       <c r="J13" s="20"/>
       <c r="L13" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1363,7 +1395,7 @@
         <v>56</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1395,40 +1427,40 @@
         <v>57</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>12</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="21">
         <v>13</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="C16" s="22">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>87</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>70</v>
       </c>
       <c r="J16" s="20"/>
       <c r="L16" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1461,7 +1493,7 @@
       </c>
       <c r="J17" s="20"/>
       <c r="L17" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1492,7 +1524,7 @@
         <v>84</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1525,7 +1557,7 @@
       </c>
       <c r="J19" s="20"/>
       <c r="L19" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1558,7 +1590,7 @@
       </c>
       <c r="J20" s="20"/>
       <c r="L20" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1587,7 +1619,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="L21" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1620,7 +1652,7 @@
       </c>
       <c r="J22" s="20"/>
       <c r="L22" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1653,7 +1685,7 @@
       </c>
       <c r="J23" s="20"/>
       <c r="L23" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -379,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,10 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/FindNewPlayerView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +416,10 @@
   </si>
   <si>
     <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1121,7 @@
         <v>89</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>86</v>
@@ -1220,7 +1216,7 @@
         <v>88</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>86</v>
@@ -1231,7 +1227,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="15"/>
       <c r="L9" s="20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1254,7 +1250,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>34</v>
@@ -1264,7 +1260,7 @@
       </c>
       <c r="J10" s="20"/>
       <c r="L10" s="20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1297,7 +1293,7 @@
       </c>
       <c r="J11" s="20"/>
       <c r="L11" s="20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="J12" s="20"/>
       <c r="L12" s="20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1363,7 +1359,7 @@
       </c>
       <c r="J13" s="20"/>
       <c r="L13" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1395,7 +1391,7 @@
         <v>56</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1427,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1450,17 +1446,17 @@
         <v>87</v>
       </c>
       <c r="G16" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>104</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>70</v>
       </c>
       <c r="J16" s="20"/>
       <c r="L16" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1493,7 +1489,7 @@
       </c>
       <c r="J17" s="20"/>
       <c r="L17" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1524,7 +1520,7 @@
         <v>84</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1557,7 +1553,7 @@
       </c>
       <c r="J19" s="20"/>
       <c r="L19" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1590,7 +1586,7 @@
       </c>
       <c r="J20" s="20"/>
       <c r="L20" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1619,7 +1615,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="L21" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1652,7 +1648,7 @@
       </c>
       <c r="J22" s="20"/>
       <c r="L22" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1685,7 +1681,7 @@
       </c>
       <c r="J23" s="20"/>
       <c r="L23" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -420,6 +420,18 @@
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配谁亮谁（例：view）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L323"/>
+  <dimension ref="A1:M323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,12 +952,13 @@
     <col min="5" max="5" width="17.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" customWidth="1"/>
+    <col min="9" max="9" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -968,22 +981,25 @@
         <v>22</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1008,20 +1024,23 @@
       <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>51</v>
+      <c r="I2" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1032,8 +1051,9 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
@@ -1056,22 +1076,25 @@
         <v>25</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="M4" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1092,16 +1115,17 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="20" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1124,18 +1148,21 @@
         <v>102</v>
       </c>
       <c r="H6" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1156,15 +1183,16 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="L7" s="20" t="s">
+      <c r="K7" s="20"/>
+      <c r="M7" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1185,18 +1213,19 @@
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="20"/>
+      <c r="L8" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="M8" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1219,18 +1248,21 @@
         <v>102</v>
       </c>
       <c r="H9" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="20" t="s">
+      <c r="K9" s="20"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1255,15 +1287,18 @@
       <c r="H10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="L10" s="20" t="s">
+      <c r="K10" s="20"/>
+      <c r="M10" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -1288,15 +1323,18 @@
       <c r="H11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="L11" s="20" t="s">
+      <c r="K11" s="20"/>
+      <c r="M11" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -1321,15 +1359,18 @@
       <c r="H12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="L12" s="20" t="s">
+      <c r="K12" s="20"/>
+      <c r="M12" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -1354,15 +1395,18 @@
       <c r="H13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="L13" s="20" t="s">
+      <c r="K13" s="20"/>
+      <c r="M13" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -1383,18 +1427,19 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" t="s">
+      <c r="K14" s="20"/>
+      <c r="L14" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="M14" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -1415,18 +1460,19 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" t="s">
+      <c r="K15" s="20"/>
+      <c r="L15" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="M15" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -1449,17 +1495,20 @@
         <v>102</v>
       </c>
       <c r="H16" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="J16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="L16" s="20" t="s">
+      <c r="K16" s="20"/>
+      <c r="M16" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -1484,15 +1533,18 @@
       <c r="H17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="L17" s="20" t="s">
+      <c r="K17" s="20"/>
+      <c r="M17" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -1513,17 +1565,18 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="6"/>
+      <c r="J18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="K18" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="M18" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -1548,15 +1601,18 @@
       <c r="H19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="L19" s="20" t="s">
+      <c r="K19" s="20"/>
+      <c r="M19" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>16</v>
       </c>
@@ -1581,15 +1637,18 @@
       <c r="H20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="L20" s="20" t="s">
+      <c r="K20" s="20"/>
+      <c r="M20" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>17</v>
       </c>
@@ -1612,13 +1671,16 @@
       <c r="H21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="J21" s="20"/>
-      <c r="L21" s="20" t="s">
+      <c r="K21" s="20"/>
+      <c r="M21" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>18</v>
       </c>
@@ -1643,15 +1705,18 @@
       <c r="H22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="L22" s="20" t="s">
+      <c r="K22" s="20"/>
+      <c r="M22" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>19</v>
       </c>
@@ -1676,26 +1741,30 @@
       <c r="H23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="L23" s="20" t="s">
+      <c r="K23" s="20"/>
+      <c r="M23" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
@@ -1704,10 +1773,11 @@
       <c r="F25" s="17"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="7"/>
@@ -1715,11 +1785,12 @@
       <c r="E26" s="12"/>
       <c r="F26" s="17"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="20"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="7"/>
@@ -1728,10 +1799,11 @@
       <c r="F27" s="12"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="7"/>
@@ -1740,10 +1812,11 @@
       <c r="F28" s="12"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="8"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="7"/>
@@ -1751,11 +1824,12 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="8"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="7"/>
@@ -1764,10 +1838,11 @@
       <c r="F30" s="12"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="8"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
@@ -1778,8 +1853,9 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="5"/>
@@ -1790,8 +1866,9 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="5"/>
@@ -1802,8 +1879,9 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="5"/>
@@ -1814,8 +1892,9 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="5"/>
@@ -1826,8 +1905,9 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="5"/>
@@ -1838,8 +1918,9 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="5"/>
@@ -1850,8 +1931,9 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="5"/>
@@ -1862,8 +1944,9 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="5"/>
@@ -1874,8 +1957,9 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="5"/>
@@ -1886,8 +1970,9 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="5"/>
@@ -1898,8 +1983,9 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="5"/>
@@ -1910,8 +1996,9 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="5"/>
@@ -1922,8 +2009,9 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="5"/>
@@ -1934,8 +2022,9 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="5"/>
@@ -1943,11 +2032,12 @@
       <c r="E45" s="12"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="13"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="6"/>
       <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="5"/>
@@ -1955,11 +2045,12 @@
       <c r="E46" s="12"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="6"/>
       <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="5"/>
@@ -1967,11 +2058,12 @@
       <c r="E47" s="12"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="13"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="6"/>
       <c r="J47" s="13"/>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="5"/>
@@ -1979,21 +2071,23 @@
       <c r="E48" s="12"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="13"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="6"/>
       <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="12"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="13"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="5"/>
@@ -2001,11 +2095,12 @@
       <c r="E50" s="12"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="13"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="6"/>
       <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="5"/>
@@ -2013,11 +2108,12 @@
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="13"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="13"/>
-    </row>
-    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="5"/>
@@ -2025,11 +2121,12 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="13"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="5"/>
@@ -2037,11 +2134,12 @@
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="13"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="13"/>
-    </row>
-    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="5"/>
@@ -2049,11 +2147,12 @@
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="13"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="6"/>
       <c r="J54" s="13"/>
-    </row>
-    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="5"/>
@@ -2061,11 +2160,12 @@
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="13"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="13"/>
-    </row>
-    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="5"/>
@@ -2073,11 +2173,12 @@
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="13"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="6"/>
       <c r="J56" s="13"/>
-    </row>
-    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
@@ -2088,8 +2189,9 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -2100,8 +2202,9 @@
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="12"/>
@@ -2110,8 +2213,9 @@
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -2122,8 +2226,9 @@
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -2134,8 +2239,9 @@
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
-    </row>
-    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -2146,8 +2252,9 @@
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
-    </row>
-    <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
@@ -2158,8 +2265,9 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
-    </row>
-    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
@@ -2170,8 +2278,9 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
-    </row>
-    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -2182,8 +2291,9 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
-    </row>
-    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -2194,8 +2304,9 @@
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
-    </row>
-    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -2206,8 +2317,9 @@
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
-    </row>
-    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -2218,8 +2330,9 @@
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
-    </row>
-    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="12"/>
@@ -2228,8 +2341,9 @@
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
@@ -2240,8 +2354,9 @@
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
-    </row>
-    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K70" s="11"/>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="14"/>
@@ -2252,8 +2367,9 @@
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
-    </row>
-    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="14"/>
@@ -2264,8 +2380,9 @@
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
-    </row>
-    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="14"/>
@@ -2276,8 +2393,9 @@
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
-    </row>
-    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="14"/>
@@ -2286,10 +2404,11 @@
       <c r="F74" s="9"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
-      <c r="I74" s="13"/>
+      <c r="I74" s="11"/>
       <c r="J74" s="13"/>
-    </row>
-    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="14"/>
@@ -2298,10 +2417,11 @@
       <c r="F75" s="9"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
-      <c r="I75" s="13"/>
+      <c r="I75" s="11"/>
       <c r="J75" s="13"/>
-    </row>
-    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K75" s="13"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="14"/>
@@ -2310,10 +2430,11 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
-      <c r="I76" s="13"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="13"/>
-    </row>
-    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="14"/>
@@ -2322,10 +2443,11 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
-      <c r="I77" s="13"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="13"/>
-    </row>
-    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K77" s="13"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="14"/>
@@ -2334,20 +2456,22 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
-      <c r="I78" s="13"/>
+      <c r="I78" s="11"/>
       <c r="J78" s="13"/>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K78" s="13"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="12"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
-      <c r="I79" s="13"/>
+      <c r="I79" s="11"/>
       <c r="J79" s="13"/>
-    </row>
-    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K79" s="13"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="14"/>
@@ -2356,10 +2480,11 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
-      <c r="I80" s="13"/>
+      <c r="I80" s="11"/>
       <c r="J80" s="13"/>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K80" s="13"/>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="14"/>
@@ -2368,10 +2493,11 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
-      <c r="I81" s="13"/>
+      <c r="I81" s="11"/>
       <c r="J81" s="13"/>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K81" s="13"/>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
@@ -2380,10 +2506,11 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
-      <c r="I82" s="13"/>
+      <c r="I82" s="11"/>
       <c r="J82" s="13"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -2391,11 +2518,12 @@
       <c r="E83" s="12"/>
       <c r="F83" s="11"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="13"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="13"/>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K83" s="13"/>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -2406,8 +2534,9 @@
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
-    </row>
-    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K84" s="11"/>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -2418,8 +2547,9 @@
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -2430,8 +2560,9 @@
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
-    </row>
-    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K86" s="11"/>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="14"/>
@@ -2442,8 +2573,9 @@
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
-    </row>
-    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="14"/>
@@ -2454,8 +2586,9 @@
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K88" s="11"/>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="12"/>
@@ -2464,8 +2597,9 @@
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
-    </row>
-    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="14"/>
@@ -2476,8 +2610,9 @@
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
-    </row>
-    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="14"/>
@@ -2488,8 +2623,9 @@
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
-    </row>
-    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K91" s="11"/>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
@@ -2500,8 +2636,9 @@
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
-    </row>
-    <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K92" s="11"/>
+    </row>
+    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -2512,8 +2649,9 @@
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
-    </row>
-    <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K93" s="11"/>
+    </row>
+    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -2522,10 +2660,11 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
-      <c r="I94" s="13"/>
+      <c r="I94" s="11"/>
       <c r="J94" s="13"/>
-    </row>
-    <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K94" s="13"/>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -2534,10 +2673,11 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
-      <c r="I95" s="13"/>
+      <c r="I95" s="11"/>
       <c r="J95" s="13"/>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K95" s="13"/>
+    </row>
+    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -2546,10 +2686,11 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
-      <c r="I96" s="13"/>
+      <c r="I96" s="11"/>
       <c r="J96" s="13"/>
-    </row>
-    <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K96" s="13"/>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -2558,10 +2699,11 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
-      <c r="I97" s="13"/>
+      <c r="I97" s="11"/>
       <c r="J97" s="13"/>
-    </row>
-    <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K97" s="13"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -2570,20 +2712,22 @@
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
-      <c r="I98" s="13"/>
+      <c r="I98" s="11"/>
       <c r="J98" s="13"/>
-    </row>
-    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K98" s="13"/>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="12"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
-      <c r="I99" s="13"/>
+      <c r="I99" s="11"/>
       <c r="J99" s="13"/>
-    </row>
-    <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K99" s="13"/>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="14"/>
@@ -2592,10 +2736,11 @@
       <c r="F100" s="15"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
-      <c r="I100" s="13"/>
+      <c r="I100" s="11"/>
       <c r="J100" s="13"/>
-    </row>
-    <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K100" s="13"/>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="14"/>
@@ -2604,10 +2749,11 @@
       <c r="F101" s="15"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
-      <c r="I101" s="13"/>
+      <c r="I101" s="11"/>
       <c r="J101" s="13"/>
-    </row>
-    <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K101" s="13"/>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="14"/>
@@ -2618,8 +2764,9 @@
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
-    </row>
-    <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K102" s="11"/>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="14"/>
@@ -2630,8 +2777,9 @@
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
-    </row>
-    <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K103" s="11"/>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="14"/>
@@ -2642,8 +2790,9 @@
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
-    </row>
-    <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K104" s="11"/>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="14"/>
@@ -2653,8 +2802,9 @@
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K105" s="11"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="14"/>
@@ -2665,8 +2815,9 @@
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K106" s="11"/>
+    </row>
+    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="14"/>
@@ -2677,8 +2828,9 @@
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
-    </row>
-    <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K107" s="11"/>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="14"/>
@@ -2689,8 +2841,9 @@
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K108" s="11"/>
+    </row>
+    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
       <c r="E109" s="12"/>
@@ -2699,8 +2852,9 @@
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
-    </row>
-    <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K109" s="11"/>
+    </row>
+    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
@@ -2711,8 +2865,9 @@
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
-    </row>
-    <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K110" s="11"/>
+    </row>
+    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -2723,8 +2878,9 @@
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
-    </row>
-    <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K111" s="11"/>
+    </row>
+    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -2735,6 +2891,7 @@
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="12"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -123,14 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NextGuide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步引导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>button_buy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,14 +424,34 @@
   </si>
   <si>
     <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型 1 关卡解锁 2 引导完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -936,70 +948,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M323"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="8" max="8" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>49</v>
+      <c r="I1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1028,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>26</v>
@@ -1024,600 +1039,650 @@
       <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>26</v>
+      <c r="I2" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="I4" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="J4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="36.75" customHeight="1">
       <c r="A5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="14">
-        <v>2</v>
+      <c r="B5" s="5">
+        <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="36.75" customHeight="1">
       <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="21">
-        <v>3</v>
+      <c r="B6" s="22">
+        <v>1</v>
       </c>
       <c r="C6" s="22">
         <v>1</v>
       </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>102</v>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="36.75" customHeight="1">
       <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="14">
-        <v>4</v>
+      <c r="B7" s="16">
+        <v>3</v>
       </c>
       <c r="C7" s="16">
-        <v>3</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="M7" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="L7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="36.75" customHeight="1">
       <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="14">
-        <v>5</v>
+      <c r="B8" s="16">
+        <v>4</v>
       </c>
       <c r="C8" s="16">
-        <v>4</v>
-      </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="14"/>
+      <c r="E8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="36.75" customHeight="1">
       <c r="A9" s="14">
         <v>5</v>
       </c>
-      <c r="B9" s="21">
-        <v>6</v>
+      <c r="B9" s="26">
+        <v>1</v>
       </c>
       <c r="C9" s="26">
         <v>1</v>
       </c>
-      <c r="D9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>102</v>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="36.75" customHeight="1">
       <c r="A10" s="14">
         <v>6</v>
       </c>
-      <c r="B10" s="14">
-        <v>7</v>
+      <c r="B10" s="16">
+        <v>1</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="L10" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="M10" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="36.75" customHeight="1">
       <c r="A11" s="14">
         <v>7</v>
       </c>
-      <c r="B11" s="14">
-        <v>8</v>
+      <c r="B11" s="5">
+        <v>1</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>48</v>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="M11" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="L11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="36.75" customHeight="1">
       <c r="A12" s="14">
         <v>8</v>
       </c>
-      <c r="B12" s="14">
-        <v>9</v>
+      <c r="B12" s="5">
+        <v>1</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>62</v>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="M12" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="L12" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="36.75" customHeight="1">
       <c r="A13" s="14">
         <v>9</v>
       </c>
-      <c r="B13" s="14">
-        <v>10</v>
+      <c r="B13" s="5">
+        <v>1</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>63</v>
+      <c r="G13" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="20"/>
-      <c r="M13" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="L13" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="36.75" customHeight="1">
       <c r="A14" s="14">
         <v>10</v>
       </c>
-      <c r="B14" s="14">
-        <v>11</v>
+      <c r="B14" s="5">
+        <v>4</v>
       </c>
       <c r="C14" s="5">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="7"/>
+      <c r="E14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="36.75" customHeight="1">
       <c r="A15" s="14">
         <v>11</v>
       </c>
-      <c r="B15" s="14">
-        <v>12</v>
+      <c r="B15" s="5">
+        <v>4</v>
       </c>
       <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="7"/>
+      <c r="E15" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="20"/>
-      <c r="L15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="36.75" customHeight="1">
       <c r="A16" s="14">
         <v>12</v>
       </c>
-      <c r="B16" s="21">
-        <v>13</v>
+      <c r="B16" s="22">
+        <v>1</v>
       </c>
       <c r="C16" s="22">
         <v>1</v>
       </c>
-      <c r="D16" s="22">
-        <v>1</v>
-      </c>
-      <c r="E16" s="24">
-        <v>1</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="M16" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="L16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="36.75" customHeight="1">
       <c r="A17" s="14">
         <v>13</v>
       </c>
-      <c r="B17" s="14">
-        <v>14</v>
+      <c r="B17" s="7">
+        <v>1</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>85</v>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="M17" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="20"/>
+      <c r="L17" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="36.75" customHeight="1">
       <c r="A18" s="14">
         <v>14</v>
       </c>
-      <c r="B18" s="14">
-        <v>15</v>
+      <c r="B18" s="7">
+        <v>2</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="36.75" customHeight="1">
       <c r="A19" s="14">
         <v>15</v>
       </c>
-      <c r="B19" s="14">
-        <v>16</v>
+      <c r="B19" s="7">
+        <v>1</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>60</v>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="20"/>
-      <c r="M19" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="L19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="36.75" customHeight="1">
       <c r="A20" s="14">
         <v>16</v>
       </c>
-      <c r="B20" s="14">
-        <v>17</v>
+      <c r="B20" s="7">
+        <v>1</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -1625,2329 +1690,2048 @@
       <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>38</v>
+      <c r="E20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="M20" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="L20" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="36.75" customHeight="1">
       <c r="A21" s="14">
         <v>17</v>
       </c>
-      <c r="B21" s="14">
-        <v>18</v>
+      <c r="B21" s="7">
+        <v>5</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="7" t="s">
-        <v>38</v>
+      <c r="E21" s="18"/>
+      <c r="F21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I21" s="20"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="M21" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="36.75" customHeight="1">
       <c r="A22" s="14">
         <v>18</v>
       </c>
-      <c r="B22" s="14">
-        <v>19</v>
+      <c r="B22" s="7">
+        <v>1</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>38</v>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="M22" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="L22" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="36.75" customHeight="1">
       <c r="A23" s="14">
         <v>19</v>
       </c>
-      <c r="B23" s="14">
-        <v>0</v>
+      <c r="B23" s="7">
+        <v>1</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>35</v>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="M23" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="L23" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="36.75" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:14" ht="36.75" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="17"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:14" ht="36.75" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="17"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14" ht="36.75" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:14" ht="36.75" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:14" ht="36.75" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:14" ht="36.75" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:14" ht="36.75" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:14" ht="36.75" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" ht="36.75" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" ht="36.75" customHeight="1">
       <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" ht="36.75" customHeight="1">
       <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" ht="16.5">
       <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" ht="16.5">
       <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" ht="16.5">
       <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" ht="16.5">
       <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:10" ht="16.5">
       <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" ht="16.5">
       <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" ht="16.5">
       <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" ht="16.5">
       <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" ht="16.5">
       <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" ht="16.5">
       <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" ht="16.5">
       <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" ht="16.5">
       <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" ht="16.5">
       <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="13"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:10" ht="16.5">
+      <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:10" ht="16.5">
       <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:10" ht="16.5">
       <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:10" ht="16.5">
       <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-    </row>
-    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" ht="16.5">
       <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:10" ht="16.5">
       <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:10" ht="16.5">
       <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="13"/>
       <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:10" ht="16.5">
       <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="13"/>
       <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:10" ht="16.5">
       <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:10" ht="16.5">
       <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:10" ht="16.5">
+      <c r="B59" s="14"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:10" ht="16.5">
       <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:10" ht="16.5">
       <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+      <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:10" ht="16.5">
       <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+      <c r="D62" s="12"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:10" ht="16.5">
       <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+      <c r="D63" s="12"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:10" ht="16.5">
       <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+      <c r="D64" s="12"/>
       <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:10" ht="16.5">
       <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:10" ht="16.5">
       <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:10" ht="16.5">
       <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:10" ht="16.5">
       <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:10" ht="16.5">
+      <c r="B69" s="14"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:10" ht="16.5">
       <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:10" ht="16.5">
       <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:10" ht="16.5">
       <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:10" ht="16.5">
       <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:10" ht="16.5">
       <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="9"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
+      <c r="I74" s="13"/>
       <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:10" ht="16.5">
       <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="9"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
+      <c r="I75" s="13"/>
       <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:10" ht="16.5">
       <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
+      <c r="I76" s="13"/>
       <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:10" ht="16.5">
       <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="I77" s="13"/>
       <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:10" ht="16.5">
       <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="I78" s="13"/>
       <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:10" ht="16.5">
+      <c r="B79" s="14"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:10" ht="16.5">
       <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
+      <c r="I80" s="13"/>
       <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-    </row>
-    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:10" ht="16.5">
       <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
+      <c r="I81" s="13"/>
       <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-    </row>
-    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:10" ht="16.5">
       <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
+      <c r="I82" s="13"/>
       <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-    </row>
-    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:10" ht="16.5">
       <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="11"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="13"/>
       <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-    </row>
-    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:10" ht="16.5">
       <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-    </row>
-    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:10" ht="16.5">
       <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-    </row>
-    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:10" ht="16.5">
       <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-    </row>
-    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:10" ht="16.5">
       <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-    </row>
-    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:10" ht="16.5">
       <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-    </row>
-    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:10" ht="16.5">
+      <c r="B89" s="14"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-    </row>
-    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:10" ht="16.5">
       <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-    </row>
-    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:10" ht="16.5">
       <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
+      <c r="B91" s="14"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-    </row>
-    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:10" ht="16.5">
       <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-    </row>
-    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:10" ht="16.5">
       <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-    </row>
-    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:10" ht="16.5">
       <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
+      <c r="I94" s="13"/>
       <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-    </row>
-    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:10" ht="16.5">
       <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
+      <c r="I95" s="13"/>
       <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-    </row>
-    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:10" ht="16.5">
       <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
+      <c r="I96" s="13"/>
       <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-    </row>
-    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:10" ht="16.5">
       <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
+      <c r="B97" s="14"/>
       <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="I97" s="13"/>
       <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-    </row>
-    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:10" ht="16.5">
       <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
+      <c r="I98" s="13"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-    </row>
-    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:10" ht="16.5">
+      <c r="B99" s="14"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="I99" s="13"/>
       <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-    </row>
-    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:10" ht="16.5">
       <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="15"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
+      <c r="I100" s="13"/>
       <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-    </row>
-    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:10" ht="16.5">
       <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="15"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
+      <c r="I101" s="13"/>
       <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-    </row>
-    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:10" ht="16.5">
       <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-    </row>
-    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:10" ht="16.5">
       <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-    </row>
-    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:10" ht="16.5">
       <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="15"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="11"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-    </row>
-    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:10" ht="16.5">
       <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
+      <c r="B105" s="14"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-    </row>
-    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:10" ht="16.5">
       <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
+      <c r="B106" s="14"/>
       <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="15"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
-    </row>
-    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:10" ht="16.5">
       <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
+      <c r="B107" s="14"/>
       <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="15"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-    </row>
-    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:10" ht="16.5">
       <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="15"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-    </row>
-    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:10" ht="16.5">
+      <c r="B109" s="14"/>
       <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="15"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="11"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
-    </row>
-    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:10" ht="16.5">
       <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="15"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-    </row>
-    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:10" ht="16.5">
       <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
+      <c r="B111" s="14"/>
       <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="15"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-    </row>
-    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:10" ht="16.5">
       <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="15"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="11"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-    </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:3" ht="16.5">
       <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
+      <c r="B113"/>
       <c r="C113"/>
-      <c r="D113"/>
-    </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:3" ht="16.5">
       <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-    </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:3" ht="16.5">
       <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
+      <c r="B115"/>
       <c r="C115"/>
-      <c r="D115"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116"/>
-      <c r="B116"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
-      <c r="D117"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118"/>
-      <c r="B118"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
-      <c r="D119"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120"/>
-      <c r="B120"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
-      <c r="D121"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122"/>
-      <c r="B122"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
-      <c r="D123"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124"/>
-      <c r="B124"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
-      <c r="D125"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126"/>
-      <c r="B126"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
-      <c r="D127"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128"/>
-      <c r="B128"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
-      <c r="D129"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130"/>
-      <c r="B130"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
-      <c r="D131"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132"/>
-      <c r="B132"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
-      <c r="D133"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134"/>
-      <c r="B134"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
-      <c r="D135"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136"/>
-      <c r="B136"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
-      <c r="D137"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138"/>
-      <c r="B138"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
-      <c r="D139"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140"/>
-      <c r="B140"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
-      <c r="D141"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142"/>
-      <c r="B142"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
-      <c r="D143"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144"/>
-      <c r="B144"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
-      <c r="D145"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146"/>
-      <c r="B146"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
-      <c r="D147"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148"/>
-      <c r="B148"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
-      <c r="D149"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150"/>
-      <c r="B150"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
-      <c r="D151"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152"/>
-      <c r="B152"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
-      <c r="D153"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154"/>
-      <c r="B154"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
-      <c r="D155"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156"/>
-      <c r="B156"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
-      <c r="D157"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158"/>
-      <c r="B158"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
-      <c r="D159"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160"/>
-      <c r="B160"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
-      <c r="D161"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162"/>
-      <c r="B162"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
-      <c r="D163"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164"/>
-      <c r="B164"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166"/>
-      <c r="B166"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168"/>
-      <c r="B168"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
-      <c r="D169"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170"/>
-      <c r="B170"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
-      <c r="D171"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172"/>
-      <c r="B172"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
-      <c r="D173"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174"/>
-      <c r="B174"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
-      <c r="D175"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176"/>
-      <c r="B176"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
-      <c r="D177"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178"/>
-      <c r="B178"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
-      <c r="D179"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180"/>
-      <c r="B180"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
-      <c r="D181"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182"/>
-      <c r="B182"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
-      <c r="D183"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184"/>
-      <c r="B184"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
-      <c r="D185"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186"/>
-      <c r="B186"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
-      <c r="D187"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188"/>
-      <c r="B188"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
-      <c r="D189"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190"/>
-      <c r="B190"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
-      <c r="D191"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192"/>
-      <c r="B192"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
-      <c r="D193"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194"/>
-      <c r="B194"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
-      <c r="D195"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196"/>
-      <c r="B196"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
-      <c r="D197"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198"/>
-      <c r="B198"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
-      <c r="D199"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200"/>
-      <c r="B200"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
-      <c r="D201"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202"/>
-      <c r="B202"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
-      <c r="D203"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204"/>
-      <c r="B204"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
-      <c r="D205"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206"/>
-      <c r="B206"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
-      <c r="D207"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208"/>
-      <c r="B208"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
-      <c r="D209"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210"/>
-      <c r="B210"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
-      <c r="D211"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212"/>
-      <c r="B212"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
-      <c r="D213"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214"/>
-      <c r="B214"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
-      <c r="D215"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216"/>
-      <c r="B216"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
-      <c r="D217"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218"/>
-      <c r="B218"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
-      <c r="D219"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220"/>
-      <c r="B220"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
-      <c r="D221"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222"/>
-      <c r="B222"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
-      <c r="D223"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224"/>
-      <c r="B224"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
-      <c r="D225"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226"/>
-      <c r="B226"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
-      <c r="D227"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228"/>
-      <c r="B228"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
-      <c r="D229"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230"/>
-      <c r="B230"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
-      <c r="D231"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232"/>
-      <c r="B232"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
-      <c r="D233"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234"/>
-      <c r="B234"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
-      <c r="D235"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236"/>
-      <c r="B236"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
-      <c r="D237"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238"/>
-      <c r="B238"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
-      <c r="D239"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240"/>
-      <c r="B240"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
-      <c r="D241"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242"/>
-      <c r="B242"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
-      <c r="D243"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244"/>
-      <c r="B244"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
-      <c r="D245"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246"/>
-      <c r="B246"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
-      <c r="D247"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248"/>
-      <c r="B248"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
-      <c r="D249"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250"/>
-      <c r="B250"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
-      <c r="D251"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252"/>
-      <c r="B252"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
-      <c r="D253"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254"/>
-      <c r="B254"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
-      <c r="D255"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256"/>
-      <c r="B256"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
-      <c r="D257"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258"/>
-      <c r="B258"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
-      <c r="D259"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260"/>
-      <c r="B260"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262"/>
-      <c r="B262"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
-      <c r="D263"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264"/>
-      <c r="B264"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
-      <c r="D265"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266"/>
-      <c r="B266"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
-      <c r="D267"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268"/>
-      <c r="B268"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
-      <c r="D269"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270"/>
-      <c r="B270"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
-      <c r="D271"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272"/>
-      <c r="B272"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
-      <c r="D273"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274"/>
-      <c r="B274"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
-      <c r="D275"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276"/>
-      <c r="B276"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
-      <c r="D277"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278"/>
-      <c r="B278"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
-      <c r="D279"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280"/>
-      <c r="B280"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
-      <c r="D281"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282"/>
-      <c r="B282"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
-      <c r="D283"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284"/>
-      <c r="B284"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
-      <c r="D285"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286"/>
-      <c r="B286"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
-      <c r="D287"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288"/>
-      <c r="B288"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
-      <c r="D289"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290"/>
-      <c r="B290"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
-      <c r="D291"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292"/>
-      <c r="B292"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
-      <c r="D293"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294"/>
-      <c r="B294"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
-      <c r="D295"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296"/>
-      <c r="B296"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
-      <c r="D297"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298"/>
-      <c r="B298"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
-      <c r="D299"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300"/>
-      <c r="B300"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
-      <c r="D301"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302"/>
-      <c r="B302"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
-      <c r="D303"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304"/>
-      <c r="B304"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
-      <c r="D305"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306"/>
-      <c r="B306"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
-      <c r="D307"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308"/>
-      <c r="B308"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
-      <c r="D309"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310"/>
-      <c r="B310"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
-      <c r="D311"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312"/>
-      <c r="B312"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
-      <c r="D313"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314"/>
-      <c r="B314"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
-      <c r="D315"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316"/>
-      <c r="B316"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
-      <c r="D317"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318"/>
-      <c r="B318"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319"/>
       <c r="B319"/>
       <c r="C319"/>
-      <c r="D319"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:3">
       <c r="A320"/>
-      <c r="B320"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321"/>
       <c r="B321"/>
       <c r="C321"/>
-      <c r="D321"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322"/>
-      <c r="B322"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323"/>
       <c r="B323"/>
       <c r="C323"/>
-      <c r="D323"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3961,26 +3745,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -4006,7 +3790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -395,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>条件类型 1 关卡解锁 2 引导完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,6 +595,10 @@
   </si>
   <si>
     <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型 0无条件引导 1 关卡解锁 2 引导完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1278,7 @@
         <v>88</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>98</v>
@@ -1309,13 +1309,13 @@
       <c r="J5" s="19"/>
       <c r="K5" s="8"/>
       <c r="L5" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1349,7 +1349,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="8"/>
       <c r="L6" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="J7" s="19"/>
       <c r="L7" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1418,7 +1418,7 @@
         <v>63</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1458,7 +1458,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="14"/>
       <c r="L9" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J10" s="19"/>
       <c r="L10" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10">
         <v>2</v>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="J11" s="19"/>
       <c r="L11" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="J12" s="19"/>
       <c r="L12" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M12">
         <v>2</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="J13" s="19"/>
       <c r="L13" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -1650,7 +1650,7 @@
         <v>54</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -1686,7 +1686,7 @@
         <v>55</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M15">
         <v>2</v>
@@ -1715,7 +1715,7 @@
         <v>89</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>91</v>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="J16" s="19"/>
       <c r="L16" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="J17" s="19"/>
       <c r="L17" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -1799,7 +1799,7 @@
         <v>81</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>58</v>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="J19" s="19"/>
       <c r="L19" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M19">
         <v>2</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J20" s="19"/>
       <c r="L20" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M20">
         <v>2</v>
@@ -1912,7 +1912,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="L21" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="J22" s="19"/>
       <c r="L22" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M22">
         <v>2</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="J23" s="19"/>
       <c r="L23" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M23">
         <v>2</v>
@@ -2013,16 +2013,16 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>74</v>
@@ -2052,16 +2052,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>75</v>
@@ -2091,19 +2091,19 @@
         <v>1</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J26" s="19"/>
       <c r="L26">
@@ -2127,19 +2127,19 @@
         <v>1</v>
       </c>
       <c r="E27" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L27">
         <v>204</v>
@@ -2165,19 +2165,19 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="29"/>
@@ -2205,19 +2205,19 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="27" t="s">
-        <v>140</v>
-      </c>
       <c r="I29" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J29" s="27"/>
       <c r="K29" s="29"/>
@@ -2245,16 +2245,16 @@
         <v>1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>75</v>
@@ -2285,19 +2285,19 @@
         <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J31" s="27"/>
       <c r="K31" s="29"/>
@@ -2325,16 +2325,16 @@
         <v>1</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>75</v>
@@ -2365,13 +2365,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>83</v>
@@ -2404,16 +2404,16 @@
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>75</v>
@@ -2443,19 +2443,19 @@
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J35" s="6"/>
       <c r="L35">
@@ -2482,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="H36" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>68</v>
@@ -2521,19 +2521,19 @@
         <v>1</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J37" s="6"/>
       <c r="L37">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="J25" s="19"/>
       <c r="L25">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M25">
         <v>2</v>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -599,6 +599,10 @@
   </si>
   <si>
     <t>条件类型 0无条件引导 1 关卡解锁 2 引导完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,7 +1126,7 @@
   <dimension ref="A1:N323"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1980,7 +1984,7 @@
         <v>33</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>72</v>
@@ -2058,10 +2062,10 @@
         <v>124</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>75</v>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="151">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -537,10 +537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PalaceMaidNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>button_buy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,10 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SupplyItemNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ConfirmButton</t>
   </si>
   <si>
@@ -584,9 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventItemNode</t>
-  </si>
-  <si>
     <t>0,-276</t>
   </si>
   <si>
@@ -603,6 +592,10 @@
   </si>
   <si>
     <t>cell_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalaceMaidNode1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:H25"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1275,7 @@
         <v>88</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>98</v>
@@ -1984,7 +1977,7 @@
         <v>33</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>72</v>
@@ -2062,10 +2055,10 @@
         <v>124</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>75</v>
@@ -2101,13 +2094,13 @@
         <v>126</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J26" s="19"/>
       <c r="L26">
@@ -2137,13 +2130,13 @@
         <v>132</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L27">
         <v>204</v>
@@ -2175,13 +2168,13 @@
         <v>125</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="29"/>
@@ -2215,13 +2208,13 @@
         <v>129</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="27" t="s">
-        <v>139</v>
-      </c>
       <c r="I29" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J29" s="27"/>
       <c r="K29" s="29"/>
@@ -2255,10 +2248,10 @@
         <v>126</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>75</v>
@@ -2295,13 +2288,13 @@
         <v>127</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J31" s="27"/>
       <c r="K31" s="29"/>
@@ -2335,10 +2328,10 @@
         <v>127</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>75</v>
@@ -2414,10 +2407,10 @@
         <v>126</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>75</v>
@@ -2459,7 +2452,7 @@
         <v>134</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J35" s="6"/>
       <c r="L35">
@@ -2489,13 +2482,13 @@
         <v>120</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>68</v>
@@ -2531,13 +2524,13 @@
         <v>128</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J37" s="6"/>
       <c r="L37">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -587,15 +587,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>条件类型 0无条件引导 1 关卡解锁 2 引导完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cell_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PalaceMaidNode1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型 0无条件引导 1 关卡解锁 2 不主动触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1116,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N323"/>
+  <dimension ref="A1:O323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1134,10 +1142,11 @@
     <col min="8" max="8" width="23.296875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.19921875" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1180,8 +1189,11 @@
       <c r="N1" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -1224,8 +1236,11 @@
       <c r="N2" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1252,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -1275,13 +1290,16 @@
         <v>88</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>101</v>
       </c>
@@ -1314,8 +1332,11 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>102</v>
       </c>
@@ -1354,8 +1375,11 @@
       <c r="N6">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>103</v>
       </c>
@@ -1387,8 +1411,11 @@
       <c r="N7">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>104</v>
       </c>
@@ -1423,8 +1450,11 @@
       <c r="N8">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>105</v>
       </c>
@@ -1463,8 +1493,11 @@
       <c r="N9">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>106</v>
       </c>
@@ -1502,8 +1535,11 @@
       <c r="N10">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>107</v>
       </c>
@@ -1541,8 +1577,11 @@
       <c r="N11">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>108</v>
       </c>
@@ -1580,8 +1619,11 @@
       <c r="N12">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>109</v>
       </c>
@@ -1619,8 +1661,11 @@
       <c r="N13">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>110</v>
       </c>
@@ -1655,8 +1700,11 @@
       <c r="N14">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>111</v>
       </c>
@@ -1691,8 +1739,11 @@
       <c r="N15">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>112</v>
       </c>
@@ -1730,8 +1781,11 @@
       <c r="N16">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>113</v>
       </c>
@@ -1769,8 +1823,11 @@
       <c r="N17">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>114</v>
       </c>
@@ -1804,8 +1861,11 @@
       <c r="N18">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>115</v>
       </c>
@@ -1843,8 +1903,11 @@
       <c r="N19">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>116</v>
       </c>
@@ -1882,8 +1945,11 @@
       <c r="N20">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>117</v>
       </c>
@@ -1917,8 +1983,11 @@
       <c r="N21">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>118</v>
       </c>
@@ -1956,8 +2025,11 @@
       <c r="N22">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>119</v>
       </c>
@@ -1977,7 +2049,7 @@
         <v>33</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>72</v>
@@ -1995,8 +2067,11 @@
       <c r="N23">
         <v>118</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>201</v>
       </c>
@@ -2034,8 +2109,11 @@
       <c r="N24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>202</v>
       </c>
@@ -2055,10 +2133,10 @@
         <v>124</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>75</v>
@@ -2073,8 +2151,11 @@
       <c r="N25">
         <v>201</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>203</v>
       </c>
@@ -2094,10 +2175,10 @@
         <v>126</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>145</v>
@@ -2112,8 +2193,11 @@
       <c r="N26">
         <v>202</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>204</v>
       </c>
@@ -2147,8 +2231,11 @@
       <c r="N27">
         <v>203</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>205</v>
       </c>
@@ -2187,8 +2274,11 @@
       <c r="N28">
         <v>204</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>206</v>
       </c>
@@ -2227,8 +2317,11 @@
       <c r="N29">
         <v>205</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>207</v>
       </c>
@@ -2267,8 +2360,11 @@
       <c r="N30">
         <v>206</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>208</v>
       </c>
@@ -2288,10 +2384,10 @@
         <v>127</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>146</v>
@@ -2307,8 +2403,11 @@
       <c r="N31">
         <v>207</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>209</v>
       </c>
@@ -2347,8 +2446,11 @@
       <c r="N32">
         <v>208</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>210</v>
       </c>
@@ -2386,8 +2488,11 @@
       <c r="N33">
         <v>209</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>211</v>
       </c>
@@ -2425,8 +2530,11 @@
       <c r="N34">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>212</v>
       </c>
@@ -2464,8 +2572,11 @@
       <c r="N35">
         <v>211</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>213</v>
       </c>
@@ -2485,10 +2596,10 @@
         <v>144</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>68</v>
@@ -2503,8 +2614,11 @@
       <c r="N36">
         <v>212</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>214</v>
       </c>
@@ -2542,8 +2656,11 @@
       <c r="N37">
         <v>213</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2555,7 +2672,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2567,7 +2684,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2579,7 +2696,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2591,7 +2708,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2603,7 +2720,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2615,7 +2732,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2627,7 +2744,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2639,7 +2756,7 @@
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2651,7 +2768,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2663,7 +2780,7 @@
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>301</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -514,103 +514,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>btn_palace</t>
+  </si>
+  <si>
+    <t>button_handbook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_bestowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmButton</t>
+  </si>
+  <si>
+    <t>ConfirmButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EventView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalaceMaidNode1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型 0无条件引导 1 关卡解锁 2 不主动触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一步id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EventDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了后宫功能，请点击打开看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
+  </si>
+  <si>
+    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefab/PalaceMaidDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_palace</t>
-  </si>
-  <si>
-    <t>button_handbook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_bestowed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfirmButton</t>
-  </si>
-  <si>
-    <t>ConfirmButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/EventView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PalaceMaidNode1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件类型 0无条件引导 1 关卡解锁 2 不主动触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一步id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/EventDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了后宫功能，请点击打开看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
-  </si>
-  <si>
-    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1170,7 +1170,7 @@
         <v>87</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -1273,10 +1273,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>150</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>76</v>
@@ -1309,7 +1309,7 @@
         <v>53</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O4" s="18" t="s">
         <v>97</v>
@@ -2071,7 +2071,7 @@
         <v>33</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>72</v>
@@ -2107,16 +2107,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>120</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>74</v>
@@ -2149,16 +2149,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>121</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>75</v>
@@ -2197,13 +2197,13 @@
         <v>123</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L26" s="19"/>
       <c r="N26">
@@ -2223,6 +2223,9 @@
       <c r="C27">
         <v>205</v>
       </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
       <c r="E27" s="7">
         <v>1</v>
       </c>
@@ -2233,16 +2236,16 @@
         <v>128</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2277,13 +2280,13 @@
         <v>122</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L28" s="28"/>
       <c r="M28" s="29"/>
@@ -2320,13 +2323,13 @@
         <v>126</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="J29" s="27" t="s">
-        <v>135</v>
-      </c>
       <c r="K29" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="29"/>
@@ -2363,10 +2366,10 @@
         <v>123</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>75</v>
@@ -2406,13 +2409,13 @@
         <v>124</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="29"/>
@@ -2449,10 +2452,10 @@
         <v>124</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K32" s="19" t="s">
         <v>75</v>
@@ -2534,10 +2537,10 @@
         <v>123</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>75</v>
@@ -2576,13 +2579,13 @@
         <v>121</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L35" s="6"/>
       <c r="N35">
@@ -2615,13 +2618,13 @@
         <v>117</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>68</v>
@@ -2657,16 +2660,16 @@
         <v>118</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L37" s="6"/>
       <c r="N37">
@@ -2696,16 +2699,16 @@
         <v>1</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K38" s="19" t="s">
         <v>74</v>
@@ -2738,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>121</v>
@@ -2780,16 +2783,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K40" s="19" t="s">
         <v>74</v>
@@ -2822,16 +2825,16 @@
         <v>1</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>74</v>
@@ -2864,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>121</v>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -714,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,8 +797,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1142,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1319,10 +1322,10 @@
       <c r="A5" s="13">
         <v>101</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="15">
         <v>102</v>
       </c>
       <c r="D5" s="5">
@@ -1356,10 +1359,10 @@
       <c r="A6" s="13">
         <v>102</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>103</v>
       </c>
       <c r="D6" s="21">
@@ -1399,10 +1402,10 @@
       <c r="A7" s="13">
         <v>103</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="15">
         <v>104</v>
       </c>
       <c r="D7" s="15">
@@ -1435,10 +1438,10 @@
       <c r="A8" s="13">
         <v>104</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="15">
         <v>105</v>
       </c>
       <c r="D8" s="15">
@@ -1474,10 +1477,10 @@
       <c r="A9" s="13">
         <v>105</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="15">
         <v>106</v>
       </c>
       <c r="D9" s="25">
@@ -1517,10 +1520,10 @@
       <c r="A10" s="13">
         <v>106</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="15">
         <v>107</v>
       </c>
       <c r="D10" s="15">
@@ -1559,10 +1562,10 @@
       <c r="A11" s="13">
         <v>107</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="15">
         <v>108</v>
       </c>
       <c r="D11" s="5">
@@ -1601,10 +1604,10 @@
       <c r="A12" s="13">
         <v>108</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="15">
         <v>109</v>
       </c>
       <c r="D12" s="5">
@@ -1643,10 +1646,10 @@
       <c r="A13" s="13">
         <v>109</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="15">
         <v>110</v>
       </c>
       <c r="D13" s="5">
@@ -1685,10 +1688,10 @@
       <c r="A14" s="13">
         <v>110</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="15">
         <v>111</v>
       </c>
       <c r="D14" s="5">
@@ -1724,10 +1727,10 @@
       <c r="A15" s="13">
         <v>111</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="15">
         <v>112</v>
       </c>
       <c r="D15" s="5">
@@ -1763,10 +1766,10 @@
       <c r="A16" s="13">
         <v>112</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="15">
         <v>113</v>
       </c>
       <c r="D16" s="21">
@@ -1805,10 +1808,10 @@
       <c r="A17" s="13">
         <v>113</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="15">
         <v>114</v>
       </c>
       <c r="D17" s="7">
@@ -1847,10 +1850,10 @@
       <c r="A18" s="13">
         <v>114</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="15">
         <v>115</v>
       </c>
       <c r="D18" s="7">
@@ -1885,10 +1888,10 @@
       <c r="A19" s="13">
         <v>115</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="15">
         <v>116</v>
       </c>
       <c r="D19" s="7">
@@ -1927,10 +1930,10 @@
       <c r="A20" s="13">
         <v>116</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="15">
         <v>117</v>
       </c>
       <c r="D20" s="7">
@@ -1969,10 +1972,10 @@
       <c r="A21" s="13">
         <v>117</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="15">
         <v>118</v>
       </c>
       <c r="D21" s="7">
@@ -2007,10 +2010,10 @@
       <c r="A22" s="13">
         <v>118</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="15">
         <v>119</v>
       </c>
       <c r="D22" s="7">
@@ -2049,10 +2052,10 @@
       <c r="A23" s="13">
         <v>119</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="15">
         <v>0</v>
       </c>
       <c r="D23" s="7">
@@ -2088,13 +2091,13 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+      <c r="A24" s="13">
         <v>201</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="15">
         <v>201</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="15">
         <v>202</v>
       </c>
       <c r="D24" s="7">
@@ -2103,7 +2106,7 @@
       <c r="E24" s="7">
         <v>1</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="13">
         <v>1</v>
       </c>
       <c r="G24" s="26" t="s">
@@ -2130,13 +2133,13 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="13">
         <v>202</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="15">
         <v>201</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="15">
         <v>203</v>
       </c>
       <c r="D25" s="7">
@@ -2145,7 +2148,7 @@
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="G25" s="16" t="s">
@@ -2172,13 +2175,13 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="13">
         <v>203</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="15">
         <v>201</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="15">
         <v>204</v>
       </c>
       <c r="D26" s="7">
@@ -2187,7 +2190,7 @@
       <c r="E26" s="7">
         <v>1</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="13">
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
@@ -2203,7 +2206,7 @@
         <v>145</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="L26" s="19"/>
       <c r="N26">
@@ -2214,13 +2217,13 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="13">
         <v>204</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="15">
         <v>201</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="15">
         <v>205</v>
       </c>
       <c r="D27" s="7">
@@ -2229,7 +2232,7 @@
       <c r="E27" s="7">
         <v>1</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="13">
         <v>1</v>
       </c>
       <c r="G27" s="18" t="s">
@@ -2245,7 +2248,7 @@
         <v>131</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2255,13 +2258,13 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="13">
         <v>205</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="31">
         <v>601</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="15">
         <v>206</v>
       </c>
       <c r="D28" s="7">
@@ -2270,7 +2273,7 @@
       <c r="E28" s="7">
         <v>1</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="13">
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
@@ -2298,13 +2301,13 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="13">
         <v>206</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="31">
         <v>301</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="15">
         <v>207</v>
       </c>
       <c r="D29" s="7">
@@ -2313,7 +2316,7 @@
       <c r="E29" s="7">
         <v>1</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="13">
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
@@ -2341,13 +2344,13 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="13">
         <v>207</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="31">
         <v>301</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="15">
         <v>208</v>
       </c>
       <c r="D30" s="7">
@@ -2356,7 +2359,7 @@
       <c r="E30" s="7">
         <v>1</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="13">
         <v>1</v>
       </c>
       <c r="G30" s="11" t="s">
@@ -2384,13 +2387,13 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="13">
         <v>208</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="31">
         <v>301</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="15">
         <v>209</v>
       </c>
       <c r="D31" s="7">
@@ -2399,7 +2402,7 @@
       <c r="E31" s="7">
         <v>1</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="13">
         <v>1</v>
       </c>
       <c r="G31" s="11" t="s">
@@ -2427,13 +2430,13 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="13">
         <v>209</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="31">
         <v>301</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="15">
         <v>210</v>
       </c>
       <c r="D32" s="5">
@@ -2442,7 +2445,7 @@
       <c r="E32" s="5">
         <v>1</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
@@ -2470,13 +2473,13 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="A33" s="13">
         <v>210</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="31">
         <v>401</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="15">
         <v>211</v>
       </c>
       <c r="D33" s="7">
@@ -2512,13 +2515,13 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="A34" s="13">
         <v>211</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="31">
         <v>401</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="15">
         <v>212</v>
       </c>
       <c r="D34" s="5">
@@ -2527,7 +2530,7 @@
       <c r="E34" s="5">
         <v>1</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="13">
         <v>1</v>
       </c>
       <c r="G34" s="10" t="s">
@@ -2554,13 +2557,13 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="13">
         <v>212</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="31">
         <v>401</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="15">
         <v>213</v>
       </c>
       <c r="D35" s="5">
@@ -2569,7 +2572,7 @@
       <c r="E35" s="5">
         <v>1</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="13">
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
@@ -2596,13 +2599,13 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="A36" s="13">
         <v>213</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="31">
         <v>401</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="15">
         <v>214</v>
       </c>
       <c r="D36" s="5">
@@ -2611,7 +2614,7 @@
       <c r="E36" s="5">
         <v>1</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="13">
         <v>1</v>
       </c>
       <c r="G36" s="10" t="s">
@@ -2638,13 +2641,13 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="A37" s="13">
         <v>214</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="31">
         <v>401</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="15">
         <v>0</v>
       </c>
       <c r="D37" s="5">
@@ -2653,7 +2656,7 @@
       <c r="E37" s="5">
         <v>1</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="13">
         <v>1</v>
       </c>
       <c r="G37" s="11" t="s">
@@ -2680,13 +2683,13 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+      <c r="A38" s="13">
         <v>301</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="15">
         <v>301</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="15">
         <v>302</v>
       </c>
       <c r="D38" s="5">
@@ -2695,7 +2698,7 @@
       <c r="E38" s="5">
         <v>1</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="13">
         <v>1</v>
       </c>
       <c r="G38" s="26" t="s">
@@ -2722,13 +2725,13 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="13">
         <v>302</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="15">
         <v>301</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="15">
         <v>207</v>
       </c>
       <c r="D39" s="5">
@@ -2737,7 +2740,7 @@
       <c r="E39" s="5">
         <v>1</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="13">
         <v>1</v>
       </c>
       <c r="G39" s="16" t="s">
@@ -2764,13 +2767,13 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+      <c r="A40" s="13">
         <v>401</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="15">
         <v>401</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="15">
         <v>212</v>
       </c>
       <c r="D40" s="5">
@@ -2779,7 +2782,7 @@
       <c r="E40" s="5">
         <v>1</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="13">
         <v>1</v>
       </c>
       <c r="G40" s="26" t="s">
@@ -2806,13 +2809,13 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
+      <c r="A41" s="13">
         <v>601</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="15">
         <v>601</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="15">
         <v>602</v>
       </c>
       <c r="D41" s="5">
@@ -2821,7 +2824,7 @@
       <c r="E41" s="5">
         <v>1</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="13">
         <v>1</v>
       </c>
       <c r="G41" s="26" t="s">
@@ -2848,14 +2851,14 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="11">
+      <c r="A42" s="13">
         <v>602</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="15">
         <v>601</v>
       </c>
-      <c r="C42">
-        <v>603</v>
+      <c r="C42" s="15">
+        <v>205</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -2863,7 +2866,7 @@
       <c r="E42" s="5">
         <v>1</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="13">
         <v>1</v>
       </c>
       <c r="G42" s="16" t="s">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="156">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -611,6 +611,10 @@
   </si>
   <si>
     <t>Prefab/PalaceMaidDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseButton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2501,7 +2505,7 @@
         <v>119</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>68</v>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="158">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -615,6 +615,14 @@
   </si>
   <si>
     <t>CloseButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupplyItemNode_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventItemNode__2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2416,10 +2424,10 @@
         <v>124</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K31" s="19" t="s">
         <v>142</v>
@@ -2628,10 +2636,10 @@
         <v>140</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>68</v>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="161">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -623,6 +623,18 @@
   </si>
   <si>
     <t>EventItemNode__2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-273</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1170,7 @@
   <dimension ref="A1:O319"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2344,7 +2356,7 @@
         <v>134</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="29"/>
@@ -2430,7 +2442,7 @@
         <v>156</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="29"/>
@@ -2473,7 +2485,7 @@
         <v>136</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="L32" s="27"/>
       <c r="M32" s="29"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -634,7 +634,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,-273</t>
+    <t>0,-233</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -151,18 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>再次购买一个宫女吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击购买宫女就可以直接获得一个宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉得合成宫女太累了？没关系，我们可以点击打开商店，购买宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当有两个一样宫女以后，可以用手把两个宫女拖到一起，合并升级宫女。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>让我们关闭商店看下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/ShopView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,6 +619,22 @@
   </si>
   <si>
     <t>0,-233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉得合成宫女太累了？没关系，我们可以点击打开招募，招募宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们关闭招募看下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次招募一个宫女吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击招募宫女就可以直接获得一个宫女。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>20</v>
@@ -1215,25 +1215,25 @@
         <v>22</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1268,19 +1268,19 @@
         <v>26</v>
       </c>
       <c r="K2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1300,16 +1300,16 @@
         <v>30</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>28</v>
@@ -1321,25 +1321,25 @@
         <v>25</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="15">
         <v>102</v>
@@ -1362,13 +1362,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="8"/>
@@ -1384,7 +1384,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="15">
         <v>103</v>
@@ -1399,19 +1399,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="8"/>
@@ -1427,7 +1427,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C7" s="15">
         <v>104</v>
@@ -1442,13 +1442,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L7" s="19"/>
       <c r="N7">
@@ -1463,7 +1463,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="15">
         <v>105</v>
@@ -1478,17 +1478,17 @@
         <v>0</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1502,7 +1502,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C9" s="15">
         <v>106</v>
@@ -1517,19 +1517,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="14"/>
@@ -1545,7 +1545,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C10" s="15">
         <v>107</v>
@@ -1560,10 +1560,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>32</v>
@@ -1572,7 +1572,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L10" s="19"/>
       <c r="N10">
@@ -1587,7 +1587,7 @@
         <v>107</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="15">
         <v>108</v>
@@ -1602,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>31</v>
@@ -1614,7 +1614,7 @@
         <v>31</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L11" s="19"/>
       <c r="N11">
@@ -1629,7 +1629,7 @@
         <v>108</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="15">
         <v>109</v>
@@ -1644,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>31</v>
@@ -1656,7 +1656,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L12" s="19"/>
       <c r="N12">
@@ -1671,7 +1671,7 @@
         <v>109</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C13" s="15">
         <v>110</v>
@@ -1686,19 +1686,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L13" s="19"/>
       <c r="N13">
@@ -1713,7 +1713,7 @@
         <v>110</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" s="15">
         <v>111</v>
@@ -1734,11 +1734,11 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1752,7 +1752,7 @@
         <v>111</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C15" s="15">
         <v>112</v>
@@ -1767,17 +1767,17 @@
         <v>0</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1791,7 +1791,7 @@
         <v>112</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C16" s="15">
         <v>113</v>
@@ -1806,19 +1806,19 @@
         <v>1</v>
       </c>
       <c r="G16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>88</v>
-      </c>
       <c r="I16" s="24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L16" s="19"/>
       <c r="N16">
@@ -1833,7 +1833,7 @@
         <v>113</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C17" s="15">
         <v>114</v>
@@ -1848,19 +1848,19 @@
         <v>1</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L17" s="19"/>
       <c r="N17">
@@ -1875,7 +1875,7 @@
         <v>114</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C18" s="15">
         <v>115</v>
@@ -1890,16 +1890,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1913,7 +1913,7 @@
         <v>115</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C19" s="15">
         <v>116</v>
@@ -1928,10 +1928,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>34</v>
@@ -1940,7 +1940,7 @@
         <v>34</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L19" s="19"/>
       <c r="N19">
@@ -1955,7 +1955,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C20" s="15">
         <v>117</v>
@@ -1970,19 +1970,19 @@
         <v>1</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L20" s="19"/>
       <c r="N20">
@@ -1997,7 +1997,7 @@
         <v>117</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C21" s="15">
         <v>118</v>
@@ -2016,10 +2016,10 @@
         <v>36</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -2035,7 +2035,7 @@
         <v>118</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C22" s="15">
         <v>119</v>
@@ -2050,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>36</v>
@@ -2062,7 +2062,7 @@
         <v>35</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L22" s="19"/>
       <c r="N22">
@@ -2077,7 +2077,7 @@
         <v>119</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C23" s="15">
         <v>0</v>
@@ -2092,19 +2092,19 @@
         <v>1</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L23" s="19"/>
       <c r="N23">
@@ -2134,19 +2134,19 @@
         <v>1</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L24" s="19"/>
       <c r="N24">
@@ -2176,19 +2176,19 @@
         <v>1</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L25" s="19"/>
       <c r="N25">
@@ -2218,19 +2218,19 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L26" s="19"/>
       <c r="N26">
@@ -2260,19 +2260,19 @@
         <v>1</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2301,19 +2301,19 @@
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L28" s="28"/>
       <c r="M28" s="29"/>
@@ -2344,19 +2344,19 @@
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="29"/>
@@ -2387,19 +2387,19 @@
         <v>1</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L30" s="27"/>
       <c r="M30" s="29"/>
@@ -2430,19 +2430,19 @@
         <v>1</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="29"/>
@@ -2473,19 +2473,19 @@
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L32" s="27"/>
       <c r="M32" s="29"/>
@@ -2516,19 +2516,19 @@
         <v>1</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L33" s="6"/>
       <c r="N33">
@@ -2558,19 +2558,19 @@
         <v>1</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L34" s="6"/>
       <c r="N34">
@@ -2600,19 +2600,19 @@
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L35" s="6"/>
       <c r="N35">
@@ -2642,19 +2642,19 @@
         <v>1</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L36" s="6"/>
       <c r="N36">
@@ -2684,19 +2684,19 @@
         <v>1</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="L37" s="6"/>
       <c r="N37">
@@ -2726,19 +2726,19 @@
         <v>1</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L38" s="6"/>
       <c r="N38">
@@ -2768,19 +2768,19 @@
         <v>1</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L39" s="6"/>
       <c r="N39">
@@ -2810,19 +2810,19 @@
         <v>1</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L40" s="6"/>
       <c r="N40">
@@ -2852,19 +2852,19 @@
         <v>1</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L41" s="6"/>
       <c r="N41">
@@ -2894,19 +2894,19 @@
         <v>1</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L42" s="6"/>
       <c r="N42">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>button_shopclose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,15 +622,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>让我们关闭招募看下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>再次招募一个宫女吧。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击招募宫女就可以直接获得一个宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们返回招募看下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_dialogClose</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +642,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -1169,11 +1169,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.59765625" customWidth="1"/>
@@ -1189,21 +1189,21 @@
     <col min="14" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>20</v>
@@ -1215,7 +1215,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>23</v>
@@ -1224,19 +1224,19 @@
         <v>44</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>48</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -1277,13 +1277,13 @@
         <v>49</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1295,21 +1295,21 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>145</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>28</v>
@@ -1321,7 +1321,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>24</v>
@@ -1330,24 +1330,24 @@
         <v>45</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>50</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="36.75" customHeight="1">
       <c r="A5" s="13">
         <v>101</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="15">
         <v>102</v>
@@ -1368,7 +1368,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="8"/>
@@ -1379,12 +1379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="36.75" customHeight="1">
       <c r="A6" s="13">
         <v>102</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="15">
         <v>103</v>
@@ -1399,19 +1399,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="8"/>
@@ -1422,12 +1422,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="36.75" customHeight="1">
       <c r="A7" s="13">
         <v>103</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="15">
         <v>104</v>
@@ -1448,7 +1448,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="19"/>
       <c r="N7">
@@ -1458,12 +1458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="36.75" customHeight="1">
       <c r="A8" s="13">
         <v>104</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="15">
         <v>105</v>
@@ -1484,11 +1484,11 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1497,12 +1497,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="36.75" customHeight="1">
       <c r="A9" s="13">
         <v>105</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="15">
         <v>106</v>
@@ -1517,19 +1517,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="14"/>
@@ -1540,12 +1540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="36.75" customHeight="1">
       <c r="A10" s="13">
         <v>106</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="15">
         <v>107</v>
@@ -1560,10 +1560,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>32</v>
@@ -1572,7 +1572,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="19"/>
       <c r="N10">
@@ -1582,12 +1582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="36.75" customHeight="1">
       <c r="A11" s="13">
         <v>107</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="15">
         <v>108</v>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>43</v>
@@ -1624,12 +1624,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="36.75" customHeight="1">
       <c r="A12" s="13">
         <v>108</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="15">
         <v>109</v>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>56</v>
@@ -1666,12 +1666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="36.75" customHeight="1">
       <c r="A13" s="13">
         <v>109</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="15">
         <v>110</v>
@@ -1686,19 +1686,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L13" s="19"/>
       <c r="N13">
@@ -1708,12 +1708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="36.75" customHeight="1">
       <c r="A14" s="13">
         <v>110</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="15">
         <v>111</v>
@@ -1734,7 +1734,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" t="s">
@@ -1747,12 +1747,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="36.75" customHeight="1">
       <c r="A15" s="13">
         <v>111</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="15">
         <v>112</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" t="s">
@@ -1786,12 +1786,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="36.75" customHeight="1">
       <c r="A16" s="13">
         <v>112</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="15">
         <v>113</v>
@@ -1806,19 +1806,19 @@
         <v>1</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L16" s="19"/>
       <c r="N16">
@@ -1828,12 +1828,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="36.75" customHeight="1">
       <c r="A17" s="13">
         <v>113</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="15">
         <v>114</v>
@@ -1848,19 +1848,19 @@
         <v>1</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L17" s="19"/>
       <c r="N17">
@@ -1870,12 +1870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="36.75" customHeight="1">
       <c r="A18" s="13">
         <v>114</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="15">
         <v>115</v>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="6"/>
@@ -1899,7 +1899,7 @@
         <v>53</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1908,12 +1908,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="36.75" customHeight="1">
       <c r="A19" s="13">
         <v>115</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="15">
         <v>116</v>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>55</v>
@@ -1940,7 +1940,7 @@
         <v>34</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" s="19"/>
       <c r="N19">
@@ -1950,12 +1950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="36.75" customHeight="1">
       <c r="A20" s="13">
         <v>116</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="15">
         <v>117</v>
@@ -1976,10 +1976,10 @@
         <v>36</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>53</v>
@@ -1992,12 +1992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="36.75" customHeight="1">
       <c r="A21" s="13">
         <v>117</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="15">
         <v>118</v>
@@ -2016,10 +2016,10 @@
         <v>36</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -2030,12 +2030,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="36.75" customHeight="1">
       <c r="A22" s="13">
         <v>118</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="15">
         <v>119</v>
@@ -2072,12 +2072,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="36.75" customHeight="1">
       <c r="A23" s="13">
         <v>119</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="15">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>53</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="36.75" customHeight="1">
       <c r="A24" s="13">
         <v>201</v>
       </c>
@@ -2134,19 +2134,19 @@
         <v>1</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="19"/>
       <c r="N24">
@@ -2156,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="36.75" customHeight="1">
       <c r="A25" s="13">
         <v>202</v>
       </c>
@@ -2176,19 +2176,19 @@
         <v>1</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L25" s="19"/>
       <c r="N25">
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="36.75" customHeight="1">
       <c r="A26" s="13">
         <v>203</v>
       </c>
@@ -2218,19 +2218,19 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L26" s="19"/>
       <c r="N26">
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="36.75" customHeight="1">
       <c r="A27" s="13">
         <v>204</v>
       </c>
@@ -2260,19 +2260,19 @@
         <v>1</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="36.75" customHeight="1">
       <c r="A28" s="13">
         <v>205</v>
       </c>
@@ -2301,19 +2301,19 @@
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L28" s="28"/>
       <c r="M28" s="29"/>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="36.75" customHeight="1">
       <c r="A29" s="13">
         <v>206</v>
       </c>
@@ -2344,19 +2344,19 @@
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="J29" s="27" t="s">
-        <v>130</v>
-      </c>
       <c r="K29" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="29"/>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="36.75" customHeight="1">
       <c r="A30" s="13">
         <v>207</v>
       </c>
@@ -2387,19 +2387,19 @@
         <v>1</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L30" s="27"/>
       <c r="M30" s="29"/>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="36.75" customHeight="1">
       <c r="A31" s="13">
         <v>208</v>
       </c>
@@ -2430,19 +2430,19 @@
         <v>1</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="29"/>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="36.75" customHeight="1">
       <c r="A32" s="13">
         <v>209</v>
       </c>
@@ -2473,19 +2473,19 @@
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L32" s="27"/>
       <c r="M32" s="29"/>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="36.75" customHeight="1">
       <c r="A33" s="13">
         <v>210</v>
       </c>
@@ -2516,19 +2516,19 @@
         <v>1</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L33" s="6"/>
       <c r="N33">
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="36" customHeight="1">
       <c r="A34" s="13">
         <v>211</v>
       </c>
@@ -2558,19 +2558,19 @@
         <v>1</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L34" s="6"/>
       <c r="N34">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="36.75" customHeight="1">
       <c r="A35" s="13">
         <v>212</v>
       </c>
@@ -2600,19 +2600,19 @@
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L35" s="6"/>
       <c r="N35">
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="16.5">
       <c r="A36" s="13">
         <v>213</v>
       </c>
@@ -2642,19 +2642,19 @@
         <v>1</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L36" s="6"/>
       <c r="N36">
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="16.5">
       <c r="A37" s="13">
         <v>214</v>
       </c>
@@ -2684,19 +2684,19 @@
         <v>1</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L37" s="6"/>
       <c r="N37">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="16.5">
       <c r="A38" s="13">
         <v>301</v>
       </c>
@@ -2726,19 +2726,19 @@
         <v>1</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L38" s="6"/>
       <c r="N38">
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="16.5">
       <c r="A39" s="13">
         <v>302</v>
       </c>
@@ -2768,19 +2768,19 @@
         <v>1</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L39" s="6"/>
       <c r="N39">
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="16.5">
       <c r="A40" s="13">
         <v>401</v>
       </c>
@@ -2810,19 +2810,19 @@
         <v>1</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L40" s="6"/>
       <c r="N40">
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="16.5">
       <c r="A41" s="13">
         <v>601</v>
       </c>
@@ -2852,19 +2852,19 @@
         <v>1</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L41" s="6"/>
       <c r="N41">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="16.5">
       <c r="A42" s="13">
         <v>602</v>
       </c>
@@ -2894,19 +2894,19 @@
         <v>1</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L42" s="6"/>
       <c r="N42">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="16.5">
       <c r="A43" s="11"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2928,7 +2928,7 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
     </row>
-    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="16.5">
       <c r="A44" s="11"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2940,7 +2940,7 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
     </row>
-    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="16.5">
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="11"/>
@@ -2951,7 +2951,7 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
     </row>
-    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="16.5">
       <c r="A46" s="11"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2963,7 +2963,7 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
     </row>
-    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="16.5">
       <c r="A47" s="11"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2975,7 +2975,7 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
     </row>
-    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="16.5">
       <c r="A48" s="11"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2987,7 +2987,7 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
     </row>
-    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="16.5">
       <c r="A49" s="11"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2999,7 +2999,7 @@
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
     </row>
-    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="16.5">
       <c r="A50" s="11"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3011,7 +3011,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
     </row>
-    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="16.5">
       <c r="A51" s="11"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3023,7 +3023,7 @@
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
     </row>
-    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="16.5">
       <c r="A52" s="11"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -3035,7 +3035,7 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
     </row>
-    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="16.5">
       <c r="A53" s="11"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -3047,7 +3047,7 @@
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="16.5">
       <c r="A54" s="11"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -3059,7 +3059,7 @@
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="16.5">
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="11"/>
@@ -3070,7 +3070,7 @@
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="16.5">
       <c r="A56" s="11"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -3082,7 +3082,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="16.5">
       <c r="A57" s="11"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -3094,7 +3094,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="16.5">
       <c r="A58" s="11"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -3106,7 +3106,7 @@
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="16.5">
       <c r="A59" s="11"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
@@ -3118,7 +3118,7 @@
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="16.5">
       <c r="A60" s="11"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
@@ -3130,7 +3130,7 @@
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="16.5">
       <c r="A61" s="11"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
@@ -3142,7 +3142,7 @@
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="16.5">
       <c r="A62" s="11"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -3154,7 +3154,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="16.5">
       <c r="A63" s="11"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -3166,7 +3166,7 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="16.5">
       <c r="A64" s="11"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -3178,7 +3178,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="16.5">
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="11"/>
@@ -3189,7 +3189,7 @@
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
     </row>
-    <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="16.5">
       <c r="A66" s="11"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -3201,7 +3201,7 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="16.5">
       <c r="A67" s="11"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -3213,7 +3213,7 @@
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="16.5">
       <c r="A68" s="11"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -3225,7 +3225,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="16.5">
       <c r="A69" s="11"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
@@ -3237,7 +3237,7 @@
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="16.5">
       <c r="A70" s="11"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -3249,7 +3249,7 @@
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
     </row>
-    <row r="71" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="16.5">
       <c r="A71" s="11"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
@@ -3261,7 +3261,7 @@
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
     </row>
-    <row r="72" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="16.5">
       <c r="A72" s="11"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
@@ -3273,7 +3273,7 @@
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
     </row>
-    <row r="73" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="16.5">
       <c r="A73" s="11"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -3285,7 +3285,7 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
     </row>
-    <row r="74" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="16.5">
       <c r="A74" s="11"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
@@ -3297,7 +3297,7 @@
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
     </row>
-    <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="16.5">
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="11"/>
@@ -3308,7 +3308,7 @@
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
     </row>
-    <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="16.5">
       <c r="A76" s="11"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -3320,7 +3320,7 @@
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
     </row>
-    <row r="77" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="16.5">
       <c r="A77" s="11"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
@@ -3332,7 +3332,7 @@
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
     </row>
-    <row r="78" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="16.5">
       <c r="A78" s="11"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
@@ -3344,7 +3344,7 @@
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
     </row>
-    <row r="79" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="16.5">
       <c r="A79" s="11"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -3356,7 +3356,7 @@
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
     </row>
-    <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="16.5">
       <c r="A80" s="11"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -3368,7 +3368,7 @@
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="16.5">
       <c r="A81" s="11"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -3380,7 +3380,7 @@
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="16.5">
       <c r="A82" s="11"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -3392,7 +3392,7 @@
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="16.5">
       <c r="A83" s="11"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -3404,7 +3404,7 @@
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="16.5">
       <c r="A84" s="11"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
@@ -3416,7 +3416,7 @@
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="16.5">
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="11"/>
@@ -3427,7 +3427,7 @@
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="16.5">
       <c r="A86" s="11"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
@@ -3439,7 +3439,7 @@
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="16.5">
       <c r="A87" s="11"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
@@ -3451,7 +3451,7 @@
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="16.5">
       <c r="A88" s="11"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
@@ -3463,7 +3463,7 @@
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="16.5">
       <c r="A89" s="11"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
@@ -3475,7 +3475,7 @@
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="16.5">
       <c r="A90" s="11"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -3487,7 +3487,7 @@
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
     </row>
-    <row r="91" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="16.5">
       <c r="A91" s="11"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -3499,7 +3499,7 @@
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
     </row>
-    <row r="92" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="16.5">
       <c r="A92" s="11"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
@@ -3511,7 +3511,7 @@
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
     </row>
-    <row r="93" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="16.5">
       <c r="A93" s="11"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -3523,7 +3523,7 @@
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
     </row>
-    <row r="94" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="16.5">
       <c r="A94" s="11"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -3535,7 +3535,7 @@
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
     </row>
-    <row r="95" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="16.5">
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="11"/>
@@ -3546,7 +3546,7 @@
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
     </row>
-    <row r="96" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="16.5">
       <c r="A96" s="11"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -3558,7 +3558,7 @@
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
     </row>
-    <row r="97" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="16.5">
       <c r="A97" s="11"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -3570,7 +3570,7 @@
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
     </row>
-    <row r="98" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="16.5">
       <c r="A98" s="11"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
@@ -3582,7 +3582,7 @@
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
     </row>
-    <row r="99" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="16.5">
       <c r="A99" s="11"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
@@ -3594,7 +3594,7 @@
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
     </row>
-    <row r="100" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="16.5">
       <c r="A100" s="11"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -3606,7 +3606,7 @@
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
     </row>
-    <row r="101" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="16.5">
       <c r="A101" s="11"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -3617,7 +3617,7 @@
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
     </row>
-    <row r="102" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="16.5">
       <c r="A102" s="11"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -3629,7 +3629,7 @@
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
     </row>
-    <row r="103" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="16.5">
       <c r="A103" s="11"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -3641,7 +3641,7 @@
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
     </row>
-    <row r="104" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="16.5">
       <c r="A104" s="11"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
@@ -3653,7 +3653,7 @@
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
     </row>
-    <row r="105" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="16.5">
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="11"/>
@@ -3664,7 +3664,7 @@
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
     </row>
-    <row r="106" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="16.5">
       <c r="A106" s="11"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
@@ -3676,7 +3676,7 @@
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="16.5">
       <c r="A107" s="11"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -3688,7 +3688,7 @@
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="16.5">
       <c r="A108" s="11"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -3700,847 +3700,847 @@
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="16.5">
       <c r="A109" s="11"/>
       <c r="D109"/>
       <c r="E109"/>
     </row>
-    <row r="110" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="16.5">
       <c r="A110" s="11"/>
     </row>
-    <row r="111" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="16.5">
       <c r="A111" s="11"/>
       <c r="D111"/>
       <c r="E111"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113"/>
       <c r="D113"/>
       <c r="E113"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115"/>
       <c r="D115"/>
       <c r="E115"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117"/>
       <c r="D117"/>
       <c r="E117"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119"/>
       <c r="D119"/>
       <c r="E119"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121"/>
       <c r="D121"/>
       <c r="E121"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123"/>
       <c r="D123"/>
       <c r="E123"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125"/>
       <c r="D125"/>
       <c r="E125"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127"/>
       <c r="D127"/>
       <c r="E127"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129"/>
       <c r="D129"/>
       <c r="E129"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131"/>
       <c r="D131"/>
       <c r="E131"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133"/>
       <c r="D133"/>
       <c r="E133"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135"/>
       <c r="D135"/>
       <c r="E135"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137"/>
       <c r="D137"/>
       <c r="E137"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139"/>
       <c r="D139"/>
       <c r="E139"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141"/>
       <c r="D141"/>
       <c r="E141"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143"/>
       <c r="D143"/>
       <c r="E143"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145"/>
       <c r="D145"/>
       <c r="E145"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147"/>
       <c r="D147"/>
       <c r="E147"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="A149"/>
       <c r="D149"/>
       <c r="E149"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151"/>
       <c r="D151"/>
       <c r="E151"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153"/>
       <c r="D153"/>
       <c r="E153"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155"/>
       <c r="D155"/>
       <c r="E155"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157"/>
       <c r="D157"/>
       <c r="E157"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159"/>
       <c r="D159"/>
       <c r="E159"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161"/>
       <c r="D161"/>
       <c r="E161"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163"/>
       <c r="D163"/>
       <c r="E163"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165"/>
       <c r="D165"/>
       <c r="E165"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167"/>
       <c r="D167"/>
       <c r="E167"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169"/>
       <c r="D169"/>
       <c r="E169"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171"/>
       <c r="D171"/>
       <c r="E171"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173"/>
       <c r="D173"/>
       <c r="E173"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175"/>
       <c r="D175"/>
       <c r="E175"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177"/>
       <c r="D177"/>
       <c r="E177"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179"/>
       <c r="D179"/>
       <c r="E179"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181"/>
       <c r="D181"/>
       <c r="E181"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183"/>
       <c r="D183"/>
       <c r="E183"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185"/>
       <c r="D185"/>
       <c r="E185"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187"/>
       <c r="D187"/>
       <c r="E187"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189"/>
       <c r="D189"/>
       <c r="E189"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191"/>
       <c r="D191"/>
       <c r="E191"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193"/>
       <c r="D193"/>
       <c r="E193"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195"/>
       <c r="D195"/>
       <c r="E195"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197"/>
       <c r="D197"/>
       <c r="E197"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199"/>
       <c r="D199"/>
       <c r="E199"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201"/>
       <c r="D201"/>
       <c r="E201"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203"/>
       <c r="D203"/>
       <c r="E203"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205"/>
       <c r="D205"/>
       <c r="E205"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207"/>
       <c r="D207"/>
       <c r="E207"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209"/>
       <c r="D209"/>
       <c r="E209"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211"/>
       <c r="D211"/>
       <c r="E211"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213"/>
       <c r="D213"/>
       <c r="E213"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215"/>
       <c r="D215"/>
       <c r="E215"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217"/>
       <c r="D217"/>
       <c r="E217"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219"/>
       <c r="D219"/>
       <c r="E219"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221"/>
       <c r="D221"/>
       <c r="E221"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223"/>
       <c r="D223"/>
       <c r="E223"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225"/>
       <c r="D225"/>
       <c r="E225"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227"/>
       <c r="D227"/>
       <c r="E227"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229"/>
       <c r="D229"/>
       <c r="E229"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231"/>
       <c r="D231"/>
       <c r="E231"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233"/>
       <c r="D233"/>
       <c r="E233"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235"/>
       <c r="D235"/>
       <c r="E235"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237"/>
       <c r="D237"/>
       <c r="E237"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239"/>
       <c r="D239"/>
       <c r="E239"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241"/>
       <c r="D241"/>
       <c r="E241"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243"/>
       <c r="D243"/>
       <c r="E243"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245"/>
       <c r="D245"/>
       <c r="E245"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247"/>
       <c r="D247"/>
       <c r="E247"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249"/>
       <c r="D249"/>
       <c r="E249"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251"/>
       <c r="D251"/>
       <c r="E251"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253"/>
       <c r="D253"/>
       <c r="E253"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255"/>
       <c r="D255"/>
       <c r="E255"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257"/>
       <c r="D257"/>
       <c r="E257"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259"/>
       <c r="D259"/>
       <c r="E259"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261"/>
       <c r="D261"/>
       <c r="E261"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263"/>
       <c r="D263"/>
       <c r="E263"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265"/>
       <c r="D265"/>
       <c r="E265"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267"/>
       <c r="D267"/>
       <c r="E267"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269"/>
       <c r="D269"/>
       <c r="E269"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271"/>
       <c r="D271"/>
       <c r="E271"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273"/>
       <c r="D273"/>
       <c r="E273"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275"/>
       <c r="D275"/>
       <c r="E275"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277"/>
       <c r="D277"/>
       <c r="E277"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279"/>
       <c r="D279"/>
       <c r="E279"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281"/>
       <c r="D281"/>
       <c r="E281"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283"/>
       <c r="D283"/>
       <c r="E283"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285"/>
       <c r="D285"/>
       <c r="E285"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287"/>
       <c r="D287"/>
       <c r="E287"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289"/>
       <c r="D289"/>
       <c r="E289"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291"/>
       <c r="D291"/>
       <c r="E291"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293"/>
       <c r="D293"/>
       <c r="E293"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295"/>
       <c r="D295"/>
       <c r="E295"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297"/>
       <c r="D297"/>
       <c r="E297"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299"/>
       <c r="D299"/>
       <c r="E299"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301"/>
       <c r="D301"/>
       <c r="E301"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303"/>
       <c r="D303"/>
       <c r="E303"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305"/>
       <c r="D305"/>
       <c r="E305"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307"/>
       <c r="D307"/>
       <c r="E307"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309"/>
       <c r="D309"/>
       <c r="E309"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311"/>
       <c r="D311"/>
       <c r="E311"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313"/>
       <c r="D313"/>
       <c r="E313"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315"/>
       <c r="D315"/>
       <c r="E315"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317"/>
       <c r="D317"/>
       <c r="E317"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319"/>
       <c r="D319"/>
       <c r="E319"/>
@@ -4564,19 +4564,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -435,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜你触发了神秘事件!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击返回按钮。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,6 +631,10 @@
   </si>
   <si>
     <t>button_dialogClose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咦，你好像触发了神秘事件!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +642,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -1169,11 +1169,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.59765625" customWidth="1"/>
@@ -1189,7 +1189,7 @@
     <col min="14" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>82</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -1236,7 +1236,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1295,15 +1295,15 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:15" ht="16.5">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>71</v>
@@ -1336,13 +1336,13 @@
         <v>50</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O4" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="36.75" customHeight="1">
+    <row r="5" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>101</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="36.75" customHeight="1">
+    <row r="6" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>102</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="36.75" customHeight="1">
+    <row r="7" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>103</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="36.75" customHeight="1">
+    <row r="8" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>104</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="36.75" customHeight="1">
+    <row r="9" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>105</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="36.75" customHeight="1">
+    <row r="10" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>106</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>84</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="36.75" customHeight="1">
+    <row r="11" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>107</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>43</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="36.75" customHeight="1">
+    <row r="12" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>108</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>56</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="36.75" customHeight="1">
+    <row r="13" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>109</v>
       </c>
@@ -1686,16 +1686,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>70</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="36.75" customHeight="1">
+    <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>110</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="36.75" customHeight="1">
+    <row r="15" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>111</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="36.75" customHeight="1">
+    <row r="16" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>112</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>83</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>85</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="36.75" customHeight="1">
+    <row r="17" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>113</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="36.75" customHeight="1">
+    <row r="18" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>114</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="36.75" customHeight="1">
+    <row r="19" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>115</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="36.75" customHeight="1">
+    <row r="20" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>116</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="36.75" customHeight="1">
+    <row r="21" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>117</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="36.75" customHeight="1">
+    <row r="22" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>118</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="36.75" customHeight="1">
+    <row r="23" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>119</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>33</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>67</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="36.75" customHeight="1">
+    <row r="24" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>201</v>
       </c>
@@ -2134,16 +2134,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>69</v>
@@ -2156,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="36.75" customHeight="1">
+    <row r="25" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>202</v>
       </c>
@@ -2176,16 +2176,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>70</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="36.75" customHeight="1">
+    <row r="26" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>203</v>
       </c>
@@ -2218,16 +2218,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>63</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="36.75" customHeight="1">
+    <row r="27" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>204</v>
       </c>
@@ -2260,16 +2260,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>63</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="36.75" customHeight="1">
+    <row r="28" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>205</v>
       </c>
@@ -2304,16 +2304,16 @@
         <v>104</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L28" s="28"/>
       <c r="M28" s="29"/>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="36.75" customHeight="1">
+    <row r="29" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>206</v>
       </c>
@@ -2347,16 +2347,16 @@
         <v>105</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="J29" s="27" t="s">
-        <v>129</v>
-      </c>
       <c r="K29" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="29"/>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="36.75" customHeight="1">
+    <row r="30" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>207</v>
       </c>
@@ -2390,13 +2390,13 @@
         <v>106</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>70</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="36.75" customHeight="1">
+    <row r="31" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>208</v>
       </c>
@@ -2433,16 +2433,16 @@
         <v>107</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="29"/>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="36.75" customHeight="1">
+    <row r="32" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>209</v>
       </c>
@@ -2476,16 +2476,16 @@
         <v>108</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L32" s="27"/>
       <c r="M32" s="29"/>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="36.75" customHeight="1">
+    <row r="33" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>210</v>
       </c>
@@ -2516,16 +2516,16 @@
         <v>1</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>63</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="36" customHeight="1">
+    <row r="34" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>211</v>
       </c>
@@ -2558,16 +2558,16 @@
         <v>1</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>70</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="36.75" customHeight="1">
+    <row r="35" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>212</v>
       </c>
@@ -2600,19 +2600,19 @@
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L35" s="6"/>
       <c r="N35">
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16.5">
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>213</v>
       </c>
@@ -2642,16 +2642,16 @@
         <v>1</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>63</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="16.5">
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>214</v>
       </c>
@@ -2684,19 +2684,19 @@
         <v>1</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L37" s="6"/>
       <c r="N37">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="16.5">
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>301</v>
       </c>
@@ -2726,16 +2726,16 @@
         <v>1</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K38" s="19" t="s">
         <v>69</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="16.5">
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>302</v>
       </c>
@@ -2768,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>67</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="16.5">
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>401</v>
       </c>
@@ -2810,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K40" s="19" t="s">
         <v>69</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="16.5">
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>601</v>
       </c>
@@ -2852,16 +2852,16 @@
         <v>1</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>69</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="16.5">
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>602</v>
       </c>
@@ -2894,10 +2894,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>67</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="16.5">
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2928,7 +2928,7 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
     </row>
-    <row r="44" spans="1:15" ht="16.5">
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2940,7 +2940,7 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
     </row>
-    <row r="45" spans="1:15" ht="16.5">
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="11"/>
@@ -2951,7 +2951,7 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
     </row>
-    <row r="46" spans="1:15" ht="16.5">
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2963,7 +2963,7 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
     </row>
-    <row r="47" spans="1:15" ht="16.5">
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2975,7 +2975,7 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
     </row>
-    <row r="48" spans="1:15" ht="16.5">
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2987,7 +2987,7 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
     </row>
-    <row r="49" spans="1:12" ht="16.5">
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2999,7 +2999,7 @@
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
     </row>
-    <row r="50" spans="1:12" ht="16.5">
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3011,7 +3011,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
     </row>
-    <row r="51" spans="1:12" ht="16.5">
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3023,7 +3023,7 @@
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
     </row>
-    <row r="52" spans="1:12" ht="16.5">
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -3035,7 +3035,7 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
     </row>
-    <row r="53" spans="1:12" ht="16.5">
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -3047,7 +3047,7 @@
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="1:12" ht="16.5">
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -3059,7 +3059,7 @@
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:12" ht="16.5">
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="11"/>
@@ -3070,7 +3070,7 @@
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="1:12" ht="16.5">
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -3082,7 +3082,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="1:12" ht="16.5">
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -3094,7 +3094,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="1:12" ht="16.5">
+    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -3106,7 +3106,7 @@
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="1:12" ht="16.5">
+    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
@@ -3118,7 +3118,7 @@
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="1:12" ht="16.5">
+    <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
@@ -3130,7 +3130,7 @@
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="1:12" ht="16.5">
+    <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
@@ -3142,7 +3142,7 @@
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="1:12" ht="16.5">
+    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -3154,7 +3154,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:12" ht="16.5">
+    <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -3166,7 +3166,7 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="1:12" ht="16.5">
+    <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -3178,7 +3178,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="1:12" ht="16.5">
+    <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="11"/>
@@ -3189,7 +3189,7 @@
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
     </row>
-    <row r="66" spans="1:12" ht="16.5">
+    <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -3201,7 +3201,7 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:12" ht="16.5">
+    <row r="67" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -3213,7 +3213,7 @@
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:12" ht="16.5">
+    <row r="68" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -3225,7 +3225,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="1:12" ht="16.5">
+    <row r="69" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
@@ -3237,7 +3237,7 @@
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:12" ht="16.5">
+    <row r="70" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -3249,7 +3249,7 @@
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
     </row>
-    <row r="71" spans="1:12" ht="16.5">
+    <row r="71" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
@@ -3261,7 +3261,7 @@
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
     </row>
-    <row r="72" spans="1:12" ht="16.5">
+    <row r="72" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
@@ -3273,7 +3273,7 @@
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
     </row>
-    <row r="73" spans="1:12" ht="16.5">
+    <row r="73" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -3285,7 +3285,7 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
     </row>
-    <row r="74" spans="1:12" ht="16.5">
+    <row r="74" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
@@ -3297,7 +3297,7 @@
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
     </row>
-    <row r="75" spans="1:12" ht="16.5">
+    <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="11"/>
@@ -3308,7 +3308,7 @@
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
     </row>
-    <row r="76" spans="1:12" ht="16.5">
+    <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -3320,7 +3320,7 @@
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
     </row>
-    <row r="77" spans="1:12" ht="16.5">
+    <row r="77" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
@@ -3332,7 +3332,7 @@
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
     </row>
-    <row r="78" spans="1:12" ht="16.5">
+    <row r="78" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
@@ -3344,7 +3344,7 @@
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
     </row>
-    <row r="79" spans="1:12" ht="16.5">
+    <row r="79" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -3356,7 +3356,7 @@
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
     </row>
-    <row r="80" spans="1:12" ht="16.5">
+    <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -3368,7 +3368,7 @@
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="1:12" ht="16.5">
+    <row r="81" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -3380,7 +3380,7 @@
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="1:12" ht="16.5">
+    <row r="82" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="11"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -3392,7 +3392,7 @@
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="1:12" ht="16.5">
+    <row r="83" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -3404,7 +3404,7 @@
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="1:12" ht="16.5">
+    <row r="84" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
@@ -3416,7 +3416,7 @@
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="1:12" ht="16.5">
+    <row r="85" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="11"/>
@@ -3427,7 +3427,7 @@
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="1:12" ht="16.5">
+    <row r="86" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
@@ -3439,7 +3439,7 @@
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="1:12" ht="16.5">
+    <row r="87" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
@@ -3451,7 +3451,7 @@
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="1:12" ht="16.5">
+    <row r="88" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="11"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
@@ -3463,7 +3463,7 @@
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="1:12" ht="16.5">
+    <row r="89" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="11"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
@@ -3475,7 +3475,7 @@
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="1:12" ht="16.5">
+    <row r="90" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -3487,7 +3487,7 @@
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
     </row>
-    <row r="91" spans="1:12" ht="16.5">
+    <row r="91" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -3499,7 +3499,7 @@
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
     </row>
-    <row r="92" spans="1:12" ht="16.5">
+    <row r="92" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="11"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
@@ -3511,7 +3511,7 @@
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
     </row>
-    <row r="93" spans="1:12" ht="16.5">
+    <row r="93" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="11"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -3523,7 +3523,7 @@
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
     </row>
-    <row r="94" spans="1:12" ht="16.5">
+    <row r="94" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="11"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -3535,7 +3535,7 @@
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
     </row>
-    <row r="95" spans="1:12" ht="16.5">
+    <row r="95" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="11"/>
@@ -3546,7 +3546,7 @@
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
     </row>
-    <row r="96" spans="1:12" ht="16.5">
+    <row r="96" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="11"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -3558,7 +3558,7 @@
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
     </row>
-    <row r="97" spans="1:12" ht="16.5">
+    <row r="97" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="11"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -3570,7 +3570,7 @@
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
     </row>
-    <row r="98" spans="1:12" ht="16.5">
+    <row r="98" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
@@ -3582,7 +3582,7 @@
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
     </row>
-    <row r="99" spans="1:12" ht="16.5">
+    <row r="99" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="11"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
@@ -3594,7 +3594,7 @@
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
     </row>
-    <row r="100" spans="1:12" ht="16.5">
+    <row r="100" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="11"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -3606,7 +3606,7 @@
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
     </row>
-    <row r="101" spans="1:12" ht="16.5">
+    <row r="101" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="11"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -3617,7 +3617,7 @@
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
     </row>
-    <row r="102" spans="1:12" ht="16.5">
+    <row r="102" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="11"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -3629,7 +3629,7 @@
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
     </row>
-    <row r="103" spans="1:12" ht="16.5">
+    <row r="103" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="11"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -3641,7 +3641,7 @@
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
     </row>
-    <row r="104" spans="1:12" ht="16.5">
+    <row r="104" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="11"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
@@ -3653,7 +3653,7 @@
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
     </row>
-    <row r="105" spans="1:12" ht="16.5">
+    <row r="105" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="11"/>
@@ -3664,7 +3664,7 @@
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
     </row>
-    <row r="106" spans="1:12" ht="16.5">
+    <row r="106" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="11"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
@@ -3676,7 +3676,7 @@
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="1:12" ht="16.5">
+    <row r="107" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="11"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -3688,7 +3688,7 @@
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="1:12" ht="16.5">
+    <row r="108" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="11"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -3700,847 +3700,847 @@
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="1:12" ht="16.5">
+    <row r="109" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="11"/>
       <c r="D109"/>
       <c r="E109"/>
     </row>
-    <row r="110" spans="1:12" ht="16.5">
+    <row r="110" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
     </row>
-    <row r="111" spans="1:12" ht="16.5">
+    <row r="111" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="11"/>
       <c r="D111"/>
       <c r="E111"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="D113"/>
       <c r="E113"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="D115"/>
       <c r="E115"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="D117"/>
       <c r="E117"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="D119"/>
       <c r="E119"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="D121"/>
       <c r="E121"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="D123"/>
       <c r="E123"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="D125"/>
       <c r="E125"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="D127"/>
       <c r="E127"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="D129"/>
       <c r="E129"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="D131"/>
       <c r="E131"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="D133"/>
       <c r="E133"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="D135"/>
       <c r="E135"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="D137"/>
       <c r="E137"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="D139"/>
       <c r="E139"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="D141"/>
       <c r="E141"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="D143"/>
       <c r="E143"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="D145"/>
       <c r="E145"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="D147"/>
       <c r="E147"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="D149"/>
       <c r="E149"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="D151"/>
       <c r="E151"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="D153"/>
       <c r="E153"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="D155"/>
       <c r="E155"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="D157"/>
       <c r="E157"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159"/>
       <c r="D159"/>
       <c r="E159"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="D161"/>
       <c r="E161"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="D163"/>
       <c r="E163"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="D165"/>
       <c r="E165"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="D167"/>
       <c r="E167"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="D169"/>
       <c r="E169"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="D171"/>
       <c r="E171"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="D173"/>
       <c r="E173"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="D175"/>
       <c r="E175"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="D177"/>
       <c r="E177"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="D179"/>
       <c r="E179"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="D181"/>
       <c r="E181"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="D183"/>
       <c r="E183"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="D185"/>
       <c r="E185"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="D187"/>
       <c r="E187"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="D189"/>
       <c r="E189"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="D191"/>
       <c r="E191"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="D193"/>
       <c r="E193"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195"/>
       <c r="D195"/>
       <c r="E195"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197"/>
       <c r="D197"/>
       <c r="E197"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199"/>
       <c r="D199"/>
       <c r="E199"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201"/>
       <c r="D201"/>
       <c r="E201"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203"/>
       <c r="D203"/>
       <c r="E203"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205"/>
       <c r="D205"/>
       <c r="E205"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207"/>
       <c r="D207"/>
       <c r="E207"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="D209"/>
       <c r="E209"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211"/>
       <c r="D211"/>
       <c r="E211"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213"/>
       <c r="D213"/>
       <c r="E213"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215"/>
       <c r="D215"/>
       <c r="E215"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217"/>
       <c r="D217"/>
       <c r="E217"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219"/>
       <c r="D219"/>
       <c r="E219"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221"/>
       <c r="D221"/>
       <c r="E221"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="D223"/>
       <c r="E223"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="D225"/>
       <c r="E225"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="D227"/>
       <c r="E227"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="D229"/>
       <c r="E229"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="D231"/>
       <c r="E231"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="D233"/>
       <c r="E233"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235"/>
       <c r="D235"/>
       <c r="E235"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237"/>
       <c r="D237"/>
       <c r="E237"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239"/>
       <c r="D239"/>
       <c r="E239"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241"/>
       <c r="D241"/>
       <c r="E241"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243"/>
       <c r="D243"/>
       <c r="E243"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245"/>
       <c r="D245"/>
       <c r="E245"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247"/>
       <c r="D247"/>
       <c r="E247"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249"/>
       <c r="D249"/>
       <c r="E249"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251"/>
       <c r="D251"/>
       <c r="E251"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253"/>
       <c r="D253"/>
       <c r="E253"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255"/>
       <c r="D255"/>
       <c r="E255"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257"/>
       <c r="D257"/>
       <c r="E257"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259"/>
       <c r="D259"/>
       <c r="E259"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261"/>
       <c r="D261"/>
       <c r="E261"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263"/>
       <c r="D263"/>
       <c r="E263"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="D265"/>
       <c r="E265"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267"/>
       <c r="D267"/>
       <c r="E267"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269"/>
       <c r="D269"/>
       <c r="E269"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="D271"/>
       <c r="E271"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273"/>
       <c r="D273"/>
       <c r="E273"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275"/>
       <c r="D275"/>
       <c r="E275"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277"/>
       <c r="D277"/>
       <c r="E277"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279"/>
       <c r="D279"/>
       <c r="E279"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281"/>
       <c r="D281"/>
       <c r="E281"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283"/>
       <c r="D283"/>
       <c r="E283"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285"/>
       <c r="D285"/>
       <c r="E285"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287"/>
       <c r="D287"/>
       <c r="E287"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289"/>
       <c r="D289"/>
       <c r="E289"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291"/>
       <c r="D291"/>
       <c r="E291"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293"/>
       <c r="D293"/>
       <c r="E293"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295"/>
       <c r="D295"/>
       <c r="E295"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297"/>
       <c r="D297"/>
       <c r="E297"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299"/>
       <c r="D299"/>
       <c r="E299"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301"/>
       <c r="D301"/>
       <c r="E301"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303"/>
       <c r="D303"/>
       <c r="E303"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305"/>
       <c r="D305"/>
       <c r="E305"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307"/>
       <c r="D307"/>
       <c r="E307"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309"/>
       <c r="D309"/>
       <c r="E309"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311"/>
       <c r="D311"/>
       <c r="E311"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313"/>
       <c r="D313"/>
       <c r="E313"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315"/>
       <c r="D315"/>
       <c r="E315"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317"/>
       <c r="D317"/>
       <c r="E317"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319"/>
       <c r="D319"/>
       <c r="E319"/>
@@ -4564,19 +4564,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="168">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -339,15 +339,302 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ViewName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配谁亮谁（例：view）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了翻牌子功能，请点击打开看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍女生产完成，点击收获。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击奖励界面关闭按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你解锁了赏赐功能，刚收货的御用品都存到了这里，快点开看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快把刚才收获的御用品放入到赏赐栏里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放好了，点确定关闭界面。根据你放入的物品会触发宫里的很多随意事件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了回忆录！后宫的神秘事件，都会收帮你藏到这里。请点击打开看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是刚才的事件。有什么感想可以留言呀。快点开看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要留言可以点这里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/GameSceneView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceDetailView</t>
+  </si>
+  <si>
+    <t>Prefab/PalaceDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/TravelView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EventDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceTakeItemView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先购买一个侍女，侍女可以产钱跟御用品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击购买按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_palace</t>
+  </si>
+  <si>
+    <t>button_handbook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>button_close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ViewName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配谁亮谁（例：view）</t>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_bestowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmButton</t>
+  </si>
+  <si>
+    <t>ConfirmButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EventView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalaceMaidNode1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型 0无条件引导 1 关卡解锁 2 不主动触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一步id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EventDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了后宫功能，请点击打开看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
+  </si>
+  <si>
+    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceMaidDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupplyItemNode_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventItemNode__2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉得合成宫女太累了？没关系，我们可以点击打开招募，招募宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次招募一个宫女吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击招募宫女就可以直接获得一个宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们返回招募看下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_dialogClose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咦，你好像触发了神秘事件!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜开启新关卡！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/FindNewPlayerView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/NewLevelView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,47 +642,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ConditionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -403,238 +658,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了翻牌子功能，请点击打开看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侍女生产完成，点击收获。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击奖励界面关闭按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜你解锁了赏赐功能，刚收货的御用品都存到了这里，快点开看看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快把刚才收获的御用品放入到赏赐栏里。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放好了，点确定关闭界面。根据你放入的物品会触发宫里的很多随意事件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击返回按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了回忆录！后宫的神秘事件，都会收帮你藏到这里。请点击打开看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是刚才的事件。有什么感想可以留言呀。快点开看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想要留言可以点这里。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/GameSceneView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceDetailView</t>
-  </si>
-  <si>
-    <t>Prefab/PalaceDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/TravelView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/EventDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceTakeItemView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首先购买一个侍女，侍女可以产钱跟御用品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击购买按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_palace</t>
-  </si>
-  <si>
-    <t>button_handbook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_bestowed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfirmButton</t>
-  </si>
-  <si>
-    <t>ConfirmButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/EventView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PalaceMaidNode1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件类型 0无条件引导 1 关卡解锁 2 不主动触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一步id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/EventDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了后宫功能，请点击打开看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
-  </si>
-  <si>
-    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceMaidDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupplyItemNode_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventItemNode__2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉得合成宫女太累了？没关系，我们可以点击打开招募，招募宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次招募一个宫女吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击招募宫女就可以直接获得一个宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让我们返回招募看下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_dialogClose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咦，你好像触发了神秘事件!</t>
+    <t>116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O319"/>
+  <dimension ref="A1:O320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1197,7 +1225,7 @@
         <v>82</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -1215,7 +1243,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>23</v>
@@ -1230,10 +1258,10 @@
         <v>48</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1277,10 +1305,10 @@
         <v>49</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1300,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>71</v>
@@ -1321,7 +1349,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>24</v>
@@ -1336,10 +1364,10 @@
         <v>50</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1347,7 +1375,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="15">
         <v>102</v>
@@ -1384,7 +1412,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="15">
         <v>103</v>
@@ -1405,7 +1433,7 @@
         <v>83</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>78</v>
@@ -1427,7 +1455,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="15">
         <v>104</v>
@@ -1463,7 +1491,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="15">
         <v>105</v>
@@ -1502,7 +1530,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="15">
         <v>106</v>
@@ -1523,7 +1551,7 @@
         <v>83</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>78</v>
@@ -1545,7 +1573,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="15">
         <v>107</v>
@@ -1560,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>84</v>
@@ -1587,7 +1615,7 @@
         <v>107</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="15">
         <v>108</v>
@@ -1602,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>43</v>
@@ -1629,7 +1657,7 @@
         <v>108</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="15">
         <v>109</v>
@@ -1644,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>56</v>
@@ -1671,7 +1699,7 @@
         <v>109</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="15">
         <v>110</v>
@@ -1686,16 +1714,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>70</v>
@@ -1713,7 +1741,7 @@
         <v>110</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="15">
         <v>111</v>
@@ -1752,7 +1780,7 @@
         <v>111</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="15">
         <v>112</v>
@@ -1791,31 +1819,31 @@
         <v>112</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" s="15">
         <v>113</v>
       </c>
-      <c r="D16" s="21">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-      <c r="F16" s="23">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>85</v>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>63</v>
@@ -1833,31 +1861,31 @@
         <v>113</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17" s="15">
         <v>114</v>
       </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>61</v>
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>63</v>
@@ -1875,13 +1903,13 @@
         <v>114</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C18" s="15">
         <v>115</v>
       </c>
       <c r="D18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
@@ -1890,17 +1918,21 @@
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="K18" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>76</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="L18" s="19"/>
       <c r="N18">
         <v>2</v>
       </c>
@@ -1913,13 +1945,13 @@
         <v>115</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="15">
         <v>116</v>
       </c>
       <c r="D19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -1928,21 +1960,17 @@
         <v>1</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="N19">
         <v>2</v>
       </c>
@@ -1955,7 +1983,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C20" s="15">
         <v>117</v>
@@ -1966,23 +1994,23 @@
       <c r="E20" s="7">
         <v>1</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="L20" s="19"/>
       <c r="N20">
@@ -1997,21 +2025,23 @@
         <v>117</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C21" s="15">
         <v>118</v>
       </c>
       <c r="D21" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="H21" s="7" t="s">
         <v>36</v>
       </c>
@@ -2021,7 +2051,9 @@
       <c r="J21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K21" s="19"/>
+      <c r="K21" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="L21" s="19"/>
       <c r="N21">
         <v>2</v>
@@ -2035,35 +2067,31 @@
         <v>118</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C22" s="15">
         <v>119</v>
       </c>
       <c r="D22" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
-        <v>1</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>54</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="N22">
         <v>2</v>
@@ -2077,10 +2105,10 @@
         <v>119</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="C23" s="15">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
@@ -2092,19 +2120,19 @@
         <v>1</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L23" s="19"/>
       <c r="N23">
@@ -2116,13 +2144,13 @@
     </row>
     <row r="24" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
-        <v>201</v>
-      </c>
-      <c r="B24" s="15">
-        <v>201</v>
+        <v>120</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>167</v>
       </c>
       <c r="C24" s="15">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
@@ -2133,38 +2161,38 @@
       <c r="F24" s="13">
         <v>1</v>
       </c>
-      <c r="G24" s="26" t="s">
-        <v>145</v>
+      <c r="G24" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>123</v>
+        <v>33</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="L24" s="19"/>
       <c r="N24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" s="15">
         <v>201</v>
       </c>
       <c r="C25" s="15">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2175,38 +2203,38 @@
       <c r="F25" s="13">
         <v>1</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>138</v>
+      <c r="G25" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L25" s="19"/>
       <c r="N25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="15">
         <v>201</v>
       </c>
       <c r="C26" s="15">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
@@ -2218,19 +2246,19 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L26" s="19"/>
       <c r="N26">
@@ -2242,13 +2270,13 @@
     </row>
     <row r="27" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="15">
         <v>201</v>
       </c>
       <c r="C27" s="15">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="7">
         <v>1</v>
@@ -2259,21 +2287,22 @@
       <c r="F27" s="13">
         <v>1</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>125</v>
+      <c r="G27" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="L27" s="19"/>
       <c r="N27">
         <v>2</v>
       </c>
@@ -2283,14 +2312,14 @@
     </row>
     <row r="28" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
+        <v>204</v>
+      </c>
+      <c r="B28" s="15">
+        <v>201</v>
+      </c>
+      <c r="C28" s="15">
         <v>205</v>
       </c>
-      <c r="B28" s="31">
-        <v>601</v>
-      </c>
-      <c r="C28" s="15">
-        <v>206</v>
-      </c>
       <c r="D28" s="7">
         <v>1</v>
       </c>
@@ -2300,23 +2329,21 @@
       <c r="F28" s="13">
         <v>1</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>116</v>
+      <c r="G28" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29"/>
+        <v>63</v>
+      </c>
       <c r="N28">
         <v>2</v>
       </c>
@@ -2326,14 +2353,14 @@
     </row>
     <row r="29" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
+        <v>205</v>
+      </c>
+      <c r="B29" s="31">
+        <v>601</v>
+      </c>
+      <c r="C29" s="15">
         <v>206</v>
       </c>
-      <c r="B29" s="31">
-        <v>301</v>
-      </c>
-      <c r="C29" s="15">
-        <v>207</v>
-      </c>
       <c r="D29" s="7">
         <v>1</v>
       </c>
@@ -2344,21 +2371,21 @@
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L29" s="27"/>
+        <v>132</v>
+      </c>
+      <c r="L29" s="28"/>
       <c r="M29" s="29"/>
       <c r="N29">
         <v>2</v>
@@ -2369,13 +2396,13 @@
     </row>
     <row r="30" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" s="31">
         <v>301</v>
       </c>
       <c r="C30" s="15">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -2387,19 +2414,19 @@
         <v>1</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>129</v>
+      <c r="I30" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="L30" s="27"/>
       <c r="M30" s="29"/>
@@ -2412,13 +2439,13 @@
     </row>
     <row r="31" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B31" s="31">
         <v>301</v>
       </c>
       <c r="C31" s="15">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -2430,19 +2457,19 @@
         <v>1</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>150</v>
+        <v>114</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="29"/>
@@ -2455,37 +2482,37 @@
     </row>
     <row r="32" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B32" s="31">
         <v>301</v>
       </c>
       <c r="C32" s="15">
-        <v>210</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5">
+        <v>209</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
         <v>1</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>130</v>
+        <v>147</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L32" s="27"/>
       <c r="M32" s="29"/>
@@ -2498,39 +2525,40 @@
     </row>
     <row r="33" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
+        <v>209</v>
+      </c>
+      <c r="B33" s="31">
+        <v>301</v>
+      </c>
+      <c r="C33" s="15">
         <v>210</v>
       </c>
-      <c r="B33" s="31">
-        <v>401</v>
-      </c>
-      <c r="C33" s="15">
-        <v>211</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>160</v>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J33" s="24" t="s">
-        <v>149</v>
+        <v>115</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="L33" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="L33" s="27"/>
+      <c r="M33" s="29"/>
       <c r="N33">
         <v>2</v>
       </c>
@@ -2538,39 +2566,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" s="31">
         <v>401</v>
       </c>
       <c r="C34" s="15">
-        <v>212</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="13">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>132</v>
+        <v>211</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L34" s="6"/>
       <c r="N34">
@@ -2580,15 +2608,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" s="31">
         <v>401</v>
       </c>
       <c r="C35" s="15">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -2599,20 +2627,20 @@
       <c r="F35" s="13">
         <v>1</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>115</v>
+      <c r="G35" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="L35" s="6"/>
       <c r="N35">
@@ -2622,15 +2650,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="31">
         <v>401</v>
       </c>
       <c r="C36" s="15">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
@@ -2641,20 +2669,20 @@
       <c r="F36" s="13">
         <v>1</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>111</v>
+      <c r="G36" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="L36" s="6"/>
       <c r="N36">
@@ -2666,13 +2694,13 @@
     </row>
     <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37" s="31">
         <v>401</v>
       </c>
       <c r="C37" s="15">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -2683,20 +2711,20 @@
       <c r="F37" s="13">
         <v>1</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>112</v>
+      <c r="G37" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="L37" s="6"/>
       <c r="N37">
@@ -2708,13 +2736,13 @@
     </row>
     <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <v>301</v>
-      </c>
-      <c r="B38" s="15">
-        <v>301</v>
+        <v>214</v>
+      </c>
+      <c r="B38" s="31">
+        <v>401</v>
       </c>
       <c r="C38" s="15">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -2725,20 +2753,20 @@
       <c r="F38" s="13">
         <v>1</v>
       </c>
-      <c r="G38" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>123</v>
+      <c r="G38" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="L38" s="6"/>
       <c r="N38">
@@ -2750,13 +2778,13 @@
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B39" s="15">
         <v>301</v>
       </c>
       <c r="C39" s="15">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -2767,20 +2795,20 @@
       <c r="F39" s="13">
         <v>1</v>
       </c>
-      <c r="G39" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>67</v>
+      <c r="G39" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L39" s="6"/>
       <c r="N39">
@@ -2792,13 +2820,13 @@
     </row>
     <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="B40" s="15">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="C40" s="15">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -2809,20 +2837,20 @@
       <c r="F40" s="13">
         <v>1</v>
       </c>
-      <c r="G40" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>123</v>
+      <c r="G40" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L40" s="6"/>
       <c r="N40">
@@ -2834,13 +2862,13 @@
     </row>
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
-        <v>601</v>
+        <v>401</v>
       </c>
       <c r="B41" s="15">
-        <v>601</v>
+        <v>401</v>
       </c>
       <c r="C41" s="15">
-        <v>602</v>
+        <v>212</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
@@ -2852,16 +2880,16 @@
         <v>1</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>69</v>
@@ -2876,13 +2904,13 @@
     </row>
     <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B42" s="15">
         <v>601</v>
       </c>
       <c r="C42" s="15">
-        <v>205</v>
+        <v>602</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -2893,20 +2921,20 @@
       <c r="F42" s="13">
         <v>1</v>
       </c>
-      <c r="G42" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>67</v>
+      <c r="G42" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L42" s="6"/>
       <c r="N42">
@@ -2917,16 +2945,46 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
+      <c r="A43" s="13">
+        <v>602</v>
+      </c>
+      <c r="B43" s="15">
+        <v>601</v>
+      </c>
+      <c r="C43" s="15">
+        <v>205</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="13">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
@@ -2941,6 +2999,7 @@
       <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="11"/>
@@ -2952,7 +3011,6 @@
       <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="11"/>
@@ -2968,7 +3026,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="6"/>
@@ -3037,15 +3095,15 @@
     </row>
     <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
     </row>
     <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
@@ -3060,10 +3118,11 @@
       <c r="L54" s="10"/>
     </row>
     <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -3071,11 +3130,10 @@
       <c r="L55" s="10"/>
     </row>
     <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -3135,7 +3193,7 @@
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="11"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -3179,6 +3237,7 @@
       <c r="L64" s="10"/>
     </row>
     <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="11"/>
@@ -3190,7 +3249,6 @@
       <c r="L65" s="10"/>
     </row>
     <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="11"/>
@@ -3242,12 +3300,12 @@
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="11"/>
-      <c r="G70" s="8"/>
+      <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
     </row>
     <row r="71" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
@@ -3266,7 +3324,7 @@
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="11"/>
-      <c r="G72" s="10"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
@@ -3298,6 +3356,7 @@
       <c r="L74" s="12"/>
     </row>
     <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="11"/>
@@ -3309,7 +3368,6 @@
       <c r="L75" s="12"/>
     </row>
     <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="11"/>
@@ -3350,8 +3408,8 @@
       <c r="E79" s="13"/>
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
@@ -3362,11 +3420,11 @@
       <c r="E80" s="13"/>
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
       <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
     </row>
     <row r="81" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
@@ -3417,6 +3475,7 @@
       <c r="L84" s="10"/>
     </row>
     <row r="85" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="11"/>
@@ -3428,7 +3487,6 @@
       <c r="L85" s="10"/>
     </row>
     <row r="86" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="11"/>
@@ -3484,8 +3542,8 @@
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
     </row>
     <row r="91" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
@@ -3536,6 +3594,7 @@
       <c r="L94" s="12"/>
     </row>
     <row r="95" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="11"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="11"/>
@@ -3547,11 +3606,10 @@
       <c r="L95" s="12"/>
     </row>
     <row r="96" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="11"/>
-      <c r="G96" s="14"/>
+      <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
@@ -3575,12 +3633,12 @@
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="11"/>
-      <c r="G98" s="10"/>
+      <c r="G98" s="14"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
     </row>
     <row r="99" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="11"/>
@@ -3599,7 +3657,7 @@
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="11"/>
-      <c r="G100" s="14"/>
+      <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
@@ -3611,6 +3669,7 @@
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
       <c r="F101" s="11"/>
+      <c r="G101" s="14"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -3622,7 +3681,6 @@
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="11"/>
-      <c r="G102" s="14"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
@@ -3654,6 +3712,7 @@
       <c r="L104" s="10"/>
     </row>
     <row r="105" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="11"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="11"/>
@@ -3665,7 +3724,6 @@
       <c r="L105" s="10"/>
     </row>
     <row r="106" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="11"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="11"/>
@@ -3702,848 +3760,860 @@
     </row>
     <row r="109" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="11"/>
-      <c r="D109"/>
-      <c r="E109"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
     </row>
     <row r="110" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
+      <c r="D110"/>
+      <c r="E110"/>
     </row>
     <row r="111" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="11"/>
-      <c r="D111"/>
-      <c r="E111"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112"/>
+    </row>
+    <row r="112" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="11"/>
+      <c r="D112"/>
+      <c r="E112"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113"/>
-      <c r="D113"/>
-      <c r="E113"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114"/>
+      <c r="D114"/>
+      <c r="E114"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115"/>
-      <c r="D115"/>
-      <c r="E115"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116"/>
+      <c r="D116"/>
+      <c r="E116"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117"/>
-      <c r="D117"/>
-      <c r="E117"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118"/>
+      <c r="D118"/>
+      <c r="E118"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119"/>
-      <c r="D119"/>
-      <c r="E119"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120"/>
+      <c r="D120"/>
+      <c r="E120"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121"/>
-      <c r="D121"/>
-      <c r="E121"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122"/>
+      <c r="D122"/>
+      <c r="E122"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123"/>
-      <c r="D123"/>
-      <c r="E123"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124"/>
+      <c r="D124"/>
+      <c r="E124"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125"/>
-      <c r="D125"/>
-      <c r="E125"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126"/>
+      <c r="D126"/>
+      <c r="E126"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127"/>
-      <c r="D127"/>
-      <c r="E127"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128"/>
+      <c r="D128"/>
+      <c r="E128"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129"/>
-      <c r="D129"/>
-      <c r="E129"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130"/>
+      <c r="D130"/>
+      <c r="E130"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131"/>
-      <c r="D131"/>
-      <c r="E131"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132"/>
+      <c r="D132"/>
+      <c r="E132"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133"/>
-      <c r="D133"/>
-      <c r="E133"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134"/>
+      <c r="D134"/>
+      <c r="E134"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135"/>
-      <c r="D135"/>
-      <c r="E135"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136"/>
+      <c r="D136"/>
+      <c r="E136"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137"/>
-      <c r="D137"/>
-      <c r="E137"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138"/>
+      <c r="D138"/>
+      <c r="E138"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139"/>
-      <c r="D139"/>
-      <c r="E139"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140"/>
+      <c r="D140"/>
+      <c r="E140"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141"/>
-      <c r="D141"/>
-      <c r="E141"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142"/>
+      <c r="D142"/>
+      <c r="E142"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143"/>
-      <c r="D143"/>
-      <c r="E143"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144"/>
+      <c r="D144"/>
+      <c r="E144"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145"/>
-      <c r="D145"/>
-      <c r="E145"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146"/>
+      <c r="D146"/>
+      <c r="E146"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147"/>
-      <c r="D147"/>
-      <c r="E147"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148"/>
+      <c r="D148"/>
+      <c r="E148"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149"/>
-      <c r="D149"/>
-      <c r="E149"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150"/>
+      <c r="D150"/>
+      <c r="E150"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151"/>
-      <c r="D151"/>
-      <c r="E151"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152"/>
+      <c r="D152"/>
+      <c r="E152"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153"/>
-      <c r="D153"/>
-      <c r="E153"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154"/>
+      <c r="D154"/>
+      <c r="E154"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155"/>
-      <c r="D155"/>
-      <c r="E155"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156"/>
+      <c r="D156"/>
+      <c r="E156"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157"/>
-      <c r="D157"/>
-      <c r="E157"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158"/>
+      <c r="D158"/>
+      <c r="E158"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159"/>
-      <c r="D159"/>
-      <c r="E159"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160"/>
+      <c r="D160"/>
+      <c r="E160"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161"/>
-      <c r="D161"/>
-      <c r="E161"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162"/>
+      <c r="D162"/>
+      <c r="E162"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163"/>
-      <c r="D163"/>
-      <c r="E163"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164"/>
+      <c r="D164"/>
+      <c r="E164"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165"/>
-      <c r="D165"/>
-      <c r="E165"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166"/>
+      <c r="D166"/>
+      <c r="E166"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167"/>
-      <c r="D167"/>
-      <c r="E167"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168"/>
+      <c r="D168"/>
+      <c r="E168"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169"/>
-      <c r="D169"/>
-      <c r="E169"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170"/>
+      <c r="D170"/>
+      <c r="E170"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171"/>
-      <c r="D171"/>
-      <c r="E171"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172"/>
+      <c r="D172"/>
+      <c r="E172"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173"/>
-      <c r="D173"/>
-      <c r="E173"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174"/>
+      <c r="D174"/>
+      <c r="E174"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175"/>
-      <c r="D175"/>
-      <c r="E175"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176"/>
+      <c r="D176"/>
+      <c r="E176"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177"/>
-      <c r="D177"/>
-      <c r="E177"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178"/>
+      <c r="D178"/>
+      <c r="E178"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179"/>
-      <c r="D179"/>
-      <c r="E179"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180"/>
+      <c r="D180"/>
+      <c r="E180"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181"/>
-      <c r="D181"/>
-      <c r="E181"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182"/>
+      <c r="D182"/>
+      <c r="E182"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183"/>
-      <c r="D183"/>
-      <c r="E183"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184"/>
+      <c r="D184"/>
+      <c r="E184"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185"/>
-      <c r="D185"/>
-      <c r="E185"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186"/>
+      <c r="D186"/>
+      <c r="E186"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187"/>
-      <c r="D187"/>
-      <c r="E187"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188"/>
+      <c r="D188"/>
+      <c r="E188"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189"/>
-      <c r="D189"/>
-      <c r="E189"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190"/>
+      <c r="D190"/>
+      <c r="E190"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191"/>
-      <c r="D191"/>
-      <c r="E191"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192"/>
+      <c r="D192"/>
+      <c r="E192"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193"/>
-      <c r="D193"/>
-      <c r="E193"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194"/>
+      <c r="D194"/>
+      <c r="E194"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195"/>
-      <c r="D195"/>
-      <c r="E195"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196"/>
+      <c r="D196"/>
+      <c r="E196"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197"/>
-      <c r="D197"/>
-      <c r="E197"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198"/>
+      <c r="D198"/>
+      <c r="E198"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199"/>
-      <c r="D199"/>
-      <c r="E199"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200"/>
+      <c r="D200"/>
+      <c r="E200"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201"/>
-      <c r="D201"/>
-      <c r="E201"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202"/>
+      <c r="D202"/>
+      <c r="E202"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203"/>
-      <c r="D203"/>
-      <c r="E203"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204"/>
+      <c r="D204"/>
+      <c r="E204"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205"/>
-      <c r="D205"/>
-      <c r="E205"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206"/>
+      <c r="D206"/>
+      <c r="E206"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207"/>
-      <c r="D207"/>
-      <c r="E207"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208"/>
+      <c r="D208"/>
+      <c r="E208"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209"/>
-      <c r="D209"/>
-      <c r="E209"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210"/>
+      <c r="D210"/>
+      <c r="E210"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211"/>
-      <c r="D211"/>
-      <c r="E211"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212"/>
+      <c r="D212"/>
+      <c r="E212"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213"/>
-      <c r="D213"/>
-      <c r="E213"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214"/>
+      <c r="D214"/>
+      <c r="E214"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215"/>
-      <c r="D215"/>
-      <c r="E215"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216"/>
+      <c r="D216"/>
+      <c r="E216"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217"/>
-      <c r="D217"/>
-      <c r="E217"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218"/>
+      <c r="D218"/>
+      <c r="E218"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219"/>
-      <c r="D219"/>
-      <c r="E219"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220"/>
+      <c r="D220"/>
+      <c r="E220"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221"/>
-      <c r="D221"/>
-      <c r="E221"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222"/>
+      <c r="D222"/>
+      <c r="E222"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223"/>
-      <c r="D223"/>
-      <c r="E223"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224"/>
+      <c r="D224"/>
+      <c r="E224"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225"/>
-      <c r="D225"/>
-      <c r="E225"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226"/>
+      <c r="D226"/>
+      <c r="E226"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227"/>
-      <c r="D227"/>
-      <c r="E227"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228"/>
+      <c r="D228"/>
+      <c r="E228"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229"/>
-      <c r="D229"/>
-      <c r="E229"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230"/>
+      <c r="D230"/>
+      <c r="E230"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231"/>
-      <c r="D231"/>
-      <c r="E231"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232"/>
+      <c r="D232"/>
+      <c r="E232"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233"/>
-      <c r="D233"/>
-      <c r="E233"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234"/>
+      <c r="D234"/>
+      <c r="E234"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235"/>
-      <c r="D235"/>
-      <c r="E235"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236"/>
+      <c r="D236"/>
+      <c r="E236"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237"/>
-      <c r="D237"/>
-      <c r="E237"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238"/>
+      <c r="D238"/>
+      <c r="E238"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239"/>
-      <c r="D239"/>
-      <c r="E239"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240"/>
+      <c r="D240"/>
+      <c r="E240"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241"/>
-      <c r="D241"/>
-      <c r="E241"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242"/>
+      <c r="D242"/>
+      <c r="E242"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243"/>
-      <c r="D243"/>
-      <c r="E243"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244"/>
+      <c r="D244"/>
+      <c r="E244"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245"/>
-      <c r="D245"/>
-      <c r="E245"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246"/>
+      <c r="D246"/>
+      <c r="E246"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247"/>
-      <c r="D247"/>
-      <c r="E247"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248"/>
+      <c r="D248"/>
+      <c r="E248"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249"/>
-      <c r="D249"/>
-      <c r="E249"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250"/>
+      <c r="D250"/>
+      <c r="E250"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251"/>
-      <c r="D251"/>
-      <c r="E251"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252"/>
+      <c r="D252"/>
+      <c r="E252"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253"/>
-      <c r="D253"/>
-      <c r="E253"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254"/>
+      <c r="D254"/>
+      <c r="E254"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255"/>
-      <c r="D255"/>
-      <c r="E255"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256"/>
+      <c r="D256"/>
+      <c r="E256"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257"/>
-      <c r="D257"/>
-      <c r="E257"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258"/>
+      <c r="D258"/>
+      <c r="E258"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259"/>
-      <c r="D259"/>
-      <c r="E259"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260"/>
+      <c r="D260"/>
+      <c r="E260"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261"/>
-      <c r="D261"/>
-      <c r="E261"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262"/>
+      <c r="D262"/>
+      <c r="E262"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263"/>
-      <c r="D263"/>
-      <c r="E263"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264"/>
+      <c r="D264"/>
+      <c r="E264"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265"/>
-      <c r="D265"/>
-      <c r="E265"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266"/>
+      <c r="D266"/>
+      <c r="E266"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267"/>
-      <c r="D267"/>
-      <c r="E267"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268"/>
+      <c r="D268"/>
+      <c r="E268"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269"/>
-      <c r="D269"/>
-      <c r="E269"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270"/>
+      <c r="D270"/>
+      <c r="E270"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271"/>
-      <c r="D271"/>
-      <c r="E271"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272"/>
+      <c r="D272"/>
+      <c r="E272"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273"/>
-      <c r="D273"/>
-      <c r="E273"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274"/>
+      <c r="D274"/>
+      <c r="E274"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275"/>
-      <c r="D275"/>
-      <c r="E275"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276"/>
+      <c r="D276"/>
+      <c r="E276"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277"/>
-      <c r="D277"/>
-      <c r="E277"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278"/>
+      <c r="D278"/>
+      <c r="E278"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279"/>
-      <c r="D279"/>
-      <c r="E279"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280"/>
+      <c r="D280"/>
+      <c r="E280"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281"/>
-      <c r="D281"/>
-      <c r="E281"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282"/>
+      <c r="D282"/>
+      <c r="E282"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283"/>
-      <c r="D283"/>
-      <c r="E283"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284"/>
+      <c r="D284"/>
+      <c r="E284"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285"/>
-      <c r="D285"/>
-      <c r="E285"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286"/>
+      <c r="D286"/>
+      <c r="E286"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287"/>
-      <c r="D287"/>
-      <c r="E287"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288"/>
+      <c r="D288"/>
+      <c r="E288"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289"/>
-      <c r="D289"/>
-      <c r="E289"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290"/>
+      <c r="D290"/>
+      <c r="E290"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291"/>
-      <c r="D291"/>
-      <c r="E291"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292"/>
+      <c r="D292"/>
+      <c r="E292"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293"/>
-      <c r="D293"/>
-      <c r="E293"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294"/>
+      <c r="D294"/>
+      <c r="E294"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295"/>
-      <c r="D295"/>
-      <c r="E295"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296"/>
+      <c r="D296"/>
+      <c r="E296"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297"/>
-      <c r="D297"/>
-      <c r="E297"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298"/>
+      <c r="D298"/>
+      <c r="E298"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299"/>
-      <c r="D299"/>
-      <c r="E299"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300"/>
+      <c r="D300"/>
+      <c r="E300"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301"/>
-      <c r="D301"/>
-      <c r="E301"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302"/>
+      <c r="D302"/>
+      <c r="E302"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303"/>
-      <c r="D303"/>
-      <c r="E303"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304"/>
+      <c r="D304"/>
+      <c r="E304"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305"/>
-      <c r="D305"/>
-      <c r="E305"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306"/>
+      <c r="D306"/>
+      <c r="E306"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307"/>
-      <c r="D307"/>
-      <c r="E307"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308"/>
+      <c r="D308"/>
+      <c r="E308"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309"/>
-      <c r="D309"/>
-      <c r="E309"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310"/>
+      <c r="D310"/>
+      <c r="E310"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311"/>
-      <c r="D311"/>
-      <c r="E311"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312"/>
+      <c r="D312"/>
+      <c r="E312"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313"/>
-      <c r="D313"/>
-      <c r="E313"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314"/>
+      <c r="D314"/>
+      <c r="E314"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315"/>
-      <c r="D315"/>
-      <c r="E315"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316"/>
+      <c r="D316"/>
+      <c r="E316"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317"/>
-      <c r="D317"/>
-      <c r="E317"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318"/>
+      <c r="D318"/>
+      <c r="E318"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319"/>
-      <c r="D319"/>
-      <c r="E319"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320"/>
+      <c r="D320"/>
+      <c r="E320"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="169">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -163,506 +163,510 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>欢迎来到后宫！我们先打开轿子获取一个宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/ShopView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonXY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物坐标显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaidInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仆人id_仆人数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/GameSceneView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/ShopView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/ShopView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FingerXY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,429</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们接着合并升级宫女，可以开启新的关卡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚才的宫女去哪里了？让我们点击按钮来切换地图找她。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来在这里，合并高等级宫女不仅可以开启新关卡，还能解锁新功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们回到第一关继续合并升级宫女吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1指向位置固定2点空地结束3轿子4仆人5空白）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0无对话，1有对话）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrandNodeParent4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189,196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/GameSceneView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜又获得高等级的新形象！请点击关闭按钮关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜获得新形象！请点击关闭按钮关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您获得新形象！请点击关闭按钮关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resetid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/FindNewPlayerView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/GameSceneView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配谁亮谁（例：view）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了翻牌子功能，请点击打开看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍女生产完成，点击收获。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击奖励界面关闭按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你解锁了赏赐功能，刚收货的御用品都存到了这里，快点开看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快把刚才收获的御用品放入到赏赐栏里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放好了，点确定关闭界面。根据你放入的物品会触发宫里的很多随意事件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了回忆录！后宫的神秘事件，都会收帮你藏到这里。请点击打开看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是刚才的事件。有什么感想可以留言呀。快点开看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要留言可以点这里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/GameSceneView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceDetailView</t>
+  </si>
+  <si>
+    <t>Prefab/PalaceDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/TravelView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EventDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceTakeItemView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先购买一个侍女，侍女可以产钱跟御用品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击购买按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_palace</t>
+  </si>
+  <si>
+    <t>button_handbook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_bestowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmButton</t>
+  </si>
+  <si>
+    <t>ConfirmButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EventView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalaceMaidNode1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型 0无条件引导 1 关卡解锁 2 不主动触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一步id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EventDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了后宫功能，请点击打开看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
+  </si>
+  <si>
+    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceMaidDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupplyItemNode_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventItemNode__2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉得合成宫女太累了？没关系，我们可以点击打开招募，招募宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次招募一个宫女吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击招募宫女就可以直接获得一个宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们返回招募看下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_dialogClose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咦，你好像触发了神秘事件!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜开启新关卡！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/FindNewPlayerView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/NewLevelView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>尝试点击翻牌子，可以获取更多金币。（获得的金币数跟你拥有的宫女等级数量有关）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎来到后宫！我们先打开轿子获取一个宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/ShopView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonXY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物坐标显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaidInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仆人id_仆人数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/GameSceneView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/ShopView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/ShopView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FingerXY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,429</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-466</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让我们接着合并升级宫女，可以开启新的关卡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚才的宫女去哪里了？让我们点击按钮来切换地图找她。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原来在这里，合并高等级宫女不仅可以开启新关卡，还能解锁新功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让我们回到第一关继续合并升级宫女吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,159</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1指向位置固定2点空地结束3轿子4仆人5空白）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsDialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0无对话，1有对话）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrandNodeParent4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-466</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189,196</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/GameSceneView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜又获得高等级的新形象！请点击关闭按钮关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜获得新形象！请点击关闭按钮关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您获得新形象！请点击关闭按钮关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resetid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/FindNewPlayerView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/GameSceneView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViewName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配谁亮谁（例：view）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了翻牌子功能，请点击打开看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侍女生产完成，点击收获。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击奖励界面关闭按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜你解锁了赏赐功能，刚收货的御用品都存到了这里，快点开看看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快把刚才收获的御用品放入到赏赐栏里。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放好了，点确定关闭界面。根据你放入的物品会触发宫里的很多随意事件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击返回按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了回忆录！后宫的神秘事件，都会收帮你藏到这里。请点击打开看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是刚才的事件。有什么感想可以留言呀。快点开看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想要留言可以点这里。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/GameSceneView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceDetailView</t>
-  </si>
-  <si>
-    <t>Prefab/PalaceDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/TravelView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/EventDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceTakeItemView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首先购买一个侍女，侍女可以产钱跟御用品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击购买按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_palace</t>
-  </si>
-  <si>
-    <t>button_handbook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_bestowed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfirmButton</t>
-  </si>
-  <si>
-    <t>ConfirmButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/EventView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PalaceMaidNode1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件类型 0无条件引导 1 关卡解锁 2 不主动触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一步id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/EventDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了后宫功能，请点击打开看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
-  </si>
-  <si>
-    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceMaidDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupplyItemNode_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventItemNode__2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉得合成宫女太累了？没关系，我们可以点击打开招募，招募宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次招募一个宫女吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击招募宫女就可以直接获得一个宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让我们返回招募看下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_dialogClose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咦，你好像触发了神秘事件!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜开启新关卡！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/FindNewPlayerView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/NewLevelView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1198,7 +1202,7 @@
   <dimension ref="A1:O320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1222,16 +1226,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>20</v>
@@ -1243,25 +1247,25 @@
         <v>22</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1296,19 +1300,19 @@
         <v>26</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1328,16 +1332,16 @@
         <v>30</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>140</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>28</v>
@@ -1349,25 +1353,25 @@
         <v>25</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1375,7 +1379,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="15">
         <v>102</v>
@@ -1390,13 +1394,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="8"/>
@@ -1412,7 +1416,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="15">
         <v>103</v>
@@ -1427,19 +1431,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="8"/>
@@ -1455,7 +1459,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="15">
         <v>104</v>
@@ -1476,7 +1480,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7" s="19"/>
       <c r="N7">
@@ -1491,7 +1495,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="15">
         <v>105</v>
@@ -1512,11 +1516,11 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1530,7 +1534,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="15">
         <v>106</v>
@@ -1545,19 +1549,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="14"/>
@@ -1573,7 +1577,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="15">
         <v>107</v>
@@ -1588,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>32</v>
@@ -1600,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="19"/>
       <c r="N10">
@@ -1615,7 +1619,7 @@
         <v>107</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="15">
         <v>108</v>
@@ -1630,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>31</v>
@@ -1642,7 +1646,7 @@
         <v>31</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" s="19"/>
       <c r="N11">
@@ -1657,7 +1661,7 @@
         <v>108</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="15">
         <v>109</v>
@@ -1672,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>31</v>
@@ -1684,7 +1688,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L12" s="19"/>
       <c r="N12">
@@ -1699,7 +1703,7 @@
         <v>109</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="15">
         <v>110</v>
@@ -1714,19 +1718,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="J13" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L13" s="19"/>
       <c r="N13">
@@ -1741,7 +1745,7 @@
         <v>110</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="15">
         <v>111</v>
@@ -1762,11 +1766,11 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1780,7 +1784,7 @@
         <v>111</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="15">
         <v>112</v>
@@ -1795,17 +1799,17 @@
         <v>0</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1819,7 +1823,7 @@
         <v>112</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="15">
         <v>113</v>
@@ -1834,19 +1838,19 @@
         <v>1</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" s="19"/>
       <c r="N16">
@@ -1861,7 +1865,7 @@
         <v>113</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="15">
         <v>114</v>
@@ -1876,19 +1880,19 @@
         <v>1</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L17" s="19"/>
       <c r="N17">
@@ -1903,7 +1907,7 @@
         <v>114</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="15">
         <v>115</v>
@@ -1918,19 +1922,19 @@
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L18" s="19"/>
       <c r="N18">
@@ -1945,7 +1949,7 @@
         <v>115</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="15">
         <v>116</v>
@@ -1960,16 +1964,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1983,7 +1987,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="15">
         <v>117</v>
@@ -1998,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>34</v>
@@ -2010,7 +2014,7 @@
         <v>34</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L20" s="19"/>
       <c r="N20">
@@ -2025,7 +2029,7 @@
         <v>117</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="15">
         <v>118</v>
@@ -2040,19 +2044,19 @@
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>36</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="19"/>
       <c r="N21">
@@ -2067,7 +2071,7 @@
         <v>118</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" s="15">
         <v>119</v>
@@ -2086,10 +2090,10 @@
         <v>36</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -2105,7 +2109,7 @@
         <v>119</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C23" s="15">
         <v>120</v>
@@ -2132,7 +2136,7 @@
         <v>35</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L23" s="19"/>
       <c r="N23">
@@ -2147,7 +2151,7 @@
         <v>120</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="15">
         <v>0</v>
@@ -2162,19 +2166,19 @@
         <v>1</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L24" s="19"/>
       <c r="N24">
@@ -2204,19 +2208,19 @@
         <v>1</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L25" s="19"/>
       <c r="N25">
@@ -2246,19 +2250,19 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L26" s="19"/>
       <c r="N26">
@@ -2288,19 +2292,19 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="19"/>
       <c r="N27">
@@ -2330,19 +2334,19 @@
         <v>1</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2371,19 +2375,19 @@
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="29"/>
@@ -2414,19 +2418,19 @@
         <v>1</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="J30" s="27" t="s">
-        <v>125</v>
-      </c>
       <c r="K30" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L30" s="27"/>
       <c r="M30" s="29"/>
@@ -2457,19 +2461,19 @@
         <v>1</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="29"/>
@@ -2500,19 +2504,19 @@
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L32" s="27"/>
       <c r="M32" s="29"/>
@@ -2543,19 +2547,19 @@
         <v>1</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L33" s="27"/>
       <c r="M33" s="29"/>
@@ -2586,19 +2590,19 @@
         <v>1</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L34" s="6"/>
       <c r="N34">
@@ -2628,19 +2632,19 @@
         <v>1</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L35" s="6"/>
       <c r="N35">
@@ -2670,19 +2674,19 @@
         <v>1</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L36" s="6"/>
       <c r="N36">
@@ -2712,19 +2716,19 @@
         <v>1</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L37" s="6"/>
       <c r="N37">
@@ -2754,19 +2758,19 @@
         <v>1</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L38" s="6"/>
       <c r="N38">
@@ -2796,19 +2800,19 @@
         <v>1</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L39" s="6"/>
       <c r="N39">
@@ -2838,19 +2842,19 @@
         <v>1</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L40" s="6"/>
       <c r="N40">
@@ -2880,19 +2884,19 @@
         <v>1</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L41" s="6"/>
       <c r="N41">
@@ -2922,19 +2926,19 @@
         <v>1</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L42" s="6"/>
       <c r="N42">
@@ -2964,19 +2968,19 @@
         <v>1</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L43" s="6"/>
       <c r="N43">

--- a/docs/excel/Guide.xlsx
+++ b/docs/excel/Guide.xlsx
@@ -435,238 +435,238 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Prefab/GameSceneView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceDetailView</t>
+  </si>
+  <si>
+    <t>Prefab/PalaceDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/TravelView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceTakeItemView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先购买一个侍女，侍女可以产钱跟御用品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击购买按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_palace</t>
+  </si>
+  <si>
+    <t>button_handbook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_bestowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmButton</t>
+  </si>
+  <si>
+    <t>ConfirmButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EventView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalaceMaidNode1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型 0无条件引导 1 关卡解锁 2 不主动触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一步id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EventDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了后宫功能，请点击打开看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
+  </si>
+  <si>
+    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/PalaceMaidDetailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupplyItemNode_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventItemNode__2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉得合成宫女太累了？没关系，我们可以点击打开招募，招募宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次招募一个宫女吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击招募宫女就可以直接获得一个宫女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们返回招募看下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_dialogClose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咦，你好像触发了神秘事件!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜开启新关卡！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/FindNewPlayerView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/NewLevelView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/GameSceneView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceDetailView</t>
-  </si>
-  <si>
-    <t>Prefab/PalaceDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/TravelView</t>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试点击翻牌子，可以获取更多金币。（获得的金币数跟你拥有的宫女等级数量有关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_eventbg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Prefab/EventDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceTakeItemView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首先购买一个侍女，侍女可以产钱跟御用品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击购买按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_palace</t>
-  </si>
-  <si>
-    <t>button_handbook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_bestowed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfirmButton</t>
-  </si>
-  <si>
-    <t>ConfirmButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/EventView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PalaceMaidNode1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件类型 0无条件引导 1 关卡解锁 2 不主动触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一步id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/EventDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了后宫功能，请点击打开看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
-  </si>
-  <si>
-    <t>恭喜解锁了一个后宫佳丽，快点击进去看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/PalaceMaidDetailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupplyItemNode_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventItemNode__2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉得合成宫女太累了？没关系，我们可以点击打开招募，招募宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次招募一个宫女吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击招募宫女就可以直接获得一个宫女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让我们返回招募看下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_dialogClose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咦，你好像触发了神秘事件!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜开启新关卡！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/FindNewPlayerView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/NewLevelView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试点击翻牌子，可以获取更多金币。（获得的金币数跟你拥有的宫女等级数量有关）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1229,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -1332,10 +1332,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>70</v>
@@ -1368,7 +1368,7 @@
         <v>49</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O4" s="18" t="s">
         <v>90</v>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>83</v>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>42</v>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>55</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>69</v>
@@ -1838,16 +1838,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>62</v>
@@ -1883,13 +1883,13 @@
         <v>78</v>
       </c>
       <c r="H17" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="J17" s="24" t="s">
         <v>160</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>162</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>62</v>
@@ -1907,7 +1907,7 @@
         <v>114</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C18" s="15">
         <v>115</v>
@@ -1987,7 +1987,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="15">
         <v>117</v>
@@ -2029,7 +2029,7 @@
         <v>117</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="15">
         <v>118</v>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>36</v>
@@ -2071,7 +2071,7 @@
         <v>118</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C22" s="15">
         <v>119</v>
@@ -2109,7 +2109,7 @@
         <v>119</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C23" s="15">
         <v>120</v>
@@ -2151,7 +2151,7 @@
         <v>120</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" s="15">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>33</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>66</v>
@@ -2208,16 +2208,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>68</v>
@@ -2250,16 +2250,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>69</v>
@@ -2292,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>62</v>
@@ -2334,16 +2334,16 @@
         <v>1</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>62</v>
@@ -2378,16 +2378,16 @@
         <v>100</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="29"/>
@@ -2421,16 +2421,16 @@
         <v>101</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L30" s="27"/>
       <c r="M30" s="29"/>
@@ -2464,13 +2464,13 @@
         <v>102</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K31" s="19" t="s">
         <v>69</v>
@@ -2507,16 +2507,16 @@
         <v>103</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L32" s="27"/>
       <c r="M32" s="29"/>
@@ -2550,16 +2550,16 @@
         <v>104</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L33" s="27"/>
       <c r="M33" s="29"/>
@@ -2590,16 +2590,16 @@
         <v>1</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>62</v>
@@ -2635,13 +2635,13 @@
         <v>105</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K35" s="19" t="s">
         <v>69</v>
@@ -2677,16 +2677,16 @@
         <v>106</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L36" s="6"/>
       <c r="N36">
@@ -2719,13 +2719,13 @@
         <v>107</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K37" s="19" t="s">
         <v>62</v>
@@ -2761,16 +2761,16 @@
         <v>108</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L38" s="6"/>
       <c r="N38">
@@ -2800,16 +2800,16 @@
         <v>1</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K39" s="19" t="s">
         <v>68</v>
@@ -2842,10 +2842,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>66</v>
@@ -2884,16 +2884,16 @@
         <v>1</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>68</v>
@@ -2926,16 +2926,16 @@
         <v>1</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>68</v>
@@ -2968,10 +2968,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>66</v>
